--- a/Scripts/Feature list.xlsx
+++ b/Scripts/Feature list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DigVulSC Project/DigVulSC/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBD2F1-BBB4-BD46-A273-94525506813B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9B6410-9753-C94C-87FA-53F33F1CB42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>

--- a/Scripts/Feature list.xlsx
+++ b/Scripts/Feature list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DigVulSC Project/DigVulSC/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9B6410-9753-C94C-87FA-53F33F1CB42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9525AE-BF5E-C647-B3BA-616559754C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
+    <workbookView xWindow="4440" yWindow="820" windowWidth="25800" windowHeight="17240" activeTab="1" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
   <sheets>
     <sheet name="List options" sheetId="2" r:id="rId1"/>
@@ -1712,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270F6DC-4E94-4848-96D1-0B6D4BC6E591}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1928,15 +1928,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3245D3C-FC29-C84C-8CEB-1C955EFCDC68}">
   <dimension ref="A1:N239"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>

--- a/Scripts/Feature list.xlsx
+++ b/Scripts/Feature list.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DigVulSC Project/DigVulSC/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7AB5A6-1BD3-3840-AEF8-ED68D8DD99C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B01B538-7DB5-CB4E-B61F-ED82C2E5DFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="1" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Reference Guide" sheetId="3" r:id="rId3"/>
-    <sheet name="List options" sheetId="2" r:id="rId4"/>
+    <sheet name="Reference Guide" sheetId="3" r:id="rId2"/>
+    <sheet name="List options" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="716">
   <si>
     <t>Feature</t>
   </si>
@@ -1922,9 +1921,6 @@
     <t>Distribution of the PUSH14 opcode</t>
   </si>
   <si>
-    <t>Distribution of the PC opcode</t>
-  </si>
-  <si>
     <t>Distribution of the SDIV opcode</t>
   </si>
   <si>
@@ -1970,9 +1966,6 @@
     <t>Distribution of the STATICCALL opcode</t>
   </si>
   <si>
-    <t>Distribution of the SAR opcode</t>
-  </si>
-  <si>
     <t>Distribution of the DELEGATECALL opcode</t>
   </si>
   <si>
@@ -1988,9 +1981,6 @@
     <t>Distribution of the CALLCODE opcode</t>
   </si>
   <si>
-    <t>Distribution of the SHL opcode</t>
-  </si>
-  <si>
     <t>Distribution of the CREATE2 opcode</t>
   </si>
   <si>
@@ -1998,9 +1988,6 @@
   </si>
   <si>
     <t>Distribution of the XOR opcode</t>
-  </si>
-  <si>
-    <t>Distribution of the SHR opcode</t>
   </si>
   <si>
     <t>Distribution of the PUSH18 opcode</t>
@@ -2308,7 +2295,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2335,18 +2322,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2495,15 +2476,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2534,7 +2506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2553,24 +2525,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2967,7 +2930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3245D3C-FC29-C84C-8CEB-1C955EFCDC68}">
   <dimension ref="A1:P239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" workbookViewId="0">
+    <sheetView zoomScale="41" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3366,7 +3329,7 @@
       <c r="C11" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="22" t="s">
         <v>401</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -3396,7 +3359,7 @@
       <c r="O11" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="23" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3722,7 +3685,7 @@
       <c r="C21" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="22" t="s">
         <v>401</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -3750,7 +3713,7 @@
       <c r="O21" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="24" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3764,7 +3727,7 @@
       <c r="C22" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="22" t="s">
         <v>401</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -3794,7 +3757,7 @@
       <c r="O22" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="P22" s="23" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5310,7 +5273,7 @@
       <c r="A69" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="25" t="s">
         <v>452</v>
       </c>
       <c r="C69" t="s">
@@ -5713,7 +5676,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="25" t="s">
         <v>129</v>
       </c>
       <c r="E83" t="s">
@@ -5739,7 +5702,7 @@
       <c r="A84" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="25" t="s">
         <v>477</v>
       </c>
       <c r="C84" t="s">
@@ -5858,10 +5821,9 @@
       <c r="E88" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G88" s="23"/>
+      <c r="F88" t="s">
+        <v>292</v>
+      </c>
       <c r="H88" t="s">
         <v>20</v>
       </c>
@@ -5888,10 +5850,9 @@
       <c r="E89" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G89" s="23"/>
+      <c r="F89" t="s">
+        <v>292</v>
+      </c>
       <c r="H89" t="s">
         <v>20</v>
       </c>
@@ -5921,10 +5882,9 @@
       <c r="E90" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G90" s="23"/>
+      <c r="F90" t="s">
+        <v>292</v>
+      </c>
       <c r="H90" t="s">
         <v>20</v>
       </c>
@@ -5954,10 +5914,9 @@
       <c r="E91" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G91" s="23"/>
+      <c r="F91" t="s">
+        <v>292</v>
+      </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
@@ -5987,10 +5946,9 @@
       <c r="E92" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G92" s="23"/>
+      <c r="F92" t="s">
+        <v>292</v>
+      </c>
       <c r="H92" t="s">
         <v>20</v>
       </c>
@@ -6020,10 +5978,9 @@
       <c r="E93" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G93" s="23"/>
+      <c r="F93" t="s">
+        <v>292</v>
+      </c>
       <c r="H93" t="s">
         <v>20</v>
       </c>
@@ -6053,10 +6010,9 @@
       <c r="E94" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G94" s="23"/>
+      <c r="F94" t="s">
+        <v>292</v>
+      </c>
       <c r="H94" t="s">
         <v>20</v>
       </c>
@@ -6086,10 +6042,9 @@
       <c r="E95" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G95" s="23"/>
+      <c r="F95" t="s">
+        <v>292</v>
+      </c>
       <c r="H95" t="s">
         <v>20</v>
       </c>
@@ -6119,10 +6074,9 @@
       <c r="E96" t="s">
         <v>4</v>
       </c>
-      <c r="F96" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G96" s="23"/>
+      <c r="F96" t="s">
+        <v>292</v>
+      </c>
       <c r="H96" t="s">
         <v>20</v>
       </c>
@@ -6152,10 +6106,9 @@
       <c r="E97" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G97" s="23"/>
+      <c r="F97" t="s">
+        <v>292</v>
+      </c>
       <c r="H97" t="s">
         <v>20</v>
       </c>
@@ -6185,10 +6138,9 @@
       <c r="E98" t="s">
         <v>4</v>
       </c>
-      <c r="F98" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G98" s="23"/>
+      <c r="F98" t="s">
+        <v>292</v>
+      </c>
       <c r="H98" t="s">
         <v>20</v>
       </c>
@@ -6218,10 +6170,9 @@
       <c r="E99" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G99" s="23"/>
+      <c r="F99" t="s">
+        <v>292</v>
+      </c>
       <c r="H99" t="s">
         <v>20</v>
       </c>
@@ -6251,10 +6202,9 @@
       <c r="E100" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G100" s="23"/>
+      <c r="F100" t="s">
+        <v>292</v>
+      </c>
       <c r="H100" t="s">
         <v>20</v>
       </c>
@@ -6284,10 +6234,9 @@
       <c r="E101" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G101" s="23"/>
+      <c r="F101" t="s">
+        <v>292</v>
+      </c>
       <c r="H101" t="s">
         <v>20</v>
       </c>
@@ -6317,10 +6266,9 @@
       <c r="E102" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G102" s="23"/>
+      <c r="F102" t="s">
+        <v>292</v>
+      </c>
       <c r="H102" t="s">
         <v>20</v>
       </c>
@@ -6350,10 +6298,9 @@
       <c r="E103" t="s">
         <v>4</v>
       </c>
-      <c r="F103" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G103" s="23"/>
+      <c r="F103" t="s">
+        <v>292</v>
+      </c>
       <c r="H103" t="s">
         <v>20</v>
       </c>
@@ -6383,10 +6330,9 @@
       <c r="E104" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G104" s="23"/>
+      <c r="F104" t="s">
+        <v>292</v>
+      </c>
       <c r="H104" t="s">
         <v>20</v>
       </c>
@@ -6416,10 +6362,9 @@
       <c r="E105" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G105" s="23"/>
+      <c r="F105" t="s">
+        <v>292</v>
+      </c>
       <c r="H105" t="s">
         <v>20</v>
       </c>
@@ -6446,10 +6391,9 @@
       <c r="E106" t="s">
         <v>4</v>
       </c>
-      <c r="F106" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G106" s="23"/>
+      <c r="F106" t="s">
+        <v>292</v>
+      </c>
       <c r="H106" t="s">
         <v>20</v>
       </c>
@@ -6476,10 +6420,9 @@
       <c r="E107" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G107" s="23"/>
+      <c r="F107" t="s">
+        <v>292</v>
+      </c>
       <c r="H107" t="s">
         <v>20</v>
       </c>
@@ -6500,16 +6443,15 @@
       <c r="A108" t="s">
         <v>162</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="26" t="s">
         <v>525</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
       </c>
-      <c r="F108" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G108" s="23"/>
+      <c r="F108" t="s">
+        <v>292</v>
+      </c>
       <c r="H108" t="s">
         <v>20</v>
       </c>
@@ -6530,19 +6472,18 @@
       <c r="A109" t="s">
         <v>221</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" t="s">
         <v>584</v>
       </c>
       <c r="C109" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
       </c>
-      <c r="F109" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G109" s="23"/>
+      <c r="F109" t="s">
+        <v>292</v>
+      </c>
       <c r="H109" t="s">
         <v>20</v>
       </c>
@@ -6563,19 +6504,18 @@
       <c r="A110" t="s">
         <v>244</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" t="s">
         <v>607</v>
       </c>
       <c r="C110" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E110" t="s">
         <v>4</v>
       </c>
-      <c r="F110" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G110" s="23"/>
+      <c r="F110" t="s">
+        <v>292</v>
+      </c>
       <c r="H110" t="s">
         <v>20</v>
       </c>
@@ -6596,19 +6536,18 @@
       <c r="A111" t="s">
         <v>262</v>
       </c>
-      <c r="B111" s="18" t="s">
-        <v>625</v>
+      <c r="B111" t="s">
+        <v>624</v>
       </c>
       <c r="C111" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E111" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G111" s="23"/>
+      <c r="F111" t="s">
+        <v>292</v>
+      </c>
       <c r="H111" t="s">
         <v>20</v>
       </c>
@@ -6629,19 +6568,18 @@
       <c r="A112" t="s">
         <v>176</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" t="s">
         <v>539</v>
       </c>
       <c r="C112" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G112" s="23"/>
+      <c r="F112" t="s">
+        <v>292</v>
+      </c>
       <c r="H112" t="s">
         <v>20</v>
       </c>
@@ -6662,19 +6600,18 @@
       <c r="A113" t="s">
         <v>279</v>
       </c>
-      <c r="B113" s="18" t="s">
-        <v>642</v>
+      <c r="B113" t="s">
+        <v>640</v>
       </c>
       <c r="C113" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E113" t="s">
         <v>4</v>
       </c>
-      <c r="F113" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G113" s="23"/>
+      <c r="F113" t="s">
+        <v>292</v>
+      </c>
       <c r="H113" t="s">
         <v>20</v>
       </c>
@@ -6695,19 +6632,18 @@
       <c r="A114" t="s">
         <v>214</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" t="s">
         <v>577</v>
       </c>
       <c r="C114" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
       </c>
-      <c r="F114" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G114" s="23"/>
+      <c r="F114" t="s">
+        <v>292</v>
+      </c>
       <c r="H114" t="s">
         <v>20</v>
       </c>
@@ -6728,19 +6664,18 @@
       <c r="A115" t="s">
         <v>160</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" t="s">
         <v>523</v>
       </c>
       <c r="C115" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
       </c>
-      <c r="F115" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G115" s="23"/>
+      <c r="F115" t="s">
+        <v>292</v>
+      </c>
       <c r="H115" t="s">
         <v>20</v>
       </c>
@@ -6761,19 +6696,18 @@
       <c r="A116" t="s">
         <v>154</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" t="s">
         <v>516</v>
       </c>
       <c r="C116" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
       </c>
-      <c r="F116" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G116" s="23"/>
+      <c r="F116" t="s">
+        <v>292</v>
+      </c>
       <c r="H116" t="s">
         <v>20</v>
       </c>
@@ -6794,19 +6728,18 @@
       <c r="A117" t="s">
         <v>181</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" t="s">
         <v>544</v>
       </c>
       <c r="C117" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E117" t="s">
         <v>4</v>
       </c>
-      <c r="F117" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G117" s="23"/>
+      <c r="F117" t="s">
+        <v>292</v>
+      </c>
       <c r="H117" t="s">
         <v>20</v>
       </c>
@@ -6827,19 +6760,18 @@
       <c r="A118" t="s">
         <v>169</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" t="s">
         <v>532</v>
       </c>
       <c r="C118" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G118" s="23"/>
+      <c r="F118" t="s">
+        <v>292</v>
+      </c>
       <c r="H118" t="s">
         <v>20</v>
       </c>
@@ -6860,19 +6792,18 @@
       <c r="A119" t="s">
         <v>226</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" t="s">
         <v>589</v>
       </c>
       <c r="C119" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
       </c>
-      <c r="F119" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G119" s="23"/>
+      <c r="F119" t="s">
+        <v>292</v>
+      </c>
       <c r="H119" t="s">
         <v>20</v>
       </c>
@@ -6893,19 +6824,18 @@
       <c r="A120" t="s">
         <v>243</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" t="s">
         <v>606</v>
       </c>
       <c r="C120" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G120" s="23"/>
+      <c r="F120" t="s">
+        <v>292</v>
+      </c>
       <c r="H120" t="s">
         <v>20</v>
       </c>
@@ -6926,19 +6856,18 @@
       <c r="A121" t="s">
         <v>264</v>
       </c>
-      <c r="B121" s="18" t="s">
-        <v>627</v>
+      <c r="B121" t="s">
+        <v>626</v>
       </c>
       <c r="C121" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E121" t="s">
         <v>4</v>
       </c>
-      <c r="F121" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G121" s="23"/>
+      <c r="F121" t="s">
+        <v>292</v>
+      </c>
       <c r="H121" t="s">
         <v>20</v>
       </c>
@@ -6959,19 +6888,18 @@
       <c r="A122" t="s">
         <v>248</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" t="s">
         <v>611</v>
       </c>
       <c r="C122" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
       </c>
-      <c r="F122" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G122" s="23"/>
+      <c r="F122" t="s">
+        <v>292</v>
+      </c>
       <c r="H122" t="s">
         <v>20</v>
       </c>
@@ -6992,19 +6920,18 @@
       <c r="A123" t="s">
         <v>281</v>
       </c>
-      <c r="B123" s="18" t="s">
-        <v>644</v>
+      <c r="B123" t="s">
+        <v>641</v>
       </c>
       <c r="C123" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
       </c>
-      <c r="F123" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G123" s="23"/>
+      <c r="F123" t="s">
+        <v>292</v>
+      </c>
       <c r="H123" t="s">
         <v>20</v>
       </c>
@@ -7025,19 +6952,18 @@
       <c r="A124" t="s">
         <v>275</v>
       </c>
-      <c r="B124" s="18" t="s">
-        <v>638</v>
+      <c r="B124" t="s">
+        <v>636</v>
       </c>
       <c r="C124" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E124" t="s">
         <v>4</v>
       </c>
-      <c r="F124" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G124" s="23"/>
+      <c r="F124" t="s">
+        <v>292</v>
+      </c>
       <c r="H124" t="s">
         <v>20</v>
       </c>
@@ -7058,19 +6984,18 @@
       <c r="A125" t="s">
         <v>265</v>
       </c>
-      <c r="B125" s="18" t="s">
-        <v>628</v>
+      <c r="B125" t="s">
+        <v>627</v>
       </c>
       <c r="C125" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E125" t="s">
         <v>4</v>
       </c>
-      <c r="F125" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G125" s="23"/>
+      <c r="F125" t="s">
+        <v>292</v>
+      </c>
       <c r="H125" t="s">
         <v>20</v>
       </c>
@@ -7091,19 +7016,18 @@
       <c r="A126" t="s">
         <v>161</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" t="s">
         <v>524</v>
       </c>
       <c r="C126" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E126" t="s">
         <v>4</v>
       </c>
-      <c r="F126" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G126" s="23"/>
+      <c r="F126" t="s">
+        <v>292</v>
+      </c>
       <c r="H126" t="s">
         <v>20</v>
       </c>
@@ -7124,19 +7048,18 @@
       <c r="A127" t="s">
         <v>165</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" t="s">
         <v>528</v>
       </c>
       <c r="C127" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
       </c>
-      <c r="F127" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G127" s="23"/>
+      <c r="F127" t="s">
+        <v>292</v>
+      </c>
       <c r="H127" t="s">
         <v>20</v>
       </c>
@@ -7157,16 +7080,15 @@
       <c r="A128" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" t="s">
         <v>526</v>
       </c>
       <c r="E128" t="s">
         <v>4</v>
       </c>
-      <c r="F128" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G128" s="23"/>
+      <c r="F128" t="s">
+        <v>292</v>
+      </c>
       <c r="H128" t="s">
         <v>20</v>
       </c>
@@ -7187,16 +7109,15 @@
       <c r="A129" t="s">
         <v>183</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" t="s">
         <v>546</v>
       </c>
       <c r="E129" t="s">
         <v>4</v>
       </c>
-      <c r="F129" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G129" s="23"/>
+      <c r="F129" t="s">
+        <v>292</v>
+      </c>
       <c r="H129" t="s">
         <v>20</v>
       </c>
@@ -7217,16 +7138,15 @@
       <c r="A130" t="s">
         <v>173</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" t="s">
         <v>536</v>
       </c>
       <c r="E130" t="s">
         <v>4</v>
       </c>
-      <c r="F130" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G130" s="23"/>
+      <c r="F130" t="s">
+        <v>292</v>
+      </c>
       <c r="H130" t="s">
         <v>20</v>
       </c>
@@ -7247,16 +7167,15 @@
       <c r="A131" t="s">
         <v>193</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" t="s">
         <v>556</v>
       </c>
       <c r="E131" t="s">
         <v>4</v>
       </c>
-      <c r="F131" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G131" s="23"/>
+      <c r="F131" t="s">
+        <v>292</v>
+      </c>
       <c r="H131" t="s">
         <v>20</v>
       </c>
@@ -7277,16 +7196,15 @@
       <c r="A132" t="s">
         <v>174</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" t="s">
         <v>537</v>
       </c>
       <c r="E132" t="s">
         <v>4</v>
       </c>
-      <c r="F132" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G132" s="23"/>
+      <c r="F132" t="s">
+        <v>292</v>
+      </c>
       <c r="H132" t="s">
         <v>20</v>
       </c>
@@ -7307,16 +7225,15 @@
       <c r="A133" t="s">
         <v>192</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" t="s">
         <v>555</v>
       </c>
       <c r="E133" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G133" s="23"/>
+      <c r="F133" t="s">
+        <v>292</v>
+      </c>
       <c r="H133" t="s">
         <v>20</v>
       </c>
@@ -7337,16 +7254,15 @@
       <c r="A134" t="s">
         <v>197</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" t="s">
         <v>560</v>
       </c>
       <c r="E134" t="s">
         <v>4</v>
       </c>
-      <c r="F134" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G134" s="23"/>
+      <c r="F134" t="s">
+        <v>292</v>
+      </c>
       <c r="H134" t="s">
         <v>20</v>
       </c>
@@ -7367,16 +7283,15 @@
       <c r="A135" t="s">
         <v>175</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" t="s">
         <v>538</v>
       </c>
       <c r="E135" t="s">
         <v>4</v>
       </c>
-      <c r="F135" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G135" s="23"/>
+      <c r="F135" t="s">
+        <v>292</v>
+      </c>
       <c r="H135" t="s">
         <v>20</v>
       </c>
@@ -7397,16 +7312,15 @@
       <c r="A136" t="s">
         <v>195</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" t="s">
         <v>558</v>
       </c>
       <c r="E136" t="s">
         <v>4</v>
       </c>
-      <c r="F136" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G136" s="23"/>
+      <c r="F136" t="s">
+        <v>292</v>
+      </c>
       <c r="H136" t="s">
         <v>20</v>
       </c>
@@ -7427,16 +7341,15 @@
       <c r="A137" t="s">
         <v>194</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" t="s">
         <v>557</v>
       </c>
       <c r="E137" t="s">
         <v>4</v>
       </c>
-      <c r="F137" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G137" s="23"/>
+      <c r="F137" t="s">
+        <v>292</v>
+      </c>
       <c r="H137" t="s">
         <v>20</v>
       </c>
@@ -7457,16 +7370,15 @@
       <c r="A138" t="s">
         <v>207</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" t="s">
         <v>570</v>
       </c>
       <c r="E138" t="s">
         <v>4</v>
       </c>
-      <c r="F138" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G138" s="23"/>
+      <c r="F138" t="s">
+        <v>292</v>
+      </c>
       <c r="H138" t="s">
         <v>20</v>
       </c>
@@ -7487,16 +7399,15 @@
       <c r="A139" t="s">
         <v>223</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" t="s">
         <v>586</v>
       </c>
       <c r="E139" t="s">
         <v>4</v>
       </c>
-      <c r="F139" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G139" s="23"/>
+      <c r="F139" t="s">
+        <v>292</v>
+      </c>
       <c r="H139" t="s">
         <v>20</v>
       </c>
@@ -7517,16 +7428,15 @@
       <c r="A140" t="s">
         <v>209</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" t="s">
         <v>572</v>
       </c>
       <c r="E140" t="s">
         <v>4</v>
       </c>
-      <c r="F140" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G140" s="23"/>
+      <c r="F140" t="s">
+        <v>292</v>
+      </c>
       <c r="H140" t="s">
         <v>20</v>
       </c>
@@ -7547,16 +7457,15 @@
       <c r="A141" t="s">
         <v>224</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" t="s">
         <v>587</v>
       </c>
       <c r="E141" t="s">
         <v>4</v>
       </c>
-      <c r="F141" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G141" s="23"/>
+      <c r="F141" t="s">
+        <v>292</v>
+      </c>
       <c r="H141" t="s">
         <v>20</v>
       </c>
@@ -7577,16 +7486,15 @@
       <c r="A142" t="s">
         <v>225</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" t="s">
         <v>588</v>
       </c>
       <c r="E142" t="s">
         <v>4</v>
       </c>
-      <c r="F142" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G142" s="23"/>
+      <c r="F142" t="s">
+        <v>292</v>
+      </c>
       <c r="H142" t="s">
         <v>20</v>
       </c>
@@ -7607,19 +7515,18 @@
       <c r="A143" t="s">
         <v>164</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" t="s">
         <v>527</v>
       </c>
       <c r="C143" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E143" t="s">
         <v>4</v>
       </c>
-      <c r="F143" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G143" s="23"/>
+      <c r="F143" t="s">
+        <v>292</v>
+      </c>
       <c r="H143" t="s">
         <v>20</v>
       </c>
@@ -7640,19 +7547,18 @@
       <c r="A144" t="s">
         <v>159</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" t="s">
         <v>522</v>
       </c>
       <c r="C144" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E144" t="s">
         <v>4</v>
       </c>
-      <c r="F144" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G144" s="23"/>
+      <c r="F144" t="s">
+        <v>292</v>
+      </c>
       <c r="H144" t="s">
         <v>20</v>
       </c>
@@ -7673,19 +7579,18 @@
       <c r="A145" t="s">
         <v>198</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" t="s">
         <v>561</v>
       </c>
-      <c r="C145" s="32" t="s">
-        <v>670</v>
+      <c r="C145" s="25" t="s">
+        <v>666</v>
       </c>
       <c r="E145" t="s">
         <v>4</v>
       </c>
-      <c r="F145" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G145" s="23"/>
+      <c r="F145" t="s">
+        <v>292</v>
+      </c>
       <c r="H145" t="s">
         <v>20</v>
       </c>
@@ -7706,19 +7611,18 @@
       <c r="A146" t="s">
         <v>199</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" t="s">
         <v>562</v>
       </c>
       <c r="C146" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E146" t="s">
         <v>4</v>
       </c>
-      <c r="F146" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G146" s="23"/>
+      <c r="F146" t="s">
+        <v>292</v>
+      </c>
       <c r="H146" t="s">
         <v>20</v>
       </c>
@@ -7739,19 +7643,18 @@
       <c r="A147" t="s">
         <v>256</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" t="s">
         <v>619</v>
       </c>
       <c r="C147" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E147" t="s">
         <v>4</v>
       </c>
-      <c r="F147" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G147" s="23"/>
+      <c r="F147" t="s">
+        <v>292</v>
+      </c>
       <c r="H147" t="s">
         <v>20</v>
       </c>
@@ -7772,19 +7675,18 @@
       <c r="A148" t="s">
         <v>249</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" t="s">
         <v>612</v>
       </c>
       <c r="C148" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E148" t="s">
         <v>4</v>
       </c>
-      <c r="F148" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G148" s="23"/>
+      <c r="F148" t="s">
+        <v>292</v>
+      </c>
       <c r="H148" t="s">
         <v>20</v>
       </c>
@@ -7805,19 +7707,18 @@
       <c r="A149" t="s">
         <v>200</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" t="s">
         <v>563</v>
       </c>
       <c r="C149" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E149" t="s">
         <v>4</v>
       </c>
-      <c r="F149" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G149" s="23"/>
+      <c r="F149" t="s">
+        <v>292</v>
+      </c>
       <c r="H149" t="s">
         <v>20</v>
       </c>
@@ -7838,19 +7739,18 @@
       <c r="A150" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" t="s">
         <v>517</v>
       </c>
       <c r="C150" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E150" t="s">
         <v>4</v>
       </c>
-      <c r="F150" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G150" s="23"/>
+      <c r="F150" t="s">
+        <v>292</v>
+      </c>
       <c r="H150" t="s">
         <v>20</v>
       </c>
@@ -7871,19 +7771,18 @@
       <c r="A151" t="s">
         <v>187</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" t="s">
         <v>550</v>
       </c>
       <c r="C151" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E151" t="s">
         <v>4</v>
       </c>
-      <c r="F151" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G151" s="23"/>
+      <c r="F151" t="s">
+        <v>292</v>
+      </c>
       <c r="H151" t="s">
         <v>20</v>
       </c>
@@ -7904,16 +7803,15 @@
       <c r="A152" t="s">
         <v>166</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" t="s">
         <v>529</v>
       </c>
       <c r="E152" t="s">
         <v>4</v>
       </c>
-      <c r="F152" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G152" s="23"/>
+      <c r="F152" t="s">
+        <v>292</v>
+      </c>
       <c r="H152" t="s">
         <v>20</v>
       </c>
@@ -7934,16 +7832,15 @@
       <c r="A153" t="s">
         <v>157</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" t="s">
         <v>520</v>
       </c>
       <c r="E153" t="s">
         <v>4</v>
       </c>
-      <c r="F153" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G153" s="23"/>
+      <c r="F153" t="s">
+        <v>292</v>
+      </c>
       <c r="H153" t="s">
         <v>20</v>
       </c>
@@ -7964,19 +7861,18 @@
       <c r="A154" t="s">
         <v>186</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" t="s">
         <v>549</v>
       </c>
       <c r="C154" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E154" t="s">
         <v>4</v>
       </c>
-      <c r="F154" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G154" s="23"/>
+      <c r="F154" t="s">
+        <v>292</v>
+      </c>
       <c r="H154" t="s">
         <v>20</v>
       </c>
@@ -7997,16 +7893,15 @@
       <c r="A155" t="s">
         <v>219</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" t="s">
         <v>582</v>
       </c>
       <c r="E155" t="s">
         <v>4</v>
       </c>
-      <c r="F155" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G155" s="23"/>
+      <c r="F155" t="s">
+        <v>292</v>
+      </c>
       <c r="H155" t="s">
         <v>20</v>
       </c>
@@ -8027,16 +7922,15 @@
       <c r="A156" t="s">
         <v>216</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" t="s">
         <v>579</v>
       </c>
       <c r="E156" t="s">
         <v>4</v>
       </c>
-      <c r="F156" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G156" s="23"/>
+      <c r="F156" t="s">
+        <v>292</v>
+      </c>
       <c r="H156" t="s">
         <v>20</v>
       </c>
@@ -8057,16 +7951,15 @@
       <c r="A157" t="s">
         <v>217</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" t="s">
         <v>580</v>
       </c>
       <c r="E157" t="s">
         <v>4</v>
       </c>
-      <c r="F157" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G157" s="23"/>
+      <c r="F157" t="s">
+        <v>292</v>
+      </c>
       <c r="H157" t="s">
         <v>20</v>
       </c>
@@ -8087,19 +7980,18 @@
       <c r="A158" t="s">
         <v>191</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" t="s">
         <v>554</v>
       </c>
       <c r="C158" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E158" t="s">
         <v>4</v>
       </c>
-      <c r="F158" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G158" s="23"/>
+      <c r="F158" t="s">
+        <v>292</v>
+      </c>
       <c r="H158" t="s">
         <v>20</v>
       </c>
@@ -8120,19 +8012,18 @@
       <c r="A159" t="s">
         <v>172</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" t="s">
         <v>535</v>
       </c>
       <c r="C159" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E159" t="s">
         <v>4</v>
       </c>
-      <c r="F159" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G159" s="23"/>
+      <c r="F159" t="s">
+        <v>292</v>
+      </c>
       <c r="H159" t="s">
         <v>20</v>
       </c>
@@ -8153,19 +8044,18 @@
       <c r="A160" t="s">
         <v>203</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" t="s">
         <v>566</v>
       </c>
       <c r="C160" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E160" t="s">
         <v>4</v>
       </c>
-      <c r="F160" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G160" s="23"/>
+      <c r="F160" t="s">
+        <v>292</v>
+      </c>
       <c r="H160" t="s">
         <v>20</v>
       </c>
@@ -8186,19 +8076,18 @@
       <c r="A161" t="s">
         <v>234</v>
       </c>
-      <c r="B161" s="18" t="s">
+      <c r="B161" t="s">
         <v>597</v>
       </c>
       <c r="C161" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E161" t="s">
         <v>4</v>
       </c>
-      <c r="F161" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G161" s="23"/>
+      <c r="F161" t="s">
+        <v>292</v>
+      </c>
       <c r="H161" t="s">
         <v>20</v>
       </c>
@@ -8219,19 +8108,18 @@
       <c r="A162" t="s">
         <v>153</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" t="s">
         <v>518</v>
       </c>
       <c r="C162" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E162" t="s">
         <v>4</v>
       </c>
-      <c r="F162" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G162" s="23"/>
+      <c r="F162" t="s">
+        <v>292</v>
+      </c>
       <c r="H162" t="s">
         <v>20</v>
       </c>
@@ -8252,19 +8140,18 @@
       <c r="A163" t="s">
         <v>267</v>
       </c>
-      <c r="B163" s="18" t="s">
-        <v>630</v>
+      <c r="B163" t="s">
+        <v>629</v>
       </c>
       <c r="C163" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E163" t="s">
         <v>4</v>
       </c>
-      <c r="F163" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G163" s="23"/>
+      <c r="F163" t="s">
+        <v>292</v>
+      </c>
       <c r="H163" t="s">
         <v>20</v>
       </c>
@@ -8285,19 +8172,18 @@
       <c r="A164" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" t="s">
         <v>533</v>
       </c>
       <c r="C164" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E164" t="s">
         <v>4</v>
       </c>
-      <c r="F164" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G164" s="23"/>
+      <c r="F164" t="s">
+        <v>292</v>
+      </c>
       <c r="H164" t="s">
         <v>20</v>
       </c>
@@ -8318,19 +8204,18 @@
       <c r="A165" t="s">
         <v>212</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" t="s">
         <v>575</v>
       </c>
       <c r="C165" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E165" t="s">
         <v>4</v>
       </c>
-      <c r="F165" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G165" s="23"/>
+      <c r="F165" t="s">
+        <v>292</v>
+      </c>
       <c r="H165" t="s">
         <v>20</v>
       </c>
@@ -8351,19 +8236,18 @@
       <c r="A166" t="s">
         <v>210</v>
       </c>
-      <c r="B166" s="18" t="s">
+      <c r="B166" t="s">
         <v>573</v>
       </c>
       <c r="C166" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E166" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G166" s="23"/>
+      <c r="F166" t="s">
+        <v>292</v>
+      </c>
       <c r="H166" t="s">
         <v>20</v>
       </c>
@@ -8384,19 +8268,18 @@
       <c r="A167" t="s">
         <v>222</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="B167" t="s">
         <v>585</v>
       </c>
       <c r="C167" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E167" t="s">
         <v>4</v>
       </c>
-      <c r="F167" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G167" s="23"/>
+      <c r="F167" t="s">
+        <v>292</v>
+      </c>
       <c r="H167" t="s">
         <v>20</v>
       </c>
@@ -8417,19 +8300,18 @@
       <c r="A168" t="s">
         <v>211</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" t="s">
         <v>574</v>
       </c>
       <c r="C168" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E168" t="s">
         <v>4</v>
       </c>
-      <c r="F168" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G168" s="23"/>
+      <c r="F168" t="s">
+        <v>292</v>
+      </c>
       <c r="H168" t="s">
         <v>20</v>
       </c>
@@ -8450,19 +8332,18 @@
       <c r="A169" t="s">
         <v>235</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" t="s">
         <v>598</v>
       </c>
       <c r="C169" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E169" t="s">
         <v>4</v>
       </c>
-      <c r="F169" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G169" s="23"/>
+      <c r="F169" t="s">
+        <v>292</v>
+      </c>
       <c r="H169" t="s">
         <v>20</v>
       </c>
@@ -8483,19 +8364,18 @@
       <c r="A170" t="s">
         <v>258</v>
       </c>
-      <c r="B170" s="18" t="s">
-        <v>690</v>
+      <c r="B170" t="s">
+        <v>686</v>
       </c>
       <c r="C170" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E170" t="s">
         <v>4</v>
       </c>
-      <c r="F170" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G170" s="23"/>
+      <c r="F170" t="s">
+        <v>292</v>
+      </c>
       <c r="H170" t="s">
         <v>20</v>
       </c>
@@ -8516,19 +8396,18 @@
       <c r="A171" t="s">
         <v>178</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" t="s">
         <v>541</v>
       </c>
       <c r="C171" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E171" t="s">
         <v>4</v>
       </c>
-      <c r="F171" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G171" s="23"/>
+      <c r="F171" t="s">
+        <v>292</v>
+      </c>
       <c r="H171" t="s">
         <v>20</v>
       </c>
@@ -8549,19 +8428,18 @@
       <c r="A172" t="s">
         <v>152</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" t="s">
         <v>515</v>
       </c>
       <c r="C172" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E172" t="s">
         <v>4</v>
       </c>
-      <c r="F172" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G172" s="23"/>
+      <c r="F172" t="s">
+        <v>292</v>
+      </c>
       <c r="H172" t="s">
         <v>20</v>
       </c>
@@ -8582,16 +8460,15 @@
       <c r="A173" t="s">
         <v>156</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" t="s">
         <v>519</v>
       </c>
       <c r="E173" t="s">
         <v>4</v>
       </c>
-      <c r="F173" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G173" s="23"/>
+      <c r="F173" t="s">
+        <v>292</v>
+      </c>
       <c r="H173" t="s">
         <v>20</v>
       </c>
@@ -8612,16 +8489,15 @@
       <c r="A174" t="s">
         <v>237</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" t="s">
         <v>600</v>
       </c>
       <c r="E174" t="s">
         <v>4</v>
       </c>
-      <c r="F174" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G174" s="23"/>
+      <c r="F174" t="s">
+        <v>292</v>
+      </c>
       <c r="H174" t="s">
         <v>20</v>
       </c>
@@ -8642,16 +8518,15 @@
       <c r="A175" t="s">
         <v>158</v>
       </c>
-      <c r="B175" s="18" t="s">
+      <c r="B175" t="s">
         <v>521</v>
       </c>
       <c r="E175" t="s">
         <v>4</v>
       </c>
-      <c r="F175" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G175" s="23"/>
+      <c r="F175" t="s">
+        <v>292</v>
+      </c>
       <c r="H175" t="s">
         <v>20</v>
       </c>
@@ -8672,16 +8547,15 @@
       <c r="A176" t="s">
         <v>246</v>
       </c>
-      <c r="B176" s="18" t="s">
+      <c r="B176" t="s">
         <v>609</v>
       </c>
       <c r="E176" t="s">
         <v>4</v>
       </c>
-      <c r="F176" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G176" s="23"/>
+      <c r="F176" t="s">
+        <v>292</v>
+      </c>
       <c r="H176" t="s">
         <v>20</v>
       </c>
@@ -8702,16 +8576,15 @@
       <c r="A177" t="s">
         <v>260</v>
       </c>
-      <c r="B177" s="18" t="s">
-        <v>623</v>
+      <c r="B177" t="s">
+        <v>622</v>
       </c>
       <c r="E177" t="s">
         <v>4</v>
       </c>
-      <c r="F177" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G177" s="23"/>
+      <c r="F177" t="s">
+        <v>292</v>
+      </c>
       <c r="H177" t="s">
         <v>20</v>
       </c>
@@ -8732,16 +8605,15 @@
       <c r="A178" t="s">
         <v>245</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" t="s">
         <v>608</v>
       </c>
       <c r="E178" t="s">
         <v>4</v>
       </c>
-      <c r="F178" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G178" s="23"/>
+      <c r="F178" t="s">
+        <v>292</v>
+      </c>
       <c r="H178" t="s">
         <v>20</v>
       </c>
@@ -8762,16 +8634,15 @@
       <c r="A179" t="s">
         <v>231</v>
       </c>
-      <c r="B179" s="18" t="s">
+      <c r="B179" t="s">
         <v>594</v>
       </c>
       <c r="E179" t="s">
         <v>4</v>
       </c>
-      <c r="F179" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G179" s="23"/>
+      <c r="F179" t="s">
+        <v>292</v>
+      </c>
       <c r="H179" t="s">
         <v>20</v>
       </c>
@@ -8792,16 +8663,15 @@
       <c r="A180" t="s">
         <v>242</v>
       </c>
-      <c r="B180" s="18" t="s">
+      <c r="B180" t="s">
         <v>605</v>
       </c>
       <c r="E180" t="s">
         <v>4</v>
       </c>
-      <c r="F180" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G180" s="23"/>
+      <c r="F180" t="s">
+        <v>292</v>
+      </c>
       <c r="H180" t="s">
         <v>20</v>
       </c>
@@ -8822,16 +8692,15 @@
       <c r="A181" t="s">
         <v>232</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B181" t="s">
         <v>595</v>
       </c>
       <c r="E181" t="s">
         <v>4</v>
       </c>
-      <c r="F181" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G181" s="23"/>
+      <c r="F181" t="s">
+        <v>292</v>
+      </c>
       <c r="H181" t="s">
         <v>20</v>
       </c>
@@ -8852,16 +8721,15 @@
       <c r="A182" t="s">
         <v>268</v>
       </c>
-      <c r="B182" s="18" t="s">
-        <v>631</v>
+      <c r="B182" t="s">
+        <v>630</v>
       </c>
       <c r="E182" t="s">
         <v>4</v>
       </c>
-      <c r="F182" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G182" s="23"/>
+      <c r="F182" t="s">
+        <v>292</v>
+      </c>
       <c r="H182" t="s">
         <v>20</v>
       </c>
@@ -8882,16 +8750,15 @@
       <c r="A183" t="s">
         <v>271</v>
       </c>
-      <c r="B183" s="18" t="s">
-        <v>634</v>
+      <c r="B183" t="s">
+        <v>633</v>
       </c>
       <c r="E183" t="s">
         <v>4</v>
       </c>
-      <c r="F183" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G183" s="23"/>
+      <c r="F183" t="s">
+        <v>292</v>
+      </c>
       <c r="H183" t="s">
         <v>20</v>
       </c>
@@ -8912,16 +8779,15 @@
       <c r="A184" t="s">
         <v>233</v>
       </c>
-      <c r="B184" s="18" t="s">
+      <c r="B184" t="s">
         <v>596</v>
       </c>
       <c r="E184" t="s">
         <v>4</v>
       </c>
-      <c r="F184" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G184" s="23"/>
+      <c r="F184" t="s">
+        <v>292</v>
+      </c>
       <c r="H184" t="s">
         <v>20</v>
       </c>
@@ -8942,16 +8808,15 @@
       <c r="A185" t="s">
         <v>257</v>
       </c>
-      <c r="B185" s="18" t="s">
+      <c r="B185" t="s">
         <v>620</v>
       </c>
       <c r="E185" t="s">
         <v>4</v>
       </c>
-      <c r="F185" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G185" s="23"/>
+      <c r="F185" t="s">
+        <v>292</v>
+      </c>
       <c r="H185" t="s">
         <v>20</v>
       </c>
@@ -8972,16 +8837,15 @@
       <c r="A186" t="s">
         <v>261</v>
       </c>
-      <c r="B186" s="18" t="s">
-        <v>624</v>
+      <c r="B186" t="s">
+        <v>623</v>
       </c>
       <c r="E186" t="s">
         <v>4</v>
       </c>
-      <c r="F186" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G186" s="23"/>
+      <c r="F186" t="s">
+        <v>292</v>
+      </c>
       <c r="H186" t="s">
         <v>20</v>
       </c>
@@ -9002,16 +8866,15 @@
       <c r="A187" t="s">
         <v>206</v>
       </c>
-      <c r="B187" s="18" t="s">
+      <c r="B187" t="s">
         <v>569</v>
       </c>
       <c r="E187" t="s">
         <v>4</v>
       </c>
-      <c r="F187" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G187" s="23"/>
+      <c r="F187" t="s">
+        <v>292</v>
+      </c>
       <c r="H187" t="s">
         <v>20</v>
       </c>
@@ -9032,16 +8895,15 @@
       <c r="A188" t="s">
         <v>269</v>
       </c>
-      <c r="B188" s="18" t="s">
-        <v>632</v>
+      <c r="B188" t="s">
+        <v>631</v>
       </c>
       <c r="E188" t="s">
         <v>4</v>
       </c>
-      <c r="F188" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G188" s="23"/>
+      <c r="F188" t="s">
+        <v>292</v>
+      </c>
       <c r="H188" t="s">
         <v>20</v>
       </c>
@@ -9062,16 +8924,15 @@
       <c r="A189" t="s">
         <v>285</v>
       </c>
-      <c r="B189" s="18" t="s">
-        <v>648</v>
+      <c r="B189" t="s">
+        <v>644</v>
       </c>
       <c r="E189" t="s">
         <v>4</v>
       </c>
-      <c r="F189" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G189" s="23"/>
+      <c r="F189" t="s">
+        <v>292</v>
+      </c>
       <c r="H189" t="s">
         <v>20</v>
       </c>
@@ -9092,16 +8953,15 @@
       <c r="A190" t="s">
         <v>263</v>
       </c>
-      <c r="B190" s="18" t="s">
-        <v>626</v>
+      <c r="B190" t="s">
+        <v>625</v>
       </c>
       <c r="E190" t="s">
         <v>4</v>
       </c>
-      <c r="F190" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G190" s="23"/>
+      <c r="F190" t="s">
+        <v>292</v>
+      </c>
       <c r="H190" t="s">
         <v>20</v>
       </c>
@@ -9122,16 +8982,15 @@
       <c r="A191" t="s">
         <v>215</v>
       </c>
-      <c r="B191" s="18" t="s">
+      <c r="B191" t="s">
         <v>578</v>
       </c>
       <c r="E191" t="s">
         <v>4</v>
       </c>
-      <c r="F191" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G191" s="23"/>
+      <c r="F191" t="s">
+        <v>292</v>
+      </c>
       <c r="H191" t="s">
         <v>20</v>
       </c>
@@ -9152,16 +9011,15 @@
       <c r="A192" t="s">
         <v>218</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" t="s">
         <v>581</v>
       </c>
       <c r="E192" t="s">
         <v>4</v>
       </c>
-      <c r="F192" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G192" s="23"/>
+      <c r="F192" t="s">
+        <v>292</v>
+      </c>
       <c r="H192" t="s">
         <v>20</v>
       </c>
@@ -9182,16 +9040,15 @@
       <c r="A193" t="s">
         <v>251</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" t="s">
         <v>614</v>
       </c>
       <c r="E193" t="s">
         <v>4</v>
       </c>
-      <c r="F193" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G193" s="23"/>
+      <c r="F193" t="s">
+        <v>292</v>
+      </c>
       <c r="H193" t="s">
         <v>20</v>
       </c>
@@ -9212,16 +9069,15 @@
       <c r="A194" t="s">
         <v>250</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="B194" t="s">
         <v>613</v>
       </c>
       <c r="E194" t="s">
         <v>4</v>
       </c>
-      <c r="F194" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G194" s="23"/>
+      <c r="F194" t="s">
+        <v>292</v>
+      </c>
       <c r="H194" t="s">
         <v>20</v>
       </c>
@@ -9242,16 +9098,15 @@
       <c r="A195" t="s">
         <v>266</v>
       </c>
-      <c r="B195" s="18" t="s">
-        <v>629</v>
+      <c r="B195" t="s">
+        <v>628</v>
       </c>
       <c r="E195" t="s">
         <v>4</v>
       </c>
-      <c r="F195" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G195" s="23"/>
+      <c r="F195" t="s">
+        <v>292</v>
+      </c>
       <c r="H195" t="s">
         <v>20</v>
       </c>
@@ -9272,16 +9127,15 @@
       <c r="A196" t="s">
         <v>272</v>
       </c>
-      <c r="B196" s="18" t="s">
-        <v>635</v>
+      <c r="B196" t="s">
+        <v>634</v>
       </c>
       <c r="E196" t="s">
         <v>4</v>
       </c>
-      <c r="F196" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G196" s="23"/>
+      <c r="F196" t="s">
+        <v>292</v>
+      </c>
       <c r="H196" t="s">
         <v>20</v>
       </c>
@@ -9302,16 +9156,15 @@
       <c r="A197" t="s">
         <v>278</v>
       </c>
-      <c r="B197" s="18" t="s">
-        <v>641</v>
+      <c r="B197" t="s">
+        <v>639</v>
       </c>
       <c r="E197" t="s">
         <v>4</v>
       </c>
-      <c r="F197" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G197" s="23"/>
+      <c r="F197" t="s">
+        <v>292</v>
+      </c>
       <c r="H197" t="s">
         <v>20</v>
       </c>
@@ -9332,16 +9185,15 @@
       <c r="A198" t="s">
         <v>270</v>
       </c>
-      <c r="B198" s="18" t="s">
-        <v>633</v>
+      <c r="B198" t="s">
+        <v>632</v>
       </c>
       <c r="E198" t="s">
         <v>4</v>
       </c>
-      <c r="F198" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G198" s="23"/>
+      <c r="F198" t="s">
+        <v>292</v>
+      </c>
       <c r="H198" t="s">
         <v>20</v>
       </c>
@@ -9362,16 +9214,15 @@
       <c r="A199" t="s">
         <v>252</v>
       </c>
-      <c r="B199" s="18" t="s">
+      <c r="B199" t="s">
         <v>615</v>
       </c>
       <c r="E199" t="s">
         <v>4</v>
       </c>
-      <c r="F199" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G199" s="23"/>
+      <c r="F199" t="s">
+        <v>292</v>
+      </c>
       <c r="H199" t="s">
         <v>20</v>
       </c>
@@ -9392,16 +9243,15 @@
       <c r="A200" t="s">
         <v>213</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" t="s">
         <v>576</v>
       </c>
       <c r="E200" t="s">
         <v>4</v>
       </c>
-      <c r="F200" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G200" s="23"/>
+      <c r="F200" t="s">
+        <v>292</v>
+      </c>
       <c r="H200" t="s">
         <v>20</v>
       </c>
@@ -9422,16 +9272,15 @@
       <c r="A201" t="s">
         <v>277</v>
       </c>
-      <c r="B201" s="18" t="s">
-        <v>640</v>
+      <c r="B201" t="s">
+        <v>638</v>
       </c>
       <c r="E201" t="s">
         <v>4</v>
       </c>
-      <c r="F201" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G201" s="23"/>
+      <c r="F201" t="s">
+        <v>292</v>
+      </c>
       <c r="H201" t="s">
         <v>20</v>
       </c>
@@ -9452,16 +9301,15 @@
       <c r="A202" t="s">
         <v>180</v>
       </c>
-      <c r="B202" s="18" t="s">
+      <c r="B202" t="s">
         <v>543</v>
       </c>
       <c r="E202" t="s">
         <v>4</v>
       </c>
-      <c r="F202" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G202" s="23"/>
+      <c r="F202" t="s">
+        <v>292</v>
+      </c>
       <c r="H202" t="s">
         <v>20</v>
       </c>
@@ -9482,19 +9330,18 @@
       <c r="A203" t="s">
         <v>189</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B203" t="s">
         <v>552</v>
       </c>
       <c r="C203" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E203" t="s">
         <v>4</v>
       </c>
-      <c r="F203" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G203" s="23"/>
+      <c r="F203" t="s">
+        <v>292</v>
+      </c>
       <c r="H203" t="s">
         <v>20</v>
       </c>
@@ -9515,19 +9362,18 @@
       <c r="A204" t="s">
         <v>240</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" t="s">
         <v>603</v>
       </c>
       <c r="C204" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E204" t="s">
         <v>4</v>
       </c>
-      <c r="F204" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G204" s="23"/>
+      <c r="F204" t="s">
+        <v>292</v>
+      </c>
       <c r="H204" t="s">
         <v>20</v>
       </c>
@@ -9548,19 +9394,18 @@
       <c r="A205" t="s">
         <v>239</v>
       </c>
-      <c r="B205" s="18" t="s">
+      <c r="B205" t="s">
         <v>602</v>
       </c>
       <c r="C205" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E205" t="s">
         <v>4</v>
       </c>
-      <c r="F205" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G205" s="23"/>
+      <c r="F205" t="s">
+        <v>292</v>
+      </c>
       <c r="H205" t="s">
         <v>20</v>
       </c>
@@ -9581,19 +9426,18 @@
       <c r="A206" t="s">
         <v>179</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="B206" t="s">
         <v>542</v>
       </c>
       <c r="C206" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E206" t="s">
         <v>4</v>
       </c>
-      <c r="F206" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G206" s="23"/>
+      <c r="F206" t="s">
+        <v>292</v>
+      </c>
       <c r="H206" t="s">
         <v>20</v>
       </c>
@@ -9614,19 +9458,18 @@
       <c r="A207" t="s">
         <v>274</v>
       </c>
-      <c r="B207" s="18" t="s">
-        <v>698</v>
+      <c r="B207" t="s">
+        <v>694</v>
       </c>
       <c r="C207" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E207" t="s">
         <v>4</v>
       </c>
-      <c r="F207" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G207" s="23"/>
+      <c r="F207" t="s">
+        <v>292</v>
+      </c>
       <c r="H207" t="s">
         <v>20</v>
       </c>
@@ -9647,19 +9490,18 @@
       <c r="A208" t="s">
         <v>259</v>
       </c>
-      <c r="B208" s="18" t="s">
-        <v>622</v>
+      <c r="B208" t="s">
+        <v>621</v>
       </c>
       <c r="C208" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E208" t="s">
         <v>4</v>
       </c>
-      <c r="F208" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G208" s="23"/>
+      <c r="F208" t="s">
+        <v>292</v>
+      </c>
       <c r="H208" t="s">
         <v>20</v>
       </c>
@@ -9680,19 +9522,18 @@
       <c r="A209" t="s">
         <v>282</v>
       </c>
-      <c r="B209" s="18" t="s">
-        <v>645</v>
+      <c r="B209" t="s">
+        <v>642</v>
       </c>
       <c r="C209" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E209" t="s">
         <v>4</v>
       </c>
-      <c r="F209" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G209" s="23"/>
+      <c r="F209" t="s">
+        <v>292</v>
+      </c>
       <c r="H209" t="s">
         <v>20</v>
       </c>
@@ -9713,19 +9554,18 @@
       <c r="A210" t="s">
         <v>236</v>
       </c>
-      <c r="B210" s="18" t="s">
+      <c r="B210" t="s">
         <v>599</v>
       </c>
       <c r="C210" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E210" t="s">
         <v>4</v>
       </c>
-      <c r="F210" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G210" s="23"/>
+      <c r="F210" t="s">
+        <v>292</v>
+      </c>
       <c r="H210" t="s">
         <v>20</v>
       </c>
@@ -9746,19 +9586,18 @@
       <c r="A211" t="s">
         <v>255</v>
       </c>
-      <c r="B211" s="18" t="s">
+      <c r="B211" t="s">
         <v>618</v>
       </c>
       <c r="C211" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E211" t="s">
         <v>4</v>
       </c>
-      <c r="F211" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G211" s="23"/>
+      <c r="F211" t="s">
+        <v>292</v>
+      </c>
       <c r="H211" t="s">
         <v>20</v>
       </c>
@@ -9779,19 +9618,18 @@
       <c r="A212" t="s">
         <v>190</v>
       </c>
-      <c r="B212" s="18" t="s">
+      <c r="B212" t="s">
         <v>553</v>
       </c>
       <c r="C212" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E212" t="s">
         <v>4</v>
       </c>
-      <c r="F212" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G212" s="23"/>
+      <c r="F212" t="s">
+        <v>292</v>
+      </c>
       <c r="H212" t="s">
         <v>20</v>
       </c>
@@ -9812,19 +9650,18 @@
       <c r="A213" t="s">
         <v>280</v>
       </c>
-      <c r="B213" s="18" t="s">
-        <v>705</v>
+      <c r="B213" t="s">
+        <v>701</v>
       </c>
       <c r="C213" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E213" t="s">
         <v>4</v>
       </c>
-      <c r="F213" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G213" s="23"/>
+      <c r="F213" t="s">
+        <v>292</v>
+      </c>
       <c r="H213" t="s">
         <v>20</v>
       </c>
@@ -9845,19 +9682,18 @@
       <c r="A214" t="s">
         <v>284</v>
       </c>
-      <c r="B214" s="18" t="s">
-        <v>708</v>
+      <c r="B214" t="s">
+        <v>704</v>
       </c>
       <c r="C214" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E214" t="s">
         <v>4</v>
       </c>
-      <c r="F214" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G214" s="23"/>
+      <c r="F214" t="s">
+        <v>292</v>
+      </c>
       <c r="H214" t="s">
         <v>20</v>
       </c>
@@ -9878,19 +9714,18 @@
       <c r="A215" t="s">
         <v>253</v>
       </c>
-      <c r="B215" s="18" t="s">
+      <c r="B215" t="s">
         <v>616</v>
       </c>
       <c r="C215" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E215" t="s">
         <v>4</v>
       </c>
-      <c r="F215" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G215" s="23"/>
+      <c r="F215" t="s">
+        <v>292</v>
+      </c>
       <c r="H215" t="s">
         <v>20</v>
       </c>
@@ -9911,19 +9746,18 @@
       <c r="A216" t="s">
         <v>167</v>
       </c>
-      <c r="B216" s="18" t="s">
+      <c r="B216" t="s">
         <v>530</v>
       </c>
       <c r="C216" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E216" t="s">
         <v>4</v>
       </c>
-      <c r="F216" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G216" s="23"/>
+      <c r="F216" t="s">
+        <v>292</v>
+      </c>
       <c r="H216" t="s">
         <v>20</v>
       </c>
@@ -9944,19 +9778,18 @@
       <c r="A217" t="s">
         <v>254</v>
       </c>
-      <c r="B217" s="18" t="s">
+      <c r="B217" t="s">
         <v>617</v>
       </c>
       <c r="C217" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E217" t="s">
         <v>4</v>
       </c>
-      <c r="F217" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G217" s="23"/>
+      <c r="F217" t="s">
+        <v>292</v>
+      </c>
       <c r="H217" t="s">
         <v>20</v>
       </c>
@@ -9977,19 +9810,18 @@
       <c r="A218" t="s">
         <v>196</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="B218" t="s">
         <v>559</v>
       </c>
       <c r="C218" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E218" t="s">
         <v>4</v>
       </c>
-      <c r="F218" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G218" s="23"/>
+      <c r="F218" t="s">
+        <v>292</v>
+      </c>
       <c r="H218" t="s">
         <v>20</v>
       </c>
@@ -10010,19 +9842,18 @@
       <c r="A219" t="s">
         <v>273</v>
       </c>
-      <c r="B219" s="18" t="s">
-        <v>636</v>
+      <c r="B219" t="s">
+        <v>635</v>
       </c>
       <c r="C219" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E219" t="s">
         <v>4</v>
       </c>
-      <c r="F219" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G219" s="23"/>
+      <c r="F219" t="s">
+        <v>292</v>
+      </c>
       <c r="H219" t="s">
         <v>20</v>
       </c>
@@ -10043,19 +9874,18 @@
       <c r="A220" t="s">
         <v>188</v>
       </c>
-      <c r="B220" s="18" t="s">
+      <c r="B220" t="s">
         <v>551</v>
       </c>
       <c r="C220" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E220" t="s">
         <v>4</v>
       </c>
-      <c r="F220" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G220" s="23"/>
+      <c r="F220" t="s">
+        <v>292</v>
+      </c>
       <c r="H220" t="s">
         <v>20</v>
       </c>
@@ -10076,19 +9906,18 @@
       <c r="A221" t="s">
         <v>168</v>
       </c>
-      <c r="B221" s="18" t="s">
+      <c r="B221" t="s">
         <v>531</v>
       </c>
       <c r="C221" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E221" t="s">
         <v>4</v>
       </c>
-      <c r="F221" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G221" s="23"/>
+      <c r="F221" t="s">
+        <v>292</v>
+      </c>
       <c r="H221" t="s">
         <v>20</v>
       </c>
@@ -10109,19 +9938,18 @@
       <c r="A222" t="s">
         <v>171</v>
       </c>
-      <c r="B222" s="18" t="s">
+      <c r="B222" t="s">
         <v>534</v>
       </c>
       <c r="C222" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E222" t="s">
         <v>4</v>
       </c>
-      <c r="F222" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G222" s="23"/>
+      <c r="F222" t="s">
+        <v>292</v>
+      </c>
       <c r="H222" t="s">
         <v>20</v>
       </c>
@@ -10142,16 +9970,15 @@
       <c r="A223" t="s">
         <v>185</v>
       </c>
-      <c r="B223" s="18" t="s">
+      <c r="B223" t="s">
         <v>548</v>
       </c>
       <c r="E223" t="s">
         <v>4</v>
       </c>
-      <c r="F223" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G223" s="23"/>
+      <c r="F223" t="s">
+        <v>292</v>
+      </c>
       <c r="H223" t="s">
         <v>20</v>
       </c>
@@ -10172,16 +9999,15 @@
       <c r="A224" t="s">
         <v>182</v>
       </c>
-      <c r="B224" s="18" t="s">
+      <c r="B224" t="s">
         <v>545</v>
       </c>
       <c r="E224" t="s">
         <v>4</v>
       </c>
-      <c r="F224" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G224" s="23"/>
+      <c r="F224" t="s">
+        <v>292</v>
+      </c>
       <c r="H224" t="s">
         <v>20</v>
       </c>
@@ -10202,16 +10028,15 @@
       <c r="A225" t="s">
         <v>177</v>
       </c>
-      <c r="B225" s="18" t="s">
+      <c r="B225" t="s">
         <v>540</v>
       </c>
       <c r="E225" t="s">
         <v>4</v>
       </c>
-      <c r="F225" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G225" s="23"/>
+      <c r="F225" t="s">
+        <v>292</v>
+      </c>
       <c r="H225" t="s">
         <v>20</v>
       </c>
@@ -10232,16 +10057,15 @@
       <c r="A226" t="s">
         <v>201</v>
       </c>
-      <c r="B226" s="18" t="s">
+      <c r="B226" t="s">
         <v>564</v>
       </c>
       <c r="E226" t="s">
         <v>4</v>
       </c>
-      <c r="F226" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G226" s="23"/>
+      <c r="F226" t="s">
+        <v>292</v>
+      </c>
       <c r="H226" t="s">
         <v>20</v>
       </c>
@@ -10262,16 +10086,15 @@
       <c r="A227" t="s">
         <v>205</v>
       </c>
-      <c r="B227" s="18" t="s">
+      <c r="B227" t="s">
         <v>568</v>
       </c>
       <c r="E227" t="s">
         <v>4</v>
       </c>
-      <c r="F227" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G227" s="23"/>
+      <c r="F227" t="s">
+        <v>292</v>
+      </c>
       <c r="H227" t="s">
         <v>20</v>
       </c>
@@ -10292,16 +10115,15 @@
       <c r="A228" t="s">
         <v>204</v>
       </c>
-      <c r="B228" s="18" t="s">
+      <c r="B228" t="s">
         <v>567</v>
       </c>
       <c r="E228" t="s">
         <v>4</v>
       </c>
-      <c r="F228" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G228" s="23"/>
+      <c r="F228" t="s">
+        <v>292</v>
+      </c>
       <c r="H228" t="s">
         <v>20</v>
       </c>
@@ -10322,16 +10144,15 @@
       <c r="A229" t="s">
         <v>208</v>
       </c>
-      <c r="B229" s="18" t="s">
+      <c r="B229" t="s">
         <v>571</v>
       </c>
       <c r="E229" t="s">
         <v>4</v>
       </c>
-      <c r="F229" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G229" s="23"/>
+      <c r="F229" t="s">
+        <v>292</v>
+      </c>
       <c r="H229" t="s">
         <v>20</v>
       </c>
@@ -10352,16 +10173,15 @@
       <c r="A230" t="s">
         <v>241</v>
       </c>
-      <c r="B230" s="18" t="s">
+      <c r="B230" t="s">
         <v>604</v>
       </c>
       <c r="E230" t="s">
         <v>4</v>
       </c>
-      <c r="F230" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G230" s="23"/>
+      <c r="F230" t="s">
+        <v>292</v>
+      </c>
       <c r="H230" t="s">
         <v>20</v>
       </c>
@@ -10382,16 +10202,15 @@
       <c r="A231" t="s">
         <v>228</v>
       </c>
-      <c r="B231" s="18" t="s">
+      <c r="B231" t="s">
         <v>591</v>
       </c>
       <c r="E231" t="s">
         <v>4</v>
       </c>
-      <c r="F231" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G231" s="23"/>
+      <c r="F231" t="s">
+        <v>292</v>
+      </c>
       <c r="H231" t="s">
         <v>20</v>
       </c>
@@ -10412,16 +10231,15 @@
       <c r="A232" t="s">
         <v>227</v>
       </c>
-      <c r="B232" s="18" t="s">
+      <c r="B232" t="s">
         <v>590</v>
       </c>
       <c r="E232" t="s">
         <v>4</v>
       </c>
-      <c r="F232" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G232" s="23"/>
+      <c r="F232" t="s">
+        <v>292</v>
+      </c>
       <c r="H232" t="s">
         <v>20</v>
       </c>
@@ -10442,16 +10260,15 @@
       <c r="A233" t="s">
         <v>230</v>
       </c>
-      <c r="B233" s="18" t="s">
+      <c r="B233" t="s">
         <v>593</v>
       </c>
       <c r="E233" t="s">
         <v>4</v>
       </c>
-      <c r="F233" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G233" s="23"/>
+      <c r="F233" t="s">
+        <v>292</v>
+      </c>
       <c r="H233" t="s">
         <v>20</v>
       </c>
@@ -10472,16 +10289,15 @@
       <c r="A234" t="s">
         <v>229</v>
       </c>
-      <c r="B234" s="18" t="s">
+      <c r="B234" t="s">
         <v>592</v>
       </c>
       <c r="E234" t="s">
         <v>4</v>
       </c>
-      <c r="F234" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G234" s="23"/>
+      <c r="F234" t="s">
+        <v>292</v>
+      </c>
       <c r="H234" t="s">
         <v>20</v>
       </c>
@@ -10502,16 +10318,15 @@
       <c r="A235" t="s">
         <v>247</v>
       </c>
-      <c r="B235" s="18" t="s">
+      <c r="B235" t="s">
         <v>610</v>
       </c>
       <c r="E235" t="s">
         <v>4</v>
       </c>
-      <c r="F235" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G235" s="23"/>
+      <c r="F235" t="s">
+        <v>292</v>
+      </c>
       <c r="H235" t="s">
         <v>20</v>
       </c>
@@ -10532,16 +10347,15 @@
       <c r="A236" t="s">
         <v>276</v>
       </c>
-      <c r="B236" s="18" t="s">
-        <v>639</v>
+      <c r="B236" t="s">
+        <v>637</v>
       </c>
       <c r="E236" t="s">
         <v>4</v>
       </c>
-      <c r="F236" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G236" s="23"/>
+      <c r="F236" t="s">
+        <v>292</v>
+      </c>
       <c r="H236" t="s">
         <v>20</v>
       </c>
@@ -10562,19 +10376,18 @@
       <c r="A237" t="s">
         <v>238</v>
       </c>
-      <c r="B237" s="18" t="s">
+      <c r="B237" t="s">
         <v>601</v>
       </c>
       <c r="C237" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E237" t="s">
         <v>4</v>
       </c>
-      <c r="F237" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G237" s="23"/>
+      <c r="F237" t="s">
+        <v>292</v>
+      </c>
       <c r="H237" t="s">
         <v>20</v>
       </c>
@@ -10592,22 +10405,21 @@
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A238" s="32" t="s">
+      <c r="A238" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B238" s="35" t="s">
+      <c r="B238" s="25" t="s">
         <v>565</v>
       </c>
-      <c r="C238" s="32" t="s">
-        <v>719</v>
+      <c r="C238" s="25" t="s">
+        <v>715</v>
       </c>
       <c r="E238" t="s">
         <v>4</v>
       </c>
-      <c r="F238" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G238" s="23"/>
+      <c r="F238" t="s">
+        <v>292</v>
+      </c>
       <c r="H238" t="s">
         <v>20</v>
       </c>
@@ -10628,19 +10440,18 @@
       <c r="A239" t="s">
         <v>283</v>
       </c>
-      <c r="B239" s="18" t="s">
-        <v>646</v>
+      <c r="B239" t="s">
+        <v>643</v>
       </c>
       <c r="C239" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E239" t="s">
         <v>4</v>
       </c>
-      <c r="F239" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G239" s="23"/>
+      <c r="F239" t="s">
+        <v>292</v>
+      </c>
       <c r="H239" t="s">
         <v>20</v>
       </c>
@@ -10728,1116 +10539,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A36359-2094-A84A-BFED-CEA2A970C045}">
-  <dimension ref="A1:C134"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C134"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>4</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B79" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B92" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B93" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B94" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B95" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B96" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B97" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B98" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B99" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B102" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B104" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B105" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B106" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B107" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B108" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B110" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B111" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B112" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B116" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B117" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B118" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B120" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B121" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B122" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B124" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B126" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B127" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B128" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B130" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B131" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B132" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B133" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>646</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A118:C131">
-    <sortCondition ref="A117:A131"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D497629-74FC-3145-BA96-DDD9A43650F7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -11860,79 +10565,79 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="21" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="21" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>329</v>
       </c>
     </row>
@@ -11977,9 +10682,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270F6DC-4E94-4848-96D1-0B6D4BC6E591}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
@@ -12007,7 +10712,7 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="18" t="s">
         <v>301</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -12045,7 +10750,7 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>309</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -12079,7 +10784,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>308</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -12107,7 +10812,6 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="24"/>
       <c r="D4" s="1" t="s">
         <v>111</v>
       </c>
@@ -12124,10 +10828,9 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
@@ -12141,7 +10844,6 @@
       <c r="B6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12152,10 +10854,9 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
@@ -12166,10 +10867,9 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="24"/>
       <c r="D8" s="1" t="s">
         <v>289</v>
       </c>
@@ -12178,10 +10878,9 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="24"/>
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
@@ -12190,10 +10889,9 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="24"/>
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
@@ -12201,46 +10899,32 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="22"/>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="22"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B15">

--- a/Scripts/Feature list.xlsx
+++ b/Scripts/Feature list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DigVulSC Project/DigVulSC/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B01B538-7DB5-CB4E-B61F-ED82C2E5DFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA92D26-BF6B-9342-8E02-6E8E80B462D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="1" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
+    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="16980" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="737">
   <si>
     <t>Feature</t>
   </si>
@@ -2225,6 +2225,69 @@
   </si>
   <si>
     <t>unrecognized opcode</t>
+  </si>
+  <si>
+    <t>FillMissingDataWithZero</t>
+  </si>
+  <si>
+    <t>FillMissingDataWithNegativeOne</t>
+  </si>
+  <si>
+    <t>ProcessConstructorArguments</t>
+  </si>
+  <si>
+    <t>RemoveUselesCols</t>
+  </si>
+  <si>
+    <t>HandlingHexaData</t>
+  </si>
+  <si>
+    <t>HandlingStringNumericalData</t>
+  </si>
+  <si>
+    <t>HandlingStringBoolColsToInt</t>
+  </si>
+  <si>
+    <t>HandlingCategoricalData</t>
+  </si>
+  <si>
+    <t>SetDataIndexColumn</t>
+  </si>
+  <si>
+    <t>NullColsToZero</t>
+  </si>
+  <si>
+    <t>IndexCol</t>
+  </si>
+  <si>
+    <t>NullColsToNegativeOne</t>
+  </si>
+  <si>
+    <t>CategoricalCols</t>
+  </si>
+  <si>
+    <t>StringBoolColsToInt</t>
+  </si>
+  <si>
+    <t>HexaColsToInt</t>
+  </si>
+  <si>
+    <t>UselesCols</t>
+  </si>
+  <si>
+    <t>StringNumColsToInt</t>
+  </si>
+  <si>
+    <t>RemoveUselesCols,HexaColsToInt</t>
+  </si>
+  <si>
+    <t>FillMissingDataWithZero,HexaColsToInt</t>
+  </si>
+  <si>
+    <t>FillMissingDataWithZero,HandlingStringBoolColsToInt</t>
+  </si>
+  <si>
+    <t>RemoveUselesCols,FE</t>
   </si>
 </sst>
 </file>
@@ -2506,7 +2569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2534,6 +2597,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2930,11 +2994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3245D3C-FC29-C84C-8CEB-1C955EFCDC68}">
   <dimension ref="A1:P239"/>
   <sheetViews>
-    <sheetView zoomScale="41" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B233" sqref="B233"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3032,6 +3096,9 @@
       <c r="I2" t="s">
         <v>114</v>
       </c>
+      <c r="J2" t="s">
+        <v>724</v>
+      </c>
       <c r="N2" t="s">
         <v>312</v>
       </c>
@@ -3169,6 +3236,9 @@
       <c r="I6" t="s">
         <v>114</v>
       </c>
+      <c r="J6" t="s">
+        <v>720</v>
+      </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
@@ -3239,6 +3309,9 @@
       <c r="I8" t="s">
         <v>114</v>
       </c>
+      <c r="J8" t="s">
+        <v>720</v>
+      </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
@@ -3274,6 +3347,9 @@
       <c r="I9" t="s">
         <v>112</v>
       </c>
+      <c r="J9" t="s">
+        <v>717</v>
+      </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
@@ -3309,6 +3385,9 @@
       <c r="I10" t="s">
         <v>114</v>
       </c>
+      <c r="J10" t="s">
+        <v>720</v>
+      </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
@@ -3347,7 +3426,9 @@
       <c r="I11" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>733</v>
+      </c>
       <c r="K11" s="9" t="s">
         <v>13</v>
       </c>
@@ -3563,6 +3644,9 @@
       <c r="I17" t="s">
         <v>114</v>
       </c>
+      <c r="J17" t="s">
+        <v>736</v>
+      </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
@@ -3701,7 +3785,9 @@
       <c r="I21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>719</v>
+      </c>
       <c r="K21" s="9" t="s">
         <v>13</v>
       </c>
@@ -3743,7 +3829,9 @@
       <c r="I22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>719</v>
+      </c>
       <c r="K22" s="9" t="s">
         <v>13</v>
       </c>
@@ -3786,6 +3874,9 @@
       <c r="I23" t="s">
         <v>16</v>
       </c>
+      <c r="J23" t="s">
+        <v>719</v>
+      </c>
       <c r="K23" t="s">
         <v>14</v>
       </c>
@@ -3821,6 +3912,9 @@
       <c r="I24" t="s">
         <v>290</v>
       </c>
+      <c r="J24" t="s">
+        <v>736</v>
+      </c>
       <c r="K24" t="s">
         <v>14</v>
       </c>
@@ -3856,6 +3950,9 @@
       <c r="I25" t="s">
         <v>16</v>
       </c>
+      <c r="J25" t="s">
+        <v>719</v>
+      </c>
       <c r="K25" t="s">
         <v>14</v>
       </c>
@@ -3891,6 +3988,9 @@
       <c r="I26" t="s">
         <v>16</v>
       </c>
+      <c r="J26" t="s">
+        <v>728</v>
+      </c>
       <c r="K26" t="s">
         <v>14</v>
       </c>
@@ -3926,6 +4026,9 @@
       <c r="I27" t="s">
         <v>18</v>
       </c>
+      <c r="J27" t="s">
+        <v>722</v>
+      </c>
       <c r="K27" t="s">
         <v>14</v>
       </c>
@@ -3996,6 +4099,9 @@
       <c r="I29" t="s">
         <v>114</v>
       </c>
+      <c r="J29" t="s">
+        <v>734</v>
+      </c>
       <c r="K29" t="s">
         <v>14</v>
       </c>
@@ -4031,6 +4137,9 @@
       <c r="I30" t="s">
         <v>16</v>
       </c>
+      <c r="J30" t="s">
+        <v>728</v>
+      </c>
       <c r="K30" t="s">
         <v>14</v>
       </c>
@@ -4066,6 +4175,9 @@
       <c r="I31" t="s">
         <v>16</v>
       </c>
+      <c r="J31" t="s">
+        <v>728</v>
+      </c>
       <c r="K31" t="s">
         <v>14</v>
       </c>
@@ -4101,6 +4213,9 @@
       <c r="I32" t="s">
         <v>16</v>
       </c>
+      <c r="J32" t="s">
+        <v>728</v>
+      </c>
       <c r="K32" t="s">
         <v>14</v>
       </c>
@@ -4136,6 +4251,9 @@
       <c r="I33" t="s">
         <v>18</v>
       </c>
+      <c r="J33" t="s">
+        <v>722</v>
+      </c>
       <c r="K33" t="s">
         <v>14</v>
       </c>
@@ -4171,6 +4289,9 @@
       <c r="I34" t="s">
         <v>114</v>
       </c>
+      <c r="J34" t="s">
+        <v>720</v>
+      </c>
       <c r="K34" t="s">
         <v>14</v>
       </c>
@@ -4206,6 +4327,9 @@
       <c r="I35" t="s">
         <v>16</v>
       </c>
+      <c r="J35" t="s">
+        <v>719</v>
+      </c>
       <c r="K35" t="s">
         <v>14</v>
       </c>
@@ -4217,7 +4341,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B36" t="s">
@@ -4240,6 +4364,9 @@
       </c>
       <c r="I36" t="s">
         <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>736</v>
       </c>
       <c r="K36" t="s">
         <v>15</v>
@@ -4337,6 +4464,9 @@
       <c r="I39" t="s">
         <v>112</v>
       </c>
+      <c r="J39" t="s">
+        <v>721</v>
+      </c>
       <c r="L39" t="s">
         <v>108</v>
       </c>
@@ -4366,6 +4496,9 @@
       <c r="I40" t="s">
         <v>112</v>
       </c>
+      <c r="J40" t="s">
+        <v>721</v>
+      </c>
       <c r="L40" t="s">
         <v>108</v>
       </c>
@@ -4398,6 +4531,9 @@
       <c r="I41" t="s">
         <v>112</v>
       </c>
+      <c r="J41" t="s">
+        <v>721</v>
+      </c>
       <c r="L41" t="s">
         <v>108</v>
       </c>
@@ -4430,6 +4566,9 @@
       <c r="I42" t="s">
         <v>112</v>
       </c>
+      <c r="J42" t="s">
+        <v>721</v>
+      </c>
       <c r="L42" t="s">
         <v>108</v>
       </c>
@@ -4462,6 +4601,9 @@
       <c r="I43" t="s">
         <v>112</v>
       </c>
+      <c r="J43" t="s">
+        <v>721</v>
+      </c>
       <c r="L43" t="s">
         <v>108</v>
       </c>
@@ -4881,6 +5023,9 @@
       <c r="I56" t="s">
         <v>16</v>
       </c>
+      <c r="J56" t="s">
+        <v>735</v>
+      </c>
       <c r="L56" t="s">
         <v>108</v>
       </c>
@@ -4913,6 +5058,9 @@
       <c r="I57" t="s">
         <v>18</v>
       </c>
+      <c r="J57" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L57" t="s">
         <v>108</v>
       </c>
@@ -4945,6 +5093,9 @@
       <c r="I58" t="s">
         <v>18</v>
       </c>
+      <c r="J58" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L58" t="s">
         <v>108</v>
       </c>
@@ -4977,6 +5128,9 @@
       <c r="I59" t="s">
         <v>18</v>
       </c>
+      <c r="J59" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L59" t="s">
         <v>108</v>
       </c>
@@ -5006,6 +5160,9 @@
       <c r="I60" t="s">
         <v>18</v>
       </c>
+      <c r="J60" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L60" t="s">
         <v>108</v>
       </c>
@@ -5038,6 +5195,9 @@
       <c r="I61" t="s">
         <v>18</v>
       </c>
+      <c r="J61" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L61" t="s">
         <v>108</v>
       </c>
@@ -5070,6 +5230,9 @@
       <c r="I62" t="s">
         <v>18</v>
       </c>
+      <c r="J62" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L62" t="s">
         <v>108</v>
       </c>
@@ -5102,6 +5265,9 @@
       <c r="I63" t="s">
         <v>18</v>
       </c>
+      <c r="J63" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L63" t="s">
         <v>108</v>
       </c>
@@ -5134,6 +5300,9 @@
       <c r="I64" t="s">
         <v>18</v>
       </c>
+      <c r="J64" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L64" t="s">
         <v>108</v>
       </c>
@@ -5166,6 +5335,9 @@
       <c r="I65" t="s">
         <v>18</v>
       </c>
+      <c r="J65" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L65" t="s">
         <v>108</v>
       </c>
@@ -5198,6 +5370,9 @@
       <c r="I66" t="s">
         <v>18</v>
       </c>
+      <c r="J66" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L66" t="s">
         <v>108</v>
       </c>
@@ -5230,6 +5405,9 @@
       <c r="I67" t="s">
         <v>18</v>
       </c>
+      <c r="J67" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="L67" t="s">
         <v>108</v>
       </c>
@@ -5262,6 +5440,9 @@
       <c r="I68" t="s">
         <v>16</v>
       </c>
+      <c r="J68" t="s">
+        <v>731</v>
+      </c>
       <c r="M68" t="s">
         <v>293</v>
       </c>
@@ -5291,7 +5472,9 @@
       <c r="I69" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J69" s="6"/>
+      <c r="J69" s="6" t="s">
+        <v>731</v>
+      </c>
       <c r="M69" t="s">
         <v>45</v>
       </c>
@@ -5469,7 +5652,9 @@
       <c r="I75" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J75" s="6"/>
+      <c r="J75" s="6" t="s">
+        <v>731</v>
+      </c>
       <c r="M75" t="s">
         <v>45</v>
       </c>
@@ -5499,7 +5684,9 @@
       <c r="I76" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="6"/>
+      <c r="J76" s="6" t="s">
+        <v>731</v>
+      </c>
       <c r="M76" t="s">
         <v>45</v>
       </c>
@@ -5581,7 +5768,9 @@
       <c r="I79" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="6"/>
+      <c r="J79" s="6" t="s">
+        <v>731</v>
+      </c>
       <c r="M79" t="s">
         <v>45</v>
       </c>
@@ -5637,7 +5826,9 @@
       <c r="I81" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="6"/>
+      <c r="J81" s="6" t="s">
+        <v>722</v>
+      </c>
       <c r="M81" t="s">
         <v>45</v>
       </c>
@@ -5667,7 +5858,9 @@
       <c r="I82" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J82" s="6"/>
+      <c r="J82" s="6" t="s">
+        <v>722</v>
+      </c>
       <c r="M82" t="s">
         <v>45</v>
       </c>
@@ -5922,6 +6115,9 @@
       </c>
       <c r="I91" t="s">
         <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>723</v>
       </c>
       <c r="M91" t="s">
         <v>57</v>
@@ -10500,7 +10696,7 @@
           <x14:formula1>
             <xm:f>'List options'!$E$2:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:J239</xm:sqref>
+          <xm:sqref>I2:I239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E8F9807-5020-344C-AC6C-6F55F671046A}">
           <x14:formula1>
@@ -10542,7 +10738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D497629-74FC-3145-BA96-DDD9A43650F7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -10686,8 +10882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2270F6DC-4E94-4848-96D1-0B6D4BC6E591}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10702,7 +10898,8 @@
     <col min="8" max="8" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -10774,8 +10971,12 @@
       <c r="J2" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -10802,8 +11003,12 @@
       <c r="J3" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -10824,8 +11029,12 @@
       <c r="J4" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="14"/>
+      <c r="K4" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -10837,7 +11046,9 @@
       <c r="E5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="16" t="s">
+        <v>718</v>
+      </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -10850,8 +11061,12 @@
       <c r="E6" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="14"/>
+      <c r="K6" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -10863,8 +11078,12 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -10874,8 +11093,12 @@
         <v>289</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -10885,8 +11108,12 @@
         <v>20</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -10895,8 +11122,12 @@
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">

--- a/Scripts/Feature list.xlsx
+++ b/Scripts/Feature list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DigVulSC Project/DigVulSC/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA92D26-BF6B-9342-8E02-6E8E80B462D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC09284-C256-324F-83E9-611DEA3CF1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="16980" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="739">
   <si>
     <t>Feature</t>
   </si>
@@ -2281,13 +2281,19 @@
     <t>RemoveUselesCols,HexaColsToInt</t>
   </si>
   <si>
-    <t>FillMissingDataWithZero,HexaColsToInt</t>
-  </si>
-  <si>
     <t>FillMissingDataWithZero,HandlingStringBoolColsToInt</t>
   </si>
   <si>
     <t>RemoveUselesCols,FE</t>
+  </si>
+  <si>
+    <t>RemoveUselesCols, FE</t>
+  </si>
+  <si>
+    <t>ConstructorArgs</t>
+  </si>
+  <si>
+    <t>FillMissingDataWithZero,HexaColsToInt,ProcessConstructorArguments</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2364,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2386,6 +2392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,7 +2581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2598,6 +2610,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2995,10 +3008,10 @@
   <dimension ref="A1:P239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3347,9 +3360,6 @@
       <c r="I9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" t="s">
-        <v>717</v>
-      </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
@@ -3609,6 +3619,9 @@
       <c r="I16" t="s">
         <v>18</v>
       </c>
+      <c r="J16" t="s">
+        <v>717</v>
+      </c>
       <c r="K16" t="s">
         <v>13</v>
       </c>
@@ -3645,7 +3658,7 @@
         <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
@@ -3875,7 +3888,7 @@
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
@@ -3913,7 +3926,7 @@
         <v>290</v>
       </c>
       <c r="J24" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
@@ -3989,7 +4002,7 @@
         <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="K26" t="s">
         <v>14</v>
@@ -4026,9 +4039,6 @@
       <c r="I27" t="s">
         <v>18</v>
       </c>
-      <c r="J27" t="s">
-        <v>722</v>
-      </c>
       <c r="K27" t="s">
         <v>14</v>
       </c>
@@ -4099,8 +4109,8 @@
       <c r="I29" t="s">
         <v>114</v>
       </c>
-      <c r="J29" t="s">
-        <v>734</v>
+      <c r="J29" s="28" t="s">
+        <v>738</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
@@ -4138,7 +4148,7 @@
         <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
@@ -4176,7 +4186,7 @@
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
@@ -4214,7 +4224,7 @@
         <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
@@ -4366,7 +4376,7 @@
         <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K36" t="s">
         <v>15</v>
@@ -5024,7 +5034,7 @@
         <v>16</v>
       </c>
       <c r="J56" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L56" t="s">
         <v>108</v>
@@ -10883,7 +10893,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11049,7 +11059,9 @@
       <c r="K5" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">

--- a/Scripts/Feature list.xlsx
+++ b/Scripts/Feature list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DigVulSC Project/DigVulSC/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC09284-C256-324F-83E9-611DEA3CF1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94906AB0-3F67-2E45-B9E2-C6DEA7493897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="739">
   <si>
     <t>Feature</t>
   </si>
@@ -2581,7 +2581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2609,7 +2609,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3008,10 +3007,10 @@
   <dimension ref="A1:P239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J52" sqref="J52"/>
+      <selection pane="bottomRight" activeCell="L220" sqref="L220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4109,7 +4108,7 @@
       <c r="I29" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="27" t="s">
         <v>738</v>
       </c>
       <c r="K29" t="s">
@@ -4416,9 +4415,6 @@
       <c r="M37" t="s">
         <v>44</v>
       </c>
-      <c r="N37" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -4448,9 +4444,6 @@
       <c r="M38" t="s">
         <v>44</v>
       </c>
-      <c r="N38" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -4483,9 +4476,6 @@
       <c r="M39" t="s">
         <v>44</v>
       </c>
-      <c r="N39" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -4515,9 +4505,6 @@
       <c r="M40" t="s">
         <v>44</v>
       </c>
-      <c r="N40" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -4550,9 +4537,6 @@
       <c r="M41" t="s">
         <v>44</v>
       </c>
-      <c r="N41" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -4585,9 +4569,6 @@
       <c r="M42" t="s">
         <v>44</v>
       </c>
-      <c r="N42" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -4620,9 +4601,6 @@
       <c r="M43" t="s">
         <v>44</v>
       </c>
-      <c r="N43" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -4652,9 +4630,6 @@
       <c r="M44" t="s">
         <v>44</v>
       </c>
-      <c r="N44" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -4684,9 +4659,6 @@
       <c r="M45" t="s">
         <v>44</v>
       </c>
-      <c r="N45" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -4716,9 +4688,6 @@
       <c r="M46" t="s">
         <v>44</v>
       </c>
-      <c r="N46" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -4748,9 +4717,6 @@
       <c r="M47" t="s">
         <v>44</v>
       </c>
-      <c r="N47" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -4780,14 +4746,11 @@
       <c r="M48" t="s">
         <v>44</v>
       </c>
-      <c r="N48" t="s">
-        <v>313</v>
-      </c>
       <c r="P48" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -4815,11 +4778,8 @@
       <c r="M49" t="s">
         <v>44</v>
       </c>
-      <c r="N49" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -4847,11 +4807,8 @@
       <c r="M50" t="s">
         <v>44</v>
       </c>
-      <c r="N50" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -4879,11 +4836,8 @@
       <c r="M51" t="s">
         <v>44</v>
       </c>
-      <c r="N51" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -4911,11 +4865,8 @@
       <c r="M52" t="s">
         <v>44</v>
       </c>
-      <c r="N52" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -4943,11 +4894,8 @@
       <c r="M53" t="s">
         <v>44</v>
       </c>
-      <c r="N53" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -4975,11 +4923,8 @@
       <c r="M54" t="s">
         <v>44</v>
       </c>
-      <c r="N54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -5007,11 +4952,8 @@
       <c r="M55" t="s">
         <v>44</v>
       </c>
-      <c r="N55" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -5042,11 +4984,8 @@
       <c r="M56" t="s">
         <v>44</v>
       </c>
-      <c r="N56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -5068,7 +5007,7 @@
       <c r="I57" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="27" t="s">
+      <c r="J57" t="s">
         <v>722</v>
       </c>
       <c r="L57" t="s">
@@ -5077,11 +5016,8 @@
       <c r="M57" t="s">
         <v>44</v>
       </c>
-      <c r="N57" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -5103,7 +5039,7 @@
       <c r="I58" t="s">
         <v>18</v>
       </c>
-      <c r="J58" s="27" t="s">
+      <c r="J58" t="s">
         <v>722</v>
       </c>
       <c r="L58" t="s">
@@ -5112,11 +5048,8 @@
       <c r="M58" t="s">
         <v>44</v>
       </c>
-      <c r="N58" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -5138,7 +5071,7 @@
       <c r="I59" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="27" t="s">
+      <c r="J59" t="s">
         <v>722</v>
       </c>
       <c r="L59" t="s">
@@ -5147,11 +5080,8 @@
       <c r="M59" t="s">
         <v>44</v>
       </c>
-      <c r="N59" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -5170,7 +5100,7 @@
       <c r="I60" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="27" t="s">
+      <c r="J60" t="s">
         <v>722</v>
       </c>
       <c r="L60" t="s">
@@ -5179,11 +5109,8 @@
       <c r="M60" t="s">
         <v>44</v>
       </c>
-      <c r="N60" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -5205,7 +5132,7 @@
       <c r="I61" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="27" t="s">
+      <c r="J61" t="s">
         <v>722</v>
       </c>
       <c r="L61" t="s">
@@ -5214,11 +5141,8 @@
       <c r="M61" t="s">
         <v>44</v>
       </c>
-      <c r="N61" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -5240,7 +5164,7 @@
       <c r="I62" t="s">
         <v>18</v>
       </c>
-      <c r="J62" s="27" t="s">
+      <c r="J62" t="s">
         <v>722</v>
       </c>
       <c r="L62" t="s">
@@ -5249,11 +5173,8 @@
       <c r="M62" t="s">
         <v>44</v>
       </c>
-      <c r="N62" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -5275,7 +5196,7 @@
       <c r="I63" t="s">
         <v>18</v>
       </c>
-      <c r="J63" s="27" t="s">
+      <c r="J63" t="s">
         <v>722</v>
       </c>
       <c r="L63" t="s">
@@ -5284,11 +5205,8 @@
       <c r="M63" t="s">
         <v>44</v>
       </c>
-      <c r="N63" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -5310,7 +5228,7 @@
       <c r="I64" t="s">
         <v>18</v>
       </c>
-      <c r="J64" s="27" t="s">
+      <c r="J64" t="s">
         <v>722</v>
       </c>
       <c r="L64" t="s">
@@ -5318,9 +5236,6 @@
       </c>
       <c r="M64" t="s">
         <v>44</v>
-      </c>
-      <c r="N64" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -5345,7 +5260,7 @@
       <c r="I65" t="s">
         <v>18</v>
       </c>
-      <c r="J65" s="27" t="s">
+      <c r="J65" t="s">
         <v>722</v>
       </c>
       <c r="L65" t="s">
@@ -5353,9 +5268,6 @@
       </c>
       <c r="M65" t="s">
         <v>44</v>
-      </c>
-      <c r="N65" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -5380,7 +5292,7 @@
       <c r="I66" t="s">
         <v>18</v>
       </c>
-      <c r="J66" s="27" t="s">
+      <c r="J66" t="s">
         <v>722</v>
       </c>
       <c r="L66" t="s">
@@ -5388,9 +5300,6 @@
       </c>
       <c r="M66" t="s">
         <v>44</v>
-      </c>
-      <c r="N66" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -5415,7 +5324,7 @@
       <c r="I67" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="27" t="s">
+      <c r="J67" t="s">
         <v>722</v>
       </c>
       <c r="L67" t="s">
@@ -5423,9 +5332,6 @@
       </c>
       <c r="M67" t="s">
         <v>44</v>
-      </c>
-      <c r="N67" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -5456,9 +5362,6 @@
       <c r="M68" t="s">
         <v>293</v>
       </c>
-      <c r="N68" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -5488,9 +5391,6 @@
       <c r="M69" t="s">
         <v>45</v>
       </c>
-      <c r="N69" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -5517,9 +5417,6 @@
       <c r="M70" t="s">
         <v>45</v>
       </c>
-      <c r="N70" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -5546,9 +5443,6 @@
       <c r="M71" t="s">
         <v>45</v>
       </c>
-      <c r="N71" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -5575,9 +5469,6 @@
       <c r="M72" t="s">
         <v>45</v>
       </c>
-      <c r="N72" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -5604,9 +5495,6 @@
       <c r="M73" t="s">
         <v>45</v>
       </c>
-      <c r="N73" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
@@ -5633,9 +5521,6 @@
       <c r="M74" t="s">
         <v>45</v>
       </c>
-      <c r="N74" t="s">
-        <v>313</v>
-      </c>
       <c r="P74" t="s">
         <v>447</v>
       </c>
@@ -5668,9 +5553,6 @@
       <c r="M75" t="s">
         <v>45</v>
       </c>
-      <c r="N75" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -5700,9 +5582,6 @@
       <c r="M76" t="s">
         <v>45</v>
       </c>
-      <c r="N76" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -5726,9 +5605,6 @@
       <c r="M77" t="s">
         <v>45</v>
       </c>
-      <c r="N77" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -5752,9 +5628,6 @@
       <c r="M78" t="s">
         <v>45</v>
       </c>
-      <c r="N78" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -5784,9 +5657,6 @@
       <c r="M79" t="s">
         <v>45</v>
       </c>
-      <c r="N79" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -5810,9 +5680,6 @@
       <c r="M80" t="s">
         <v>45</v>
       </c>
-      <c r="N80" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -5842,9 +5709,6 @@
       <c r="M81" t="s">
         <v>45</v>
       </c>
-      <c r="N81" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -5874,9 +5738,6 @@
       <c r="M82" t="s">
         <v>45</v>
       </c>
-      <c r="N82" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
@@ -5897,9 +5758,6 @@
       <c r="M83" t="s">
         <v>45</v>
       </c>
-      <c r="N83" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -5926,9 +5784,6 @@
       <c r="M84" t="s">
         <v>45</v>
       </c>
-      <c r="N84" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -5952,9 +5807,6 @@
       <c r="M85" t="s">
         <v>45</v>
       </c>
-      <c r="N85" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -5981,9 +5833,6 @@
       <c r="M86" t="s">
         <v>45</v>
       </c>
-      <c r="N86" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -6007,9 +5856,6 @@
       <c r="M87" t="s">
         <v>45</v>
       </c>
-      <c r="N87" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -6036,9 +5882,6 @@
       <c r="M88" t="s">
         <v>57</v>
       </c>
-      <c r="N88" t="s">
-        <v>313</v>
-      </c>
       <c r="P88" t="s">
         <v>295</v>
       </c>
@@ -6065,9 +5908,6 @@
       <c r="M89" t="s">
         <v>57</v>
       </c>
-      <c r="N89" t="s">
-        <v>313</v>
-      </c>
       <c r="P89" t="s">
         <v>295</v>
       </c>
@@ -6097,9 +5937,6 @@
       <c r="M90" t="s">
         <v>57</v>
       </c>
-      <c r="N90" t="s">
-        <v>313</v>
-      </c>
       <c r="P90" t="s">
         <v>295</v>
       </c>
@@ -6132,9 +5969,6 @@
       <c r="M91" t="s">
         <v>57</v>
       </c>
-      <c r="N91" t="s">
-        <v>313</v>
-      </c>
       <c r="P91" t="s">
         <v>295</v>
       </c>
@@ -6164,9 +5998,6 @@
       <c r="M92" t="s">
         <v>57</v>
       </c>
-      <c r="N92" t="s">
-        <v>313</v>
-      </c>
       <c r="P92" t="s">
         <v>295</v>
       </c>
@@ -6196,9 +6027,6 @@
       <c r="M93" t="s">
         <v>57</v>
       </c>
-      <c r="N93" t="s">
-        <v>313</v>
-      </c>
       <c r="P93" t="s">
         <v>295</v>
       </c>
@@ -6228,9 +6056,6 @@
       <c r="M94" t="s">
         <v>57</v>
       </c>
-      <c r="N94" t="s">
-        <v>313</v>
-      </c>
       <c r="P94" t="s">
         <v>295</v>
       </c>
@@ -6260,9 +6085,6 @@
       <c r="M95" t="s">
         <v>57</v>
       </c>
-      <c r="N95" t="s">
-        <v>313</v>
-      </c>
       <c r="P95" t="s">
         <v>295</v>
       </c>
@@ -6292,9 +6114,6 @@
       <c r="M96" t="s">
         <v>57</v>
       </c>
-      <c r="N96" t="s">
-        <v>313</v>
-      </c>
       <c r="P96" t="s">
         <v>295</v>
       </c>
@@ -6324,9 +6143,6 @@
       <c r="M97" t="s">
         <v>57</v>
       </c>
-      <c r="N97" t="s">
-        <v>313</v>
-      </c>
       <c r="P97" t="s">
         <v>295</v>
       </c>
@@ -6356,9 +6172,6 @@
       <c r="M98" t="s">
         <v>57</v>
       </c>
-      <c r="N98" t="s">
-        <v>313</v>
-      </c>
       <c r="P98" t="s">
         <v>295</v>
       </c>
@@ -6388,9 +6201,6 @@
       <c r="M99" t="s">
         <v>57</v>
       </c>
-      <c r="N99" t="s">
-        <v>313</v>
-      </c>
       <c r="P99" t="s">
         <v>295</v>
       </c>
@@ -6420,9 +6230,6 @@
       <c r="M100" t="s">
         <v>57</v>
       </c>
-      <c r="N100" t="s">
-        <v>313</v>
-      </c>
       <c r="P100" t="s">
         <v>295</v>
       </c>
@@ -6452,9 +6259,6 @@
       <c r="M101" t="s">
         <v>57</v>
       </c>
-      <c r="N101" t="s">
-        <v>313</v>
-      </c>
       <c r="P101" t="s">
         <v>295</v>
       </c>
@@ -6484,9 +6288,6 @@
       <c r="M102" t="s">
         <v>57</v>
       </c>
-      <c r="N102" t="s">
-        <v>313</v>
-      </c>
       <c r="P102" t="s">
         <v>295</v>
       </c>
@@ -6516,9 +6317,6 @@
       <c r="M103" t="s">
         <v>57</v>
       </c>
-      <c r="N103" t="s">
-        <v>313</v>
-      </c>
       <c r="P103" t="s">
         <v>295</v>
       </c>
@@ -6548,9 +6346,6 @@
       <c r="M104" t="s">
         <v>57</v>
       </c>
-      <c r="N104" t="s">
-        <v>313</v>
-      </c>
       <c r="P104" t="s">
         <v>295</v>
       </c>
@@ -6580,9 +6375,6 @@
       <c r="M105" t="s">
         <v>57</v>
       </c>
-      <c r="N105" t="s">
-        <v>313</v>
-      </c>
       <c r="P105" t="s">
         <v>295</v>
       </c>
@@ -6609,9 +6401,6 @@
       <c r="M106" t="s">
         <v>57</v>
       </c>
-      <c r="N106" t="s">
-        <v>313</v>
-      </c>
       <c r="P106" t="s">
         <v>295</v>
       </c>
@@ -6638,9 +6427,6 @@
       <c r="M107" t="s">
         <v>57</v>
       </c>
-      <c r="N107" t="s">
-        <v>313</v>
-      </c>
       <c r="P107" t="s">
         <v>295</v>
       </c>
@@ -6667,9 +6453,6 @@
       <c r="M108" t="s">
         <v>57</v>
       </c>
-      <c r="N108" t="s">
-        <v>313</v>
-      </c>
       <c r="P108" t="s">
         <v>295</v>
       </c>
@@ -6699,9 +6482,6 @@
       <c r="M109" t="s">
         <v>57</v>
       </c>
-      <c r="N109" t="s">
-        <v>313</v>
-      </c>
       <c r="P109" t="s">
         <v>295</v>
       </c>
@@ -6731,9 +6511,6 @@
       <c r="M110" t="s">
         <v>57</v>
       </c>
-      <c r="N110" t="s">
-        <v>313</v>
-      </c>
       <c r="P110" t="s">
         <v>295</v>
       </c>
@@ -6763,9 +6540,6 @@
       <c r="M111" t="s">
         <v>57</v>
       </c>
-      <c r="N111" t="s">
-        <v>313</v>
-      </c>
       <c r="P111" t="s">
         <v>295</v>
       </c>
@@ -6795,9 +6569,6 @@
       <c r="M112" t="s">
         <v>57</v>
       </c>
-      <c r="N112" t="s">
-        <v>313</v>
-      </c>
       <c r="P112" t="s">
         <v>295</v>
       </c>
@@ -6827,9 +6598,6 @@
       <c r="M113" t="s">
         <v>57</v>
       </c>
-      <c r="N113" t="s">
-        <v>313</v>
-      </c>
       <c r="P113" t="s">
         <v>295</v>
       </c>
@@ -6859,9 +6627,6 @@
       <c r="M114" t="s">
         <v>57</v>
       </c>
-      <c r="N114" t="s">
-        <v>313</v>
-      </c>
       <c r="P114" t="s">
         <v>295</v>
       </c>
@@ -6891,9 +6656,6 @@
       <c r="M115" t="s">
         <v>57</v>
       </c>
-      <c r="N115" t="s">
-        <v>313</v>
-      </c>
       <c r="P115" t="s">
         <v>295</v>
       </c>
@@ -6923,9 +6685,6 @@
       <c r="M116" t="s">
         <v>57</v>
       </c>
-      <c r="N116" t="s">
-        <v>313</v>
-      </c>
       <c r="P116" t="s">
         <v>295</v>
       </c>
@@ -6955,9 +6714,6 @@
       <c r="M117" t="s">
         <v>57</v>
       </c>
-      <c r="N117" t="s">
-        <v>313</v>
-      </c>
       <c r="P117" t="s">
         <v>295</v>
       </c>
@@ -6987,9 +6743,6 @@
       <c r="M118" t="s">
         <v>57</v>
       </c>
-      <c r="N118" t="s">
-        <v>313</v>
-      </c>
       <c r="P118" t="s">
         <v>295</v>
       </c>
@@ -7019,9 +6772,6 @@
       <c r="M119" t="s">
         <v>57</v>
       </c>
-      <c r="N119" t="s">
-        <v>313</v>
-      </c>
       <c r="P119" t="s">
         <v>295</v>
       </c>
@@ -7051,9 +6801,6 @@
       <c r="M120" t="s">
         <v>57</v>
       </c>
-      <c r="N120" t="s">
-        <v>313</v>
-      </c>
       <c r="P120" t="s">
         <v>295</v>
       </c>
@@ -7083,9 +6830,6 @@
       <c r="M121" t="s">
         <v>57</v>
       </c>
-      <c r="N121" t="s">
-        <v>313</v>
-      </c>
       <c r="P121" t="s">
         <v>295</v>
       </c>
@@ -7115,9 +6859,6 @@
       <c r="M122" t="s">
         <v>57</v>
       </c>
-      <c r="N122" t="s">
-        <v>313</v>
-      </c>
       <c r="P122" t="s">
         <v>295</v>
       </c>
@@ -7147,9 +6888,6 @@
       <c r="M123" t="s">
         <v>57</v>
       </c>
-      <c r="N123" t="s">
-        <v>313</v>
-      </c>
       <c r="P123" t="s">
         <v>295</v>
       </c>
@@ -7179,9 +6917,6 @@
       <c r="M124" t="s">
         <v>57</v>
       </c>
-      <c r="N124" t="s">
-        <v>313</v>
-      </c>
       <c r="P124" t="s">
         <v>295</v>
       </c>
@@ -7211,9 +6946,6 @@
       <c r="M125" t="s">
         <v>57</v>
       </c>
-      <c r="N125" t="s">
-        <v>313</v>
-      </c>
       <c r="P125" t="s">
         <v>295</v>
       </c>
@@ -7243,9 +6975,6 @@
       <c r="M126" t="s">
         <v>57</v>
       </c>
-      <c r="N126" t="s">
-        <v>313</v>
-      </c>
       <c r="P126" t="s">
         <v>295</v>
       </c>
@@ -7275,9 +7004,6 @@
       <c r="M127" t="s">
         <v>57</v>
       </c>
-      <c r="N127" t="s">
-        <v>313</v>
-      </c>
       <c r="P127" t="s">
         <v>295</v>
       </c>
@@ -7304,9 +7030,6 @@
       <c r="M128" t="s">
         <v>57</v>
       </c>
-      <c r="N128" t="s">
-        <v>313</v>
-      </c>
       <c r="P128" t="s">
         <v>295</v>
       </c>
@@ -7333,9 +7056,6 @@
       <c r="M129" t="s">
         <v>57</v>
       </c>
-      <c r="N129" t="s">
-        <v>313</v>
-      </c>
       <c r="P129" t="s">
         <v>295</v>
       </c>
@@ -7362,9 +7082,6 @@
       <c r="M130" t="s">
         <v>57</v>
       </c>
-      <c r="N130" t="s">
-        <v>313</v>
-      </c>
       <c r="P130" t="s">
         <v>295</v>
       </c>
@@ -7391,9 +7108,6 @@
       <c r="M131" t="s">
         <v>57</v>
       </c>
-      <c r="N131" t="s">
-        <v>313</v>
-      </c>
       <c r="P131" t="s">
         <v>295</v>
       </c>
@@ -7420,9 +7134,6 @@
       <c r="M132" t="s">
         <v>57</v>
       </c>
-      <c r="N132" t="s">
-        <v>313</v>
-      </c>
       <c r="P132" t="s">
         <v>295</v>
       </c>
@@ -7449,9 +7160,6 @@
       <c r="M133" t="s">
         <v>57</v>
       </c>
-      <c r="N133" t="s">
-        <v>313</v>
-      </c>
       <c r="P133" t="s">
         <v>295</v>
       </c>
@@ -7478,9 +7186,6 @@
       <c r="M134" t="s">
         <v>57</v>
       </c>
-      <c r="N134" t="s">
-        <v>313</v>
-      </c>
       <c r="P134" t="s">
         <v>295</v>
       </c>
@@ -7507,9 +7212,6 @@
       <c r="M135" t="s">
         <v>57</v>
       </c>
-      <c r="N135" t="s">
-        <v>313</v>
-      </c>
       <c r="P135" t="s">
         <v>295</v>
       </c>
@@ -7536,9 +7238,6 @@
       <c r="M136" t="s">
         <v>57</v>
       </c>
-      <c r="N136" t="s">
-        <v>313</v>
-      </c>
       <c r="P136" t="s">
         <v>295</v>
       </c>
@@ -7565,9 +7264,6 @@
       <c r="M137" t="s">
         <v>57</v>
       </c>
-      <c r="N137" t="s">
-        <v>313</v>
-      </c>
       <c r="P137" t="s">
         <v>295</v>
       </c>
@@ -7594,9 +7290,6 @@
       <c r="M138" t="s">
         <v>57</v>
       </c>
-      <c r="N138" t="s">
-        <v>313</v>
-      </c>
       <c r="P138" t="s">
         <v>295</v>
       </c>
@@ -7623,9 +7316,6 @@
       <c r="M139" t="s">
         <v>57</v>
       </c>
-      <c r="N139" t="s">
-        <v>313</v>
-      </c>
       <c r="P139" t="s">
         <v>295</v>
       </c>
@@ -7652,9 +7342,6 @@
       <c r="M140" t="s">
         <v>57</v>
       </c>
-      <c r="N140" t="s">
-        <v>313</v>
-      </c>
       <c r="P140" t="s">
         <v>295</v>
       </c>
@@ -7681,9 +7368,6 @@
       <c r="M141" t="s">
         <v>57</v>
       </c>
-      <c r="N141" t="s">
-        <v>313</v>
-      </c>
       <c r="P141" t="s">
         <v>295</v>
       </c>
@@ -7710,9 +7394,6 @@
       <c r="M142" t="s">
         <v>57</v>
       </c>
-      <c r="N142" t="s">
-        <v>313</v>
-      </c>
       <c r="P142" t="s">
         <v>295</v>
       </c>
@@ -7742,9 +7423,6 @@
       <c r="M143" t="s">
         <v>57</v>
       </c>
-      <c r="N143" t="s">
-        <v>313</v>
-      </c>
       <c r="P143" t="s">
         <v>295</v>
       </c>
@@ -7774,9 +7452,6 @@
       <c r="M144" t="s">
         <v>57</v>
       </c>
-      <c r="N144" t="s">
-        <v>313</v>
-      </c>
       <c r="P144" t="s">
         <v>295</v>
       </c>
@@ -7806,9 +7481,6 @@
       <c r="M145" t="s">
         <v>57</v>
       </c>
-      <c r="N145" t="s">
-        <v>313</v>
-      </c>
       <c r="P145" t="s">
         <v>295</v>
       </c>
@@ -7838,9 +7510,6 @@
       <c r="M146" t="s">
         <v>57</v>
       </c>
-      <c r="N146" t="s">
-        <v>313</v>
-      </c>
       <c r="P146" t="s">
         <v>295</v>
       </c>
@@ -7870,9 +7539,6 @@
       <c r="M147" t="s">
         <v>57</v>
       </c>
-      <c r="N147" t="s">
-        <v>313</v>
-      </c>
       <c r="P147" t="s">
         <v>295</v>
       </c>
@@ -7902,9 +7568,6 @@
       <c r="M148" t="s">
         <v>57</v>
       </c>
-      <c r="N148" t="s">
-        <v>313</v>
-      </c>
       <c r="P148" t="s">
         <v>295</v>
       </c>
@@ -7934,9 +7597,6 @@
       <c r="M149" t="s">
         <v>57</v>
       </c>
-      <c r="N149" t="s">
-        <v>313</v>
-      </c>
       <c r="P149" t="s">
         <v>295</v>
       </c>
@@ -7966,9 +7626,6 @@
       <c r="M150" t="s">
         <v>57</v>
       </c>
-      <c r="N150" t="s">
-        <v>313</v>
-      </c>
       <c r="P150" t="s">
         <v>295</v>
       </c>
@@ -7998,9 +7655,6 @@
       <c r="M151" t="s">
         <v>57</v>
       </c>
-      <c r="N151" t="s">
-        <v>313</v>
-      </c>
       <c r="P151" t="s">
         <v>295</v>
       </c>
@@ -8027,9 +7681,6 @@
       <c r="M152" t="s">
         <v>57</v>
       </c>
-      <c r="N152" t="s">
-        <v>313</v>
-      </c>
       <c r="P152" t="s">
         <v>295</v>
       </c>
@@ -8056,9 +7707,6 @@
       <c r="M153" t="s">
         <v>57</v>
       </c>
-      <c r="N153" t="s">
-        <v>313</v>
-      </c>
       <c r="P153" t="s">
         <v>295</v>
       </c>
@@ -8088,9 +7736,6 @@
       <c r="M154" t="s">
         <v>57</v>
       </c>
-      <c r="N154" t="s">
-        <v>313</v>
-      </c>
       <c r="P154" t="s">
         <v>295</v>
       </c>
@@ -8117,9 +7762,6 @@
       <c r="M155" t="s">
         <v>57</v>
       </c>
-      <c r="N155" t="s">
-        <v>313</v>
-      </c>
       <c r="P155" t="s">
         <v>295</v>
       </c>
@@ -8146,9 +7788,6 @@
       <c r="M156" t="s">
         <v>57</v>
       </c>
-      <c r="N156" t="s">
-        <v>313</v>
-      </c>
       <c r="P156" t="s">
         <v>295</v>
       </c>
@@ -8175,9 +7814,6 @@
       <c r="M157" t="s">
         <v>57</v>
       </c>
-      <c r="N157" t="s">
-        <v>313</v>
-      </c>
       <c r="P157" t="s">
         <v>295</v>
       </c>
@@ -8207,9 +7843,6 @@
       <c r="M158" t="s">
         <v>57</v>
       </c>
-      <c r="N158" t="s">
-        <v>313</v>
-      </c>
       <c r="P158" t="s">
         <v>295</v>
       </c>
@@ -8239,9 +7872,6 @@
       <c r="M159" t="s">
         <v>57</v>
       </c>
-      <c r="N159" t="s">
-        <v>313</v>
-      </c>
       <c r="P159" t="s">
         <v>295</v>
       </c>
@@ -8271,9 +7901,6 @@
       <c r="M160" t="s">
         <v>57</v>
       </c>
-      <c r="N160" t="s">
-        <v>313</v>
-      </c>
       <c r="P160" t="s">
         <v>295</v>
       </c>
@@ -8303,9 +7930,6 @@
       <c r="M161" t="s">
         <v>57</v>
       </c>
-      <c r="N161" t="s">
-        <v>313</v>
-      </c>
       <c r="P161" t="s">
         <v>295</v>
       </c>
@@ -8335,9 +7959,6 @@
       <c r="M162" t="s">
         <v>57</v>
       </c>
-      <c r="N162" t="s">
-        <v>313</v>
-      </c>
       <c r="P162" t="s">
         <v>295</v>
       </c>
@@ -8367,9 +7988,6 @@
       <c r="M163" t="s">
         <v>57</v>
       </c>
-      <c r="N163" t="s">
-        <v>313</v>
-      </c>
       <c r="P163" t="s">
         <v>295</v>
       </c>
@@ -8399,9 +8017,6 @@
       <c r="M164" t="s">
         <v>57</v>
       </c>
-      <c r="N164" t="s">
-        <v>313</v>
-      </c>
       <c r="P164" t="s">
         <v>295</v>
       </c>
@@ -8431,9 +8046,6 @@
       <c r="M165" t="s">
         <v>57</v>
       </c>
-      <c r="N165" t="s">
-        <v>313</v>
-      </c>
       <c r="P165" t="s">
         <v>295</v>
       </c>
@@ -8463,9 +8075,6 @@
       <c r="M166" t="s">
         <v>57</v>
       </c>
-      <c r="N166" t="s">
-        <v>313</v>
-      </c>
       <c r="P166" t="s">
         <v>295</v>
       </c>
@@ -8495,9 +8104,6 @@
       <c r="M167" t="s">
         <v>57</v>
       </c>
-      <c r="N167" t="s">
-        <v>313</v>
-      </c>
       <c r="P167" t="s">
         <v>295</v>
       </c>
@@ -8527,9 +8133,6 @@
       <c r="M168" t="s">
         <v>57</v>
       </c>
-      <c r="N168" t="s">
-        <v>313</v>
-      </c>
       <c r="P168" t="s">
         <v>295</v>
       </c>
@@ -8559,9 +8162,6 @@
       <c r="M169" t="s">
         <v>57</v>
       </c>
-      <c r="N169" t="s">
-        <v>313</v>
-      </c>
       <c r="P169" t="s">
         <v>295</v>
       </c>
@@ -8591,9 +8191,6 @@
       <c r="M170" t="s">
         <v>57</v>
       </c>
-      <c r="N170" t="s">
-        <v>313</v>
-      </c>
       <c r="P170" t="s">
         <v>295</v>
       </c>
@@ -8623,9 +8220,6 @@
       <c r="M171" t="s">
         <v>57</v>
       </c>
-      <c r="N171" t="s">
-        <v>313</v>
-      </c>
       <c r="P171" t="s">
         <v>295</v>
       </c>
@@ -8655,9 +8249,6 @@
       <c r="M172" t="s">
         <v>57</v>
       </c>
-      <c r="N172" t="s">
-        <v>313</v>
-      </c>
       <c r="P172" t="s">
         <v>295</v>
       </c>
@@ -8684,9 +8275,6 @@
       <c r="M173" t="s">
         <v>57</v>
       </c>
-      <c r="N173" t="s">
-        <v>313</v>
-      </c>
       <c r="P173" t="s">
         <v>295</v>
       </c>
@@ -8713,9 +8301,6 @@
       <c r="M174" t="s">
         <v>57</v>
       </c>
-      <c r="N174" t="s">
-        <v>313</v>
-      </c>
       <c r="P174" t="s">
         <v>295</v>
       </c>
@@ -8742,9 +8327,6 @@
       <c r="M175" t="s">
         <v>57</v>
       </c>
-      <c r="N175" t="s">
-        <v>313</v>
-      </c>
       <c r="P175" t="s">
         <v>295</v>
       </c>
@@ -8771,9 +8353,6 @@
       <c r="M176" t="s">
         <v>57</v>
       </c>
-      <c r="N176" t="s">
-        <v>313</v>
-      </c>
       <c r="P176" t="s">
         <v>295</v>
       </c>
@@ -8800,9 +8379,6 @@
       <c r="M177" t="s">
         <v>57</v>
       </c>
-      <c r="N177" t="s">
-        <v>313</v>
-      </c>
       <c r="P177" t="s">
         <v>295</v>
       </c>
@@ -8829,9 +8405,6 @@
       <c r="M178" t="s">
         <v>57</v>
       </c>
-      <c r="N178" t="s">
-        <v>313</v>
-      </c>
       <c r="P178" t="s">
         <v>295</v>
       </c>
@@ -8858,9 +8431,6 @@
       <c r="M179" t="s">
         <v>57</v>
       </c>
-      <c r="N179" t="s">
-        <v>313</v>
-      </c>
       <c r="P179" t="s">
         <v>295</v>
       </c>
@@ -8887,9 +8457,6 @@
       <c r="M180" t="s">
         <v>57</v>
       </c>
-      <c r="N180" t="s">
-        <v>313</v>
-      </c>
       <c r="P180" t="s">
         <v>295</v>
       </c>
@@ -8916,9 +8483,6 @@
       <c r="M181" t="s">
         <v>57</v>
       </c>
-      <c r="N181" t="s">
-        <v>313</v>
-      </c>
       <c r="P181" t="s">
         <v>295</v>
       </c>
@@ -8945,9 +8509,6 @@
       <c r="M182" t="s">
         <v>57</v>
       </c>
-      <c r="N182" t="s">
-        <v>313</v>
-      </c>
       <c r="P182" t="s">
         <v>295</v>
       </c>
@@ -8974,9 +8535,6 @@
       <c r="M183" t="s">
         <v>57</v>
       </c>
-      <c r="N183" t="s">
-        <v>313</v>
-      </c>
       <c r="P183" t="s">
         <v>295</v>
       </c>
@@ -9003,9 +8561,6 @@
       <c r="M184" t="s">
         <v>57</v>
       </c>
-      <c r="N184" t="s">
-        <v>313</v>
-      </c>
       <c r="P184" t="s">
         <v>295</v>
       </c>
@@ -9032,9 +8587,6 @@
       <c r="M185" t="s">
         <v>57</v>
       </c>
-      <c r="N185" t="s">
-        <v>313</v>
-      </c>
       <c r="P185" t="s">
         <v>295</v>
       </c>
@@ -9061,9 +8613,6 @@
       <c r="M186" t="s">
         <v>57</v>
       </c>
-      <c r="N186" t="s">
-        <v>313</v>
-      </c>
       <c r="P186" t="s">
         <v>295</v>
       </c>
@@ -9090,9 +8639,6 @@
       <c r="M187" t="s">
         <v>57</v>
       </c>
-      <c r="N187" t="s">
-        <v>313</v>
-      </c>
       <c r="P187" t="s">
         <v>295</v>
       </c>
@@ -9119,9 +8665,6 @@
       <c r="M188" t="s">
         <v>57</v>
       </c>
-      <c r="N188" t="s">
-        <v>313</v>
-      </c>
       <c r="P188" t="s">
         <v>295</v>
       </c>
@@ -9148,9 +8691,6 @@
       <c r="M189" t="s">
         <v>57</v>
       </c>
-      <c r="N189" t="s">
-        <v>313</v>
-      </c>
       <c r="P189" t="s">
         <v>295</v>
       </c>
@@ -9177,9 +8717,6 @@
       <c r="M190" t="s">
         <v>57</v>
       </c>
-      <c r="N190" t="s">
-        <v>313</v>
-      </c>
       <c r="P190" t="s">
         <v>295</v>
       </c>
@@ -9206,9 +8743,6 @@
       <c r="M191" t="s">
         <v>57</v>
       </c>
-      <c r="N191" t="s">
-        <v>313</v>
-      </c>
       <c r="P191" t="s">
         <v>295</v>
       </c>
@@ -9235,9 +8769,6 @@
       <c r="M192" t="s">
         <v>57</v>
       </c>
-      <c r="N192" t="s">
-        <v>313</v>
-      </c>
       <c r="P192" t="s">
         <v>295</v>
       </c>
@@ -9264,9 +8795,6 @@
       <c r="M193" t="s">
         <v>57</v>
       </c>
-      <c r="N193" t="s">
-        <v>313</v>
-      </c>
       <c r="P193" t="s">
         <v>295</v>
       </c>
@@ -9293,9 +8821,6 @@
       <c r="M194" t="s">
         <v>57</v>
       </c>
-      <c r="N194" t="s">
-        <v>313</v>
-      </c>
       <c r="P194" t="s">
         <v>295</v>
       </c>
@@ -9322,9 +8847,6 @@
       <c r="M195" t="s">
         <v>57</v>
       </c>
-      <c r="N195" t="s">
-        <v>313</v>
-      </c>
       <c r="P195" t="s">
         <v>295</v>
       </c>
@@ -9351,9 +8873,6 @@
       <c r="M196" t="s">
         <v>57</v>
       </c>
-      <c r="N196" t="s">
-        <v>313</v>
-      </c>
       <c r="P196" t="s">
         <v>295</v>
       </c>
@@ -9380,9 +8899,6 @@
       <c r="M197" t="s">
         <v>57</v>
       </c>
-      <c r="N197" t="s">
-        <v>313</v>
-      </c>
       <c r="P197" t="s">
         <v>295</v>
       </c>
@@ -9409,9 +8925,6 @@
       <c r="M198" t="s">
         <v>57</v>
       </c>
-      <c r="N198" t="s">
-        <v>313</v>
-      </c>
       <c r="P198" t="s">
         <v>295</v>
       </c>
@@ -9438,9 +8951,6 @@
       <c r="M199" t="s">
         <v>57</v>
       </c>
-      <c r="N199" t="s">
-        <v>313</v>
-      </c>
       <c r="P199" t="s">
         <v>295</v>
       </c>
@@ -9467,9 +8977,6 @@
       <c r="M200" t="s">
         <v>57</v>
       </c>
-      <c r="N200" t="s">
-        <v>313</v>
-      </c>
       <c r="P200" t="s">
         <v>295</v>
       </c>
@@ -9496,9 +9003,6 @@
       <c r="M201" t="s">
         <v>57</v>
       </c>
-      <c r="N201" t="s">
-        <v>313</v>
-      </c>
       <c r="P201" t="s">
         <v>295</v>
       </c>
@@ -9525,9 +9029,6 @@
       <c r="M202" t="s">
         <v>57</v>
       </c>
-      <c r="N202" t="s">
-        <v>313</v>
-      </c>
       <c r="P202" t="s">
         <v>295</v>
       </c>
@@ -9557,9 +9058,6 @@
       <c r="M203" t="s">
         <v>57</v>
       </c>
-      <c r="N203" t="s">
-        <v>313</v>
-      </c>
       <c r="P203" t="s">
         <v>295</v>
       </c>
@@ -9589,9 +9087,6 @@
       <c r="M204" t="s">
         <v>57</v>
       </c>
-      <c r="N204" t="s">
-        <v>313</v>
-      </c>
       <c r="P204" t="s">
         <v>295</v>
       </c>
@@ -9621,9 +9116,6 @@
       <c r="M205" t="s">
         <v>57</v>
       </c>
-      <c r="N205" t="s">
-        <v>313</v>
-      </c>
       <c r="P205" t="s">
         <v>295</v>
       </c>
@@ -9653,9 +9145,6 @@
       <c r="M206" t="s">
         <v>57</v>
       </c>
-      <c r="N206" t="s">
-        <v>313</v>
-      </c>
       <c r="P206" t="s">
         <v>295</v>
       </c>
@@ -9685,9 +9174,6 @@
       <c r="M207" t="s">
         <v>57</v>
       </c>
-      <c r="N207" t="s">
-        <v>313</v>
-      </c>
       <c r="P207" t="s">
         <v>295</v>
       </c>
@@ -9717,9 +9203,6 @@
       <c r="M208" t="s">
         <v>57</v>
       </c>
-      <c r="N208" t="s">
-        <v>313</v>
-      </c>
       <c r="P208" t="s">
         <v>295</v>
       </c>
@@ -9749,9 +9232,6 @@
       <c r="M209" t="s">
         <v>57</v>
       </c>
-      <c r="N209" t="s">
-        <v>313</v>
-      </c>
       <c r="P209" t="s">
         <v>295</v>
       </c>
@@ -9781,9 +9261,6 @@
       <c r="M210" t="s">
         <v>57</v>
       </c>
-      <c r="N210" t="s">
-        <v>313</v>
-      </c>
       <c r="P210" t="s">
         <v>295</v>
       </c>
@@ -9813,9 +9290,6 @@
       <c r="M211" t="s">
         <v>57</v>
       </c>
-      <c r="N211" t="s">
-        <v>313</v>
-      </c>
       <c r="P211" t="s">
         <v>295</v>
       </c>
@@ -9845,9 +9319,6 @@
       <c r="M212" t="s">
         <v>57</v>
       </c>
-      <c r="N212" t="s">
-        <v>313</v>
-      </c>
       <c r="P212" t="s">
         <v>295</v>
       </c>
@@ -9877,9 +9348,6 @@
       <c r="M213" t="s">
         <v>57</v>
       </c>
-      <c r="N213" t="s">
-        <v>313</v>
-      </c>
       <c r="P213" t="s">
         <v>295</v>
       </c>
@@ -9909,9 +9377,6 @@
       <c r="M214" t="s">
         <v>57</v>
       </c>
-      <c r="N214" t="s">
-        <v>313</v>
-      </c>
       <c r="P214" t="s">
         <v>295</v>
       </c>
@@ -9941,9 +9406,6 @@
       <c r="M215" t="s">
         <v>57</v>
       </c>
-      <c r="N215" t="s">
-        <v>313</v>
-      </c>
       <c r="P215" t="s">
         <v>295</v>
       </c>
@@ -9973,9 +9435,6 @@
       <c r="M216" t="s">
         <v>57</v>
       </c>
-      <c r="N216" t="s">
-        <v>313</v>
-      </c>
       <c r="P216" t="s">
         <v>295</v>
       </c>
@@ -10005,9 +9464,6 @@
       <c r="M217" t="s">
         <v>57</v>
       </c>
-      <c r="N217" t="s">
-        <v>313</v>
-      </c>
       <c r="P217" t="s">
         <v>295</v>
       </c>
@@ -10037,9 +9493,6 @@
       <c r="M218" t="s">
         <v>57</v>
       </c>
-      <c r="N218" t="s">
-        <v>313</v>
-      </c>
       <c r="P218" t="s">
         <v>295</v>
       </c>
@@ -10069,9 +9522,6 @@
       <c r="M219" t="s">
         <v>57</v>
       </c>
-      <c r="N219" t="s">
-        <v>313</v>
-      </c>
       <c r="P219" t="s">
         <v>295</v>
       </c>
@@ -10101,9 +9551,6 @@
       <c r="M220" t="s">
         <v>57</v>
       </c>
-      <c r="N220" t="s">
-        <v>313</v>
-      </c>
       <c r="P220" t="s">
         <v>295</v>
       </c>
@@ -10133,9 +9580,6 @@
       <c r="M221" t="s">
         <v>57</v>
       </c>
-      <c r="N221" t="s">
-        <v>313</v>
-      </c>
       <c r="P221" t="s">
         <v>295</v>
       </c>
@@ -10165,9 +9609,6 @@
       <c r="M222" t="s">
         <v>57</v>
       </c>
-      <c r="N222" t="s">
-        <v>313</v>
-      </c>
       <c r="P222" t="s">
         <v>295</v>
       </c>
@@ -10194,9 +9635,6 @@
       <c r="M223" t="s">
         <v>57</v>
       </c>
-      <c r="N223" t="s">
-        <v>313</v>
-      </c>
       <c r="P223" t="s">
         <v>295</v>
       </c>
@@ -10223,9 +9661,6 @@
       <c r="M224" t="s">
         <v>57</v>
       </c>
-      <c r="N224" t="s">
-        <v>313</v>
-      </c>
       <c r="P224" t="s">
         <v>295</v>
       </c>
@@ -10252,9 +9687,6 @@
       <c r="M225" t="s">
         <v>57</v>
       </c>
-      <c r="N225" t="s">
-        <v>313</v>
-      </c>
       <c r="P225" t="s">
         <v>295</v>
       </c>
@@ -10281,9 +9713,6 @@
       <c r="M226" t="s">
         <v>57</v>
       </c>
-      <c r="N226" t="s">
-        <v>313</v>
-      </c>
       <c r="P226" t="s">
         <v>295</v>
       </c>
@@ -10310,9 +9739,6 @@
       <c r="M227" t="s">
         <v>57</v>
       </c>
-      <c r="N227" t="s">
-        <v>313</v>
-      </c>
       <c r="P227" t="s">
         <v>295</v>
       </c>
@@ -10339,9 +9765,6 @@
       <c r="M228" t="s">
         <v>57</v>
       </c>
-      <c r="N228" t="s">
-        <v>313</v>
-      </c>
       <c r="P228" t="s">
         <v>295</v>
       </c>
@@ -10368,9 +9791,6 @@
       <c r="M229" t="s">
         <v>57</v>
       </c>
-      <c r="N229" t="s">
-        <v>313</v>
-      </c>
       <c r="P229" t="s">
         <v>295</v>
       </c>
@@ -10397,9 +9817,6 @@
       <c r="M230" t="s">
         <v>57</v>
       </c>
-      <c r="N230" t="s">
-        <v>313</v>
-      </c>
       <c r="P230" t="s">
         <v>295</v>
       </c>
@@ -10426,9 +9843,6 @@
       <c r="M231" t="s">
         <v>57</v>
       </c>
-      <c r="N231" t="s">
-        <v>313</v>
-      </c>
       <c r="P231" t="s">
         <v>295</v>
       </c>
@@ -10455,9 +9869,6 @@
       <c r="M232" t="s">
         <v>57</v>
       </c>
-      <c r="N232" t="s">
-        <v>313</v>
-      </c>
       <c r="P232" t="s">
         <v>295</v>
       </c>
@@ -10484,9 +9895,6 @@
       <c r="M233" t="s">
         <v>57</v>
       </c>
-      <c r="N233" t="s">
-        <v>313</v>
-      </c>
       <c r="P233" t="s">
         <v>295</v>
       </c>
@@ -10513,9 +9921,6 @@
       <c r="M234" t="s">
         <v>57</v>
       </c>
-      <c r="N234" t="s">
-        <v>313</v>
-      </c>
       <c r="P234" t="s">
         <v>295</v>
       </c>
@@ -10542,9 +9947,6 @@
       <c r="M235" t="s">
         <v>57</v>
       </c>
-      <c r="N235" t="s">
-        <v>313</v>
-      </c>
       <c r="P235" t="s">
         <v>295</v>
       </c>
@@ -10571,9 +9973,6 @@
       <c r="M236" t="s">
         <v>57</v>
       </c>
-      <c r="N236" t="s">
-        <v>313</v>
-      </c>
       <c r="P236" t="s">
         <v>295</v>
       </c>
@@ -10603,9 +10002,6 @@
       <c r="M237" t="s">
         <v>57</v>
       </c>
-      <c r="N237" t="s">
-        <v>313</v>
-      </c>
       <c r="P237" t="s">
         <v>295</v>
       </c>
@@ -10635,9 +10031,6 @@
       <c r="M238" t="s">
         <v>57</v>
       </c>
-      <c r="N238" t="s">
-        <v>313</v>
-      </c>
       <c r="P238" t="s">
         <v>295</v>
       </c>
@@ -10666,9 +10059,6 @@
       </c>
       <c r="M239" t="s">
         <v>57</v>
-      </c>
-      <c r="N239" t="s">
-        <v>313</v>
       </c>
       <c r="P239" t="s">
         <v>295</v>

--- a/Scripts/Feature list.xlsx
+++ b/Scripts/Feature list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DigVulSC Project/DigVulSC/Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/GitHub/DIVE Project/DIVE/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94906AB0-3F67-2E45-B9E2-C6DEA7493897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81C1535-65A9-E34A-9B1A-E05624C6E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" xr2:uid="{07C3C414-C5CE-2646-965A-7DBD5899DC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="761">
   <si>
     <t>Feature</t>
   </si>
@@ -2294,6 +2294,72 @@
   </si>
   <si>
     <t>FillMissingDataWithZero,HexaColsToInt,ProcessConstructorArguments</t>
+  </si>
+  <si>
+    <t>Handling sensitive data</t>
+  </si>
+  <si>
+    <t>Anonymized</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PUSH30_Distribution</t>
+  </si>
+  <si>
+    <t>Distribution of the PUSH30 opcode</t>
+  </si>
+  <si>
+    <t>CanBeAggregated</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>OpCategory</t>
+  </si>
+  <si>
+    <t>Arithmetic Operation</t>
+  </si>
+  <si>
+    <t>Push Operation</t>
+  </si>
+  <si>
+    <t>Exchange Operation</t>
+  </si>
+  <si>
+    <t>Duplication Operation</t>
+  </si>
+  <si>
+    <t>Logging Operation</t>
+  </si>
+  <si>
+    <t>Stack, Memory, Storage, and Flow Operation</t>
+  </si>
+  <si>
+    <t>Block Information Operation</t>
+  </si>
+  <si>
+    <t>Environmental Information Operation</t>
+  </si>
+  <si>
+    <t>System Operation</t>
+  </si>
+  <si>
+    <t>Bitwise Logic Operation</t>
+  </si>
+  <si>
+    <t>Comparison Operation</t>
+  </si>
+  <si>
+    <t>Stop Operation</t>
   </si>
 </sst>
 </file>
@@ -2643,9 +2709,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}" name="Table1" displayName="Table1" ref="A1:P239" totalsRowShown="0">
-  <autoFilter ref="A1:P239" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}" name="Table1" displayName="Table1" ref="A1:S240" totalsRowShown="0">
+  <autoFilter ref="A1:S240" xr:uid="{A5605A12-B977-CD4B-A8BD-631DD66C9748}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{62075696-6E2B-1B48-920A-6B94BA151E11}" name="Feature"/>
     <tableColumn id="2" xr3:uid="{4EA24793-5FA4-A741-A4DC-6F6B688707FF}" name="Description"/>
     <tableColumn id="16" xr3:uid="{443E45A4-7D86-8740-B761-6BC3602BD6CF}" name="Relevance"/>
@@ -2662,6 +2728,9 @@
     <tableColumn id="10" xr3:uid="{3704C3E9-E907-EC4B-94B8-4D441539C5AA}" name="Availability"/>
     <tableColumn id="11" xr3:uid="{C6908EC4-3275-BC44-96F3-54A99C1DE78F}" name="SC Lifecycle Phase"/>
     <tableColumn id="12" xr3:uid="{2C281308-0140-BF44-A84B-2D9A5DEA48D3}" name="Remark"/>
+    <tableColumn id="17" xr3:uid="{78071EE9-7CDA-3647-BAED-B4C883E65876}" name="Handling sensitive data"/>
+    <tableColumn id="18" xr3:uid="{D404FB29-BB3F-CF4A-908A-3A374025ED26}" name="CanBeAggregated"/>
+    <tableColumn id="19" xr3:uid="{CE037EE1-D13B-C441-9692-7CAB64CCA516}" name="OpCategory"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3004,18 +3073,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3245D3C-FC29-C84C-8CEB-1C955EFCDC68}">
-  <dimension ref="A1:P239"/>
+  <dimension ref="A1:S240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L220" sqref="L220"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="72.5" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -3023,16 +3092,19 @@
     <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="86.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3081,8 +3153,17 @@
       <c r="P1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>739</v>
+      </c>
+      <c r="R1" t="s">
+        <v>745</v>
+      </c>
+      <c r="S1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>286</v>
       </c>
@@ -3117,8 +3198,14 @@
       <c r="O2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>740</v>
+      </c>
+      <c r="R2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -3152,8 +3239,14 @@
       <c r="O3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>741</v>
+      </c>
+      <c r="R3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3187,8 +3280,14 @@
       <c r="O4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>740</v>
+      </c>
+      <c r="R4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3222,8 +3321,14 @@
       <c r="O5" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>740</v>
+      </c>
+      <c r="R5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3260,8 +3365,14 @@
       <c r="O6" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>742</v>
+      </c>
+      <c r="R6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3295,8 +3406,11 @@
       <c r="O7" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3333,8 +3447,14 @@
       <c r="O8" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>742</v>
+      </c>
+      <c r="R8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3368,8 +3488,14 @@
       <c r="O9" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>740</v>
+      </c>
+      <c r="R9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3406,8 +3532,14 @@
       <c r="O10" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>742</v>
+      </c>
+      <c r="R10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
@@ -3452,8 +3584,14 @@
       <c r="P11" s="23" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>742</v>
+      </c>
+      <c r="R11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -3487,8 +3625,14 @@
       <c r="O12" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>741</v>
+      </c>
+      <c r="R12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3522,8 +3666,14 @@
       <c r="O13" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>741</v>
+      </c>
+      <c r="R13" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3557,8 +3707,14 @@
       <c r="O14" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>741</v>
+      </c>
+      <c r="R14" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3592,8 +3748,14 @@
       <c r="O15" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>741</v>
+      </c>
+      <c r="R15" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -3630,8 +3792,14 @@
       <c r="O16" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>741</v>
+      </c>
+      <c r="R16" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>287</v>
       </c>
@@ -3668,8 +3836,14 @@
       <c r="O17" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>740</v>
+      </c>
+      <c r="R17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -3703,8 +3877,14 @@
       <c r="O18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>741</v>
+      </c>
+      <c r="R18" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3738,8 +3918,14 @@
       <c r="O19" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>741</v>
+      </c>
+      <c r="R19" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -3770,8 +3956,14 @@
       <c r="O20" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>741</v>
+      </c>
+      <c r="R20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
@@ -3814,8 +4006,14 @@
       <c r="P21" s="24" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>742</v>
+      </c>
+      <c r="R21" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>43</v>
       </c>
@@ -3860,8 +4058,14 @@
       <c r="P22" s="23" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>742</v>
+      </c>
+      <c r="R22" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -3898,8 +4102,11 @@
       <c r="O23" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -3936,8 +4143,14 @@
       <c r="O24" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>740</v>
+      </c>
+      <c r="R24" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3974,8 +4187,14 @@
       <c r="O25" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>742</v>
+      </c>
+      <c r="R25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -4012,8 +4231,14 @@
       <c r="O26" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" t="s">
+        <v>741</v>
+      </c>
+      <c r="R26" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -4047,8 +4272,14 @@
       <c r="O27" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" t="s">
+        <v>741</v>
+      </c>
+      <c r="R27" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -4082,8 +4313,14 @@
       <c r="O28" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>741</v>
+      </c>
+      <c r="R28" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -4120,8 +4357,14 @@
       <c r="O29" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>740</v>
+      </c>
+      <c r="R29" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -4158,8 +4401,14 @@
       <c r="O30" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
+        <v>741</v>
+      </c>
+      <c r="R30" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -4196,8 +4445,14 @@
       <c r="O31" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" t="s">
+        <v>740</v>
+      </c>
+      <c r="R31" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -4234,8 +4489,14 @@
       <c r="O32" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>741</v>
+      </c>
+      <c r="R32" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4272,8 +4533,14 @@
       <c r="O33" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" t="s">
+        <v>741</v>
+      </c>
+      <c r="R33" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -4310,8 +4577,14 @@
       <c r="O34" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" t="s">
+        <v>742</v>
+      </c>
+      <c r="R34" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4348,8 +4621,14 @@
       <c r="O35" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" t="s">
+        <v>741</v>
+      </c>
+      <c r="R35" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>57</v>
       </c>
@@ -4386,8 +4665,14 @@
       <c r="O36" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" t="s">
+        <v>741</v>
+      </c>
+      <c r="R36" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -4415,8 +4700,14 @@
       <c r="M37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>741</v>
+      </c>
+      <c r="R37" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -4444,8 +4735,14 @@
       <c r="M38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" t="s">
+        <v>741</v>
+      </c>
+      <c r="R38" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -4476,8 +4773,14 @@
       <c r="M39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>741</v>
+      </c>
+      <c r="R39" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -4505,8 +4808,14 @@
       <c r="M40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
+        <v>741</v>
+      </c>
+      <c r="R40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4537,8 +4846,14 @@
       <c r="M41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>741</v>
+      </c>
+      <c r="R41" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -4569,8 +4884,14 @@
       <c r="M42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" t="s">
+        <v>741</v>
+      </c>
+      <c r="R42" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -4601,8 +4922,14 @@
       <c r="M43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" t="s">
+        <v>741</v>
+      </c>
+      <c r="R43" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -4630,8 +4957,14 @@
       <c r="M44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
+        <v>741</v>
+      </c>
+      <c r="R44" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -4659,8 +4992,14 @@
       <c r="M45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
+        <v>741</v>
+      </c>
+      <c r="R45" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -4688,8 +5027,14 @@
       <c r="M46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>741</v>
+      </c>
+      <c r="R46" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -4717,8 +5062,14 @@
       <c r="M47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" t="s">
+        <v>741</v>
+      </c>
+      <c r="R47" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -4749,8 +5100,14 @@
       <c r="P48" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q48" t="s">
+        <v>741</v>
+      </c>
+      <c r="R48" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -4778,8 +5135,14 @@
       <c r="M49" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q49" t="s">
+        <v>741</v>
+      </c>
+      <c r="R49" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -4807,8 +5170,14 @@
       <c r="M50" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q50" t="s">
+        <v>741</v>
+      </c>
+      <c r="R50" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -4836,8 +5205,14 @@
       <c r="M51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
+        <v>741</v>
+      </c>
+      <c r="R51" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -4865,8 +5240,14 @@
       <c r="M52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q52" t="s">
+        <v>741</v>
+      </c>
+      <c r="R52" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -4894,8 +5275,14 @@
       <c r="M53" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
+        <v>741</v>
+      </c>
+      <c r="R53" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -4923,8 +5310,14 @@
       <c r="M54" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q54" t="s">
+        <v>741</v>
+      </c>
+      <c r="R54" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -4952,8 +5345,14 @@
       <c r="M55" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q55" t="s">
+        <v>741</v>
+      </c>
+      <c r="R55" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -4984,8 +5383,14 @@
       <c r="M56" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q56" t="s">
+        <v>741</v>
+      </c>
+      <c r="R56" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -5016,8 +5421,14 @@
       <c r="M57" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q57" t="s">
+        <v>741</v>
+      </c>
+      <c r="R57" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -5048,8 +5459,14 @@
       <c r="M58" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q58" t="s">
+        <v>741</v>
+      </c>
+      <c r="R58" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -5080,8 +5497,14 @@
       <c r="M59" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q59" t="s">
+        <v>741</v>
+      </c>
+      <c r="R59" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -5109,8 +5532,14 @@
       <c r="M60" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q60" t="s">
+        <v>741</v>
+      </c>
+      <c r="R60" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -5141,8 +5570,14 @@
       <c r="M61" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q61" t="s">
+        <v>741</v>
+      </c>
+      <c r="R61" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -5173,8 +5608,14 @@
       <c r="M62" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q62" t="s">
+        <v>741</v>
+      </c>
+      <c r="R62" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -5205,8 +5646,14 @@
       <c r="M63" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q63" t="s">
+        <v>741</v>
+      </c>
+      <c r="R63" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -5237,8 +5684,14 @@
       <c r="M64" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64" t="s">
+        <v>741</v>
+      </c>
+      <c r="R64" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -5269,8 +5722,14 @@
       <c r="M65" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65" t="s">
+        <v>741</v>
+      </c>
+      <c r="R65" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -5301,8 +5760,14 @@
       <c r="M66" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" t="s">
+        <v>741</v>
+      </c>
+      <c r="R66" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -5333,8 +5798,14 @@
       <c r="M67" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" t="s">
+        <v>741</v>
+      </c>
+      <c r="R67" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>291</v>
       </c>
@@ -5362,8 +5833,14 @@
       <c r="M68" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q68" t="s">
+        <v>741</v>
+      </c>
+      <c r="R68" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -5391,8 +5868,14 @@
       <c r="M69" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q69" t="s">
+        <v>741</v>
+      </c>
+      <c r="R69" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -5417,8 +5900,14 @@
       <c r="M70" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70" t="s">
+        <v>741</v>
+      </c>
+      <c r="R70" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -5443,8 +5932,14 @@
       <c r="M71" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71" t="s">
+        <v>741</v>
+      </c>
+      <c r="R71" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -5469,8 +5964,14 @@
       <c r="M72" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72" t="s">
+        <v>741</v>
+      </c>
+      <c r="R72" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -5495,8 +5996,14 @@
       <c r="M73" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73" t="s">
+        <v>741</v>
+      </c>
+      <c r="R73" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>120</v>
       </c>
@@ -5524,8 +6031,14 @@
       <c r="P74" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74" t="s">
+        <v>741</v>
+      </c>
+      <c r="R74" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -5553,8 +6066,14 @@
       <c r="M75" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75" t="s">
+        <v>741</v>
+      </c>
+      <c r="R75" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -5582,8 +6101,14 @@
       <c r="M76" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q76" t="s">
+        <v>741</v>
+      </c>
+      <c r="R76" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -5605,8 +6130,14 @@
       <c r="M77" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q77" t="s">
+        <v>741</v>
+      </c>
+      <c r="R77" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -5628,8 +6159,14 @@
       <c r="M78" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q78" t="s">
+        <v>741</v>
+      </c>
+      <c r="R78" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>125</v>
       </c>
@@ -5657,8 +6194,14 @@
       <c r="M79" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79" t="s">
+        <v>741</v>
+      </c>
+      <c r="R79" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>126</v>
       </c>
@@ -5680,8 +6223,14 @@
       <c r="M80" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80" t="s">
+        <v>741</v>
+      </c>
+      <c r="R80" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>127</v>
       </c>
@@ -5709,8 +6258,14 @@
       <c r="M81" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81" t="s">
+        <v>741</v>
+      </c>
+      <c r="R81" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>128</v>
       </c>
@@ -5738,8 +6293,14 @@
       <c r="M82" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82" t="s">
+        <v>741</v>
+      </c>
+      <c r="R82" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
         <v>129</v>
       </c>
@@ -5758,8 +6319,14 @@
       <c r="M83" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83" t="s">
+        <v>741</v>
+      </c>
+      <c r="R83" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>130</v>
       </c>
@@ -5784,8 +6351,14 @@
       <c r="M84" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" t="s">
+        <v>741</v>
+      </c>
+      <c r="R84" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>131</v>
       </c>
@@ -5807,8 +6380,14 @@
       <c r="M85" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85" t="s">
+        <v>741</v>
+      </c>
+      <c r="R85" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>132</v>
       </c>
@@ -5833,8 +6412,14 @@
       <c r="M86" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86" t="s">
+        <v>741</v>
+      </c>
+      <c r="R86" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>133</v>
       </c>
@@ -5856,8 +6441,14 @@
       <c r="M87" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" t="s">
+        <v>741</v>
+      </c>
+      <c r="R87" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -5885,8 +6476,14 @@
       <c r="P88" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" t="s">
+        <v>741</v>
+      </c>
+      <c r="R88" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -5911,8 +6508,14 @@
       <c r="P89" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89" t="s">
+        <v>741</v>
+      </c>
+      <c r="R89" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -5940,8 +6543,14 @@
       <c r="P90" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q90" t="s">
+        <v>741</v>
+      </c>
+      <c r="R90" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -5972,8 +6581,14 @@
       <c r="P91" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q91" t="s">
+        <v>741</v>
+      </c>
+      <c r="R91" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>138</v>
       </c>
@@ -6001,8 +6616,14 @@
       <c r="P92" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q92" t="s">
+        <v>741</v>
+      </c>
+      <c r="R92" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -6030,8 +6651,14 @@
       <c r="P93" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q93" t="s">
+        <v>741</v>
+      </c>
+      <c r="R93" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -6059,8 +6686,14 @@
       <c r="P94" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q94" t="s">
+        <v>741</v>
+      </c>
+      <c r="R94" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>141</v>
       </c>
@@ -6088,8 +6721,14 @@
       <c r="P95" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q95" t="s">
+        <v>741</v>
+      </c>
+      <c r="R95" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -6117,8 +6756,14 @@
       <c r="P96" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q96" t="s">
+        <v>741</v>
+      </c>
+      <c r="R96" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>143</v>
       </c>
@@ -6146,8 +6791,14 @@
       <c r="P97" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q97" t="s">
+        <v>741</v>
+      </c>
+      <c r="R97" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -6175,8 +6826,14 @@
       <c r="P98" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q98" t="s">
+        <v>741</v>
+      </c>
+      <c r="R98" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -6204,8 +6861,14 @@
       <c r="P99" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q99" t="s">
+        <v>741</v>
+      </c>
+      <c r="R99" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>146</v>
       </c>
@@ -6233,8 +6896,14 @@
       <c r="P100" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q100" t="s">
+        <v>741</v>
+      </c>
+      <c r="R100" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -6262,8 +6931,14 @@
       <c r="P101" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q101" t="s">
+        <v>741</v>
+      </c>
+      <c r="R101" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>148</v>
       </c>
@@ -6291,8 +6966,14 @@
       <c r="P102" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q102" t="s">
+        <v>741</v>
+      </c>
+      <c r="R102" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>149</v>
       </c>
@@ -6320,8 +7001,14 @@
       <c r="P103" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q103" t="s">
+        <v>741</v>
+      </c>
+      <c r="R103" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>150</v>
       </c>
@@ -6349,8 +7036,14 @@
       <c r="P104" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q104" t="s">
+        <v>741</v>
+      </c>
+      <c r="R104" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>151</v>
       </c>
@@ -6378,8 +7071,14 @@
       <c r="P105" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q105" t="s">
+        <v>741</v>
+      </c>
+      <c r="R105" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -6404,8 +7103,14 @@
       <c r="P106" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q106" t="s">
+        <v>741</v>
+      </c>
+      <c r="S106" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>220</v>
       </c>
@@ -6430,8 +7135,14 @@
       <c r="P107" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q107" t="s">
+        <v>741</v>
+      </c>
+      <c r="S107" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>162</v>
       </c>
@@ -6456,8 +7167,14 @@
       <c r="P108" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q108" t="s">
+        <v>741</v>
+      </c>
+      <c r="S108" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>221</v>
       </c>
@@ -6485,8 +7202,14 @@
       <c r="P109" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q109" t="s">
+        <v>741</v>
+      </c>
+      <c r="S109" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>244</v>
       </c>
@@ -6514,8 +7237,14 @@
       <c r="P110" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q110" t="s">
+        <v>741</v>
+      </c>
+      <c r="S110" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -6543,8 +7272,14 @@
       <c r="P111" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q111" t="s">
+        <v>741</v>
+      </c>
+      <c r="S111" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>176</v>
       </c>
@@ -6572,8 +7307,14 @@
       <c r="P112" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q112" t="s">
+        <v>741</v>
+      </c>
+      <c r="S112" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>279</v>
       </c>
@@ -6601,8 +7342,14 @@
       <c r="P113" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q113" t="s">
+        <v>741</v>
+      </c>
+      <c r="S113" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>214</v>
       </c>
@@ -6630,8 +7377,14 @@
       <c r="P114" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q114" t="s">
+        <v>741</v>
+      </c>
+      <c r="S114" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -6659,8 +7412,14 @@
       <c r="P115" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q115" t="s">
+        <v>741</v>
+      </c>
+      <c r="S115" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>154</v>
       </c>
@@ -6688,8 +7447,14 @@
       <c r="P116" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q116" t="s">
+        <v>741</v>
+      </c>
+      <c r="S116" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>181</v>
       </c>
@@ -6717,8 +7482,14 @@
       <c r="P117" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q117" t="s">
+        <v>741</v>
+      </c>
+      <c r="S117" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>169</v>
       </c>
@@ -6746,8 +7517,14 @@
       <c r="P118" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q118" t="s">
+        <v>741</v>
+      </c>
+      <c r="S118" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>226</v>
       </c>
@@ -6775,8 +7552,14 @@
       <c r="P119" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q119" t="s">
+        <v>741</v>
+      </c>
+      <c r="S119" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -6804,8 +7587,14 @@
       <c r="P120" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q120" t="s">
+        <v>741</v>
+      </c>
+      <c r="S120" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>264</v>
       </c>
@@ -6833,8 +7622,14 @@
       <c r="P121" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q121" t="s">
+        <v>741</v>
+      </c>
+      <c r="S121" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>248</v>
       </c>
@@ -6862,8 +7657,14 @@
       <c r="P122" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q122" t="s">
+        <v>741</v>
+      </c>
+      <c r="S122" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>281</v>
       </c>
@@ -6891,8 +7692,14 @@
       <c r="P123" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q123" t="s">
+        <v>741</v>
+      </c>
+      <c r="S123" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>275</v>
       </c>
@@ -6920,9 +7727,15 @@
       <c r="P124" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="Q124" t="s">
+        <v>741</v>
+      </c>
+      <c r="S124" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A125" s="27" t="s">
         <v>265</v>
       </c>
       <c r="B125" t="s">
@@ -6949,8 +7762,11 @@
       <c r="P125" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q125" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>161</v>
       </c>
@@ -6978,8 +7794,14 @@
       <c r="P126" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q126" t="s">
+        <v>741</v>
+      </c>
+      <c r="S126" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>165</v>
       </c>
@@ -7007,8 +7829,17 @@
       <c r="P127" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q127" t="s">
+        <v>741</v>
+      </c>
+      <c r="R127" t="s">
+        <v>747</v>
+      </c>
+      <c r="S127" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>163</v>
       </c>
@@ -7033,8 +7864,17 @@
       <c r="P128" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q128" t="s">
+        <v>741</v>
+      </c>
+      <c r="R128" t="s">
+        <v>747</v>
+      </c>
+      <c r="S128" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>183</v>
       </c>
@@ -7059,8 +7899,17 @@
       <c r="P129" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q129" t="s">
+        <v>741</v>
+      </c>
+      <c r="R129" t="s">
+        <v>747</v>
+      </c>
+      <c r="S129" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -7085,8 +7934,17 @@
       <c r="P130" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q130" t="s">
+        <v>741</v>
+      </c>
+      <c r="R130" t="s">
+        <v>747</v>
+      </c>
+      <c r="S130" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>193</v>
       </c>
@@ -7111,8 +7969,17 @@
       <c r="P131" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q131" t="s">
+        <v>741</v>
+      </c>
+      <c r="R131" t="s">
+        <v>747</v>
+      </c>
+      <c r="S131" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>174</v>
       </c>
@@ -7137,8 +8004,17 @@
       <c r="P132" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q132" t="s">
+        <v>741</v>
+      </c>
+      <c r="R132" t="s">
+        <v>747</v>
+      </c>
+      <c r="S132" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>192</v>
       </c>
@@ -7163,8 +8039,17 @@
       <c r="P133" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q133" t="s">
+        <v>741</v>
+      </c>
+      <c r="R133" t="s">
+        <v>747</v>
+      </c>
+      <c r="S133" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>197</v>
       </c>
@@ -7189,8 +8074,17 @@
       <c r="P134" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q134" t="s">
+        <v>741</v>
+      </c>
+      <c r="R134" t="s">
+        <v>747</v>
+      </c>
+      <c r="S134" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>175</v>
       </c>
@@ -7215,8 +8109,17 @@
       <c r="P135" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q135" t="s">
+        <v>741</v>
+      </c>
+      <c r="R135" t="s">
+        <v>747</v>
+      </c>
+      <c r="S135" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>195</v>
       </c>
@@ -7241,8 +8144,17 @@
       <c r="P136" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q136" t="s">
+        <v>741</v>
+      </c>
+      <c r="R136" t="s">
+        <v>747</v>
+      </c>
+      <c r="S136" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>194</v>
       </c>
@@ -7267,8 +8179,17 @@
       <c r="P137" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q137" t="s">
+        <v>741</v>
+      </c>
+      <c r="R137" t="s">
+        <v>747</v>
+      </c>
+      <c r="S137" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>207</v>
       </c>
@@ -7293,8 +8214,17 @@
       <c r="P138" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q138" t="s">
+        <v>741</v>
+      </c>
+      <c r="R138" t="s">
+        <v>747</v>
+      </c>
+      <c r="S138" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>223</v>
       </c>
@@ -7319,8 +8249,17 @@
       <c r="P139" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q139" t="s">
+        <v>741</v>
+      </c>
+      <c r="R139" t="s">
+        <v>747</v>
+      </c>
+      <c r="S139" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -7345,8 +8284,17 @@
       <c r="P140" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q140" t="s">
+        <v>741</v>
+      </c>
+      <c r="R140" t="s">
+        <v>747</v>
+      </c>
+      <c r="S140" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>224</v>
       </c>
@@ -7371,8 +8319,17 @@
       <c r="P141" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q141" t="s">
+        <v>741</v>
+      </c>
+      <c r="R141" t="s">
+        <v>747</v>
+      </c>
+      <c r="S141" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>225</v>
       </c>
@@ -7397,8 +8354,17 @@
       <c r="P142" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q142" t="s">
+        <v>741</v>
+      </c>
+      <c r="R142" t="s">
+        <v>747</v>
+      </c>
+      <c r="S142" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>164</v>
       </c>
@@ -7426,8 +8392,14 @@
       <c r="P143" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q143" t="s">
+        <v>741</v>
+      </c>
+      <c r="S143" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>159</v>
       </c>
@@ -7455,8 +8427,14 @@
       <c r="P144" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q144" t="s">
+        <v>741</v>
+      </c>
+      <c r="S144" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>198</v>
       </c>
@@ -7484,8 +8462,14 @@
       <c r="P145" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q145" t="s">
+        <v>741</v>
+      </c>
+      <c r="S145" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>199</v>
       </c>
@@ -7513,8 +8497,14 @@
       <c r="P146" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q146" t="s">
+        <v>741</v>
+      </c>
+      <c r="S146" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>256</v>
       </c>
@@ -7542,8 +8532,14 @@
       <c r="P147" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q147" t="s">
+        <v>741</v>
+      </c>
+      <c r="S147" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>249</v>
       </c>
@@ -7571,8 +8567,14 @@
       <c r="P148" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q148" t="s">
+        <v>741</v>
+      </c>
+      <c r="S148" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>200</v>
       </c>
@@ -7600,8 +8602,14 @@
       <c r="P149" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="Q149" t="s">
+        <v>741</v>
+      </c>
+      <c r="S149" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -7629,8 +8637,14 @@
       <c r="P150" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q150" t="s">
+        <v>741</v>
+      </c>
+      <c r="S150" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -7658,8 +8672,14 @@
       <c r="P151" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q151" t="s">
+        <v>741</v>
+      </c>
+      <c r="S151" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -7684,8 +8704,14 @@
       <c r="P152" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q152" t="s">
+        <v>741</v>
+      </c>
+      <c r="S152" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -7710,8 +8736,14 @@
       <c r="P153" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q153" t="s">
+        <v>741</v>
+      </c>
+      <c r="S153" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>186</v>
       </c>
@@ -7739,8 +8771,17 @@
       <c r="P154" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q154" t="s">
+        <v>741</v>
+      </c>
+      <c r="R154" t="s">
+        <v>747</v>
+      </c>
+      <c r="S154" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>219</v>
       </c>
@@ -7765,8 +8806,17 @@
       <c r="P155" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q155" t="s">
+        <v>741</v>
+      </c>
+      <c r="R155" t="s">
+        <v>747</v>
+      </c>
+      <c r="S155" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -7791,8 +8841,17 @@
       <c r="P156" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q156" t="s">
+        <v>741</v>
+      </c>
+      <c r="R156" t="s">
+        <v>747</v>
+      </c>
+      <c r="S156" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>217</v>
       </c>
@@ -7817,8 +8876,17 @@
       <c r="P157" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q157" t="s">
+        <v>741</v>
+      </c>
+      <c r="R157" t="s">
+        <v>747</v>
+      </c>
+      <c r="S157" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -7846,8 +8914,14 @@
       <c r="P158" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q158" t="s">
+        <v>741</v>
+      </c>
+      <c r="S158" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -7875,8 +8949,14 @@
       <c r="P159" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q159" t="s">
+        <v>741</v>
+      </c>
+      <c r="S159" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>203</v>
       </c>
@@ -7904,8 +8984,14 @@
       <c r="P160" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q160" t="s">
+        <v>741</v>
+      </c>
+      <c r="S160" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>234</v>
       </c>
@@ -7933,8 +9019,14 @@
       <c r="P161" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q161" t="s">
+        <v>741</v>
+      </c>
+      <c r="S161" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -7962,8 +9054,14 @@
       <c r="P162" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q162" t="s">
+        <v>741</v>
+      </c>
+      <c r="S162" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>267</v>
       </c>
@@ -7991,8 +9089,14 @@
       <c r="P163" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q163" t="s">
+        <v>741</v>
+      </c>
+      <c r="S163" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -8020,9 +9124,15 @@
       <c r="P164" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="Q164" t="s">
+        <v>741</v>
+      </c>
+      <c r="S164" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A165" s="27" t="s">
         <v>212</v>
       </c>
       <c r="B165" t="s">
@@ -8049,8 +9159,11 @@
       <c r="P165" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q165" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>210</v>
       </c>
@@ -8078,8 +9191,14 @@
       <c r="P166" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q166" t="s">
+        <v>741</v>
+      </c>
+      <c r="S166" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>222</v>
       </c>
@@ -8107,8 +9226,14 @@
       <c r="P167" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q167" t="s">
+        <v>741</v>
+      </c>
+      <c r="S167" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>211</v>
       </c>
@@ -8136,8 +9261,14 @@
       <c r="P168" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q168" t="s">
+        <v>741</v>
+      </c>
+      <c r="S168" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>235</v>
       </c>
@@ -8165,8 +9296,14 @@
       <c r="P169" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q169" t="s">
+        <v>741</v>
+      </c>
+      <c r="S169" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>258</v>
       </c>
@@ -8194,8 +9331,14 @@
       <c r="P170" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q170" t="s">
+        <v>741</v>
+      </c>
+      <c r="S170" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>178</v>
       </c>
@@ -8223,8 +9366,14 @@
       <c r="P171" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q171" t="s">
+        <v>741</v>
+      </c>
+      <c r="S171" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>152</v>
       </c>
@@ -8252,8 +9401,17 @@
       <c r="P172" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q172" t="s">
+        <v>741</v>
+      </c>
+      <c r="R172" t="s">
+        <v>747</v>
+      </c>
+      <c r="S172" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>156</v>
       </c>
@@ -8278,8 +9436,17 @@
       <c r="P173" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q173" t="s">
+        <v>741</v>
+      </c>
+      <c r="R173" t="s">
+        <v>747</v>
+      </c>
+      <c r="S173" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>237</v>
       </c>
@@ -8304,8 +9471,17 @@
       <c r="P174" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q174" t="s">
+        <v>741</v>
+      </c>
+      <c r="R174" t="s">
+        <v>747</v>
+      </c>
+      <c r="S174" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>158</v>
       </c>
@@ -8330,8 +9506,17 @@
       <c r="P175" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q175" t="s">
+        <v>741</v>
+      </c>
+      <c r="R175" t="s">
+        <v>747</v>
+      </c>
+      <c r="S175" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>246</v>
       </c>
@@ -8356,8 +9541,17 @@
       <c r="P176" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q176" t="s">
+        <v>741</v>
+      </c>
+      <c r="R176" t="s">
+        <v>747</v>
+      </c>
+      <c r="S176" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>260</v>
       </c>
@@ -8382,8 +9576,17 @@
       <c r="P177" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q177" t="s">
+        <v>741</v>
+      </c>
+      <c r="R177" t="s">
+        <v>747</v>
+      </c>
+      <c r="S177" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>245</v>
       </c>
@@ -8408,8 +9611,17 @@
       <c r="P178" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q178" t="s">
+        <v>741</v>
+      </c>
+      <c r="R178" t="s">
+        <v>747</v>
+      </c>
+      <c r="S178" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>231</v>
       </c>
@@ -8434,8 +9646,17 @@
       <c r="P179" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q179" t="s">
+        <v>741</v>
+      </c>
+      <c r="R179" t="s">
+        <v>747</v>
+      </c>
+      <c r="S179" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>242</v>
       </c>
@@ -8460,8 +9681,17 @@
       <c r="P180" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q180" t="s">
+        <v>741</v>
+      </c>
+      <c r="R180" t="s">
+        <v>747</v>
+      </c>
+      <c r="S180" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>232</v>
       </c>
@@ -8486,8 +9716,17 @@
       <c r="P181" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q181" t="s">
+        <v>741</v>
+      </c>
+      <c r="R181" t="s">
+        <v>747</v>
+      </c>
+      <c r="S181" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>268</v>
       </c>
@@ -8512,8 +9751,17 @@
       <c r="P182" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q182" t="s">
+        <v>741</v>
+      </c>
+      <c r="R182" t="s">
+        <v>747</v>
+      </c>
+      <c r="S182" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>271</v>
       </c>
@@ -8538,8 +9786,17 @@
       <c r="P183" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q183" t="s">
+        <v>741</v>
+      </c>
+      <c r="R183" t="s">
+        <v>747</v>
+      </c>
+      <c r="S183" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>233</v>
       </c>
@@ -8564,8 +9821,17 @@
       <c r="P184" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q184" t="s">
+        <v>741</v>
+      </c>
+      <c r="R184" t="s">
+        <v>747</v>
+      </c>
+      <c r="S184" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>257</v>
       </c>
@@ -8590,8 +9856,17 @@
       <c r="P185" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q185" t="s">
+        <v>741</v>
+      </c>
+      <c r="R185" t="s">
+        <v>747</v>
+      </c>
+      <c r="S185" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>261</v>
       </c>
@@ -8616,8 +9891,17 @@
       <c r="P186" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q186" t="s">
+        <v>741</v>
+      </c>
+      <c r="R186" t="s">
+        <v>747</v>
+      </c>
+      <c r="S186" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -8642,8 +9926,17 @@
       <c r="P187" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q187" t="s">
+        <v>741</v>
+      </c>
+      <c r="R187" t="s">
+        <v>747</v>
+      </c>
+      <c r="S187" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>269</v>
       </c>
@@ -8668,8 +9961,17 @@
       <c r="P188" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q188" t="s">
+        <v>741</v>
+      </c>
+      <c r="R188" t="s">
+        <v>747</v>
+      </c>
+      <c r="S188" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>285</v>
       </c>
@@ -8694,8 +9996,17 @@
       <c r="P189" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q189" t="s">
+        <v>741</v>
+      </c>
+      <c r="R189" t="s">
+        <v>747</v>
+      </c>
+      <c r="S189" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>263</v>
       </c>
@@ -8720,8 +10031,17 @@
       <c r="P190" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q190" t="s">
+        <v>741</v>
+      </c>
+      <c r="R190" t="s">
+        <v>747</v>
+      </c>
+      <c r="S190" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>215</v>
       </c>
@@ -8746,8 +10066,17 @@
       <c r="P191" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q191" t="s">
+        <v>741</v>
+      </c>
+      <c r="R191" t="s">
+        <v>747</v>
+      </c>
+      <c r="S191" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>218</v>
       </c>
@@ -8772,8 +10101,17 @@
       <c r="P192" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q192" t="s">
+        <v>741</v>
+      </c>
+      <c r="R192" t="s">
+        <v>747</v>
+      </c>
+      <c r="S192" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>251</v>
       </c>
@@ -8798,8 +10136,17 @@
       <c r="P193" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q193" t="s">
+        <v>741</v>
+      </c>
+      <c r="R193" t="s">
+        <v>747</v>
+      </c>
+      <c r="S193" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>250</v>
       </c>
@@ -8824,8 +10171,17 @@
       <c r="P194" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q194" t="s">
+        <v>741</v>
+      </c>
+      <c r="R194" t="s">
+        <v>747</v>
+      </c>
+      <c r="S194" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>266</v>
       </c>
@@ -8850,8 +10206,17 @@
       <c r="P195" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q195" t="s">
+        <v>741</v>
+      </c>
+      <c r="R195" t="s">
+        <v>747</v>
+      </c>
+      <c r="S195" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>272</v>
       </c>
@@ -8876,8 +10241,17 @@
       <c r="P196" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q196" t="s">
+        <v>741</v>
+      </c>
+      <c r="R196" t="s">
+        <v>747</v>
+      </c>
+      <c r="S196" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>278</v>
       </c>
@@ -8902,8 +10276,17 @@
       <c r="P197" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q197" t="s">
+        <v>741</v>
+      </c>
+      <c r="R197" t="s">
+        <v>747</v>
+      </c>
+      <c r="S197" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>270</v>
       </c>
@@ -8928,8 +10311,17 @@
       <c r="P198" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q198" t="s">
+        <v>741</v>
+      </c>
+      <c r="R198" t="s">
+        <v>747</v>
+      </c>
+      <c r="S198" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>252</v>
       </c>
@@ -8954,8 +10346,17 @@
       <c r="P199" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q199" t="s">
+        <v>741</v>
+      </c>
+      <c r="R199" t="s">
+        <v>747</v>
+      </c>
+      <c r="S199" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>213</v>
       </c>
@@ -8980,1088 +10381,1391 @@
       <c r="P200" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q200" t="s">
+        <v>741</v>
+      </c>
+      <c r="R200" t="s">
+        <v>747</v>
+      </c>
+      <c r="S200" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>743</v>
+      </c>
+      <c r="B201" t="s">
+        <v>744</v>
+      </c>
+      <c r="G201" s="9"/>
+      <c r="R201" t="s">
+        <v>747</v>
+      </c>
+      <c r="S201" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>277</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>638</v>
       </c>
-      <c r="E201" t="s">
-        <v>4</v>
-      </c>
-      <c r="F201" t="s">
-        <v>292</v>
-      </c>
-      <c r="H201" t="s">
-        <v>20</v>
-      </c>
-      <c r="I201" t="s">
-        <v>113</v>
-      </c>
-      <c r="M201" t="s">
-        <v>57</v>
-      </c>
-      <c r="P201" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="E202" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" t="s">
+        <v>292</v>
+      </c>
+      <c r="H202" t="s">
+        <v>20</v>
+      </c>
+      <c r="I202" t="s">
+        <v>113</v>
+      </c>
+      <c r="M202" t="s">
+        <v>57</v>
+      </c>
+      <c r="P202" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>741</v>
+      </c>
+      <c r="R202" t="s">
+        <v>747</v>
+      </c>
+      <c r="S202" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>180</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>543</v>
       </c>
-      <c r="E202" t="s">
-        <v>4</v>
-      </c>
-      <c r="F202" t="s">
-        <v>292</v>
-      </c>
-      <c r="H202" t="s">
-        <v>20</v>
-      </c>
-      <c r="I202" t="s">
-        <v>113</v>
-      </c>
-      <c r="M202" t="s">
-        <v>57</v>
-      </c>
-      <c r="P202" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+      <c r="E203" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" t="s">
+        <v>292</v>
+      </c>
+      <c r="H203" t="s">
+        <v>20</v>
+      </c>
+      <c r="I203" t="s">
+        <v>113</v>
+      </c>
+      <c r="M203" t="s">
+        <v>57</v>
+      </c>
+      <c r="P203" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>741</v>
+      </c>
+      <c r="R203" t="s">
+        <v>747</v>
+      </c>
+      <c r="S203" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>189</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>552</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" t="s">
         <v>690</v>
       </c>
-      <c r="E203" t="s">
-        <v>4</v>
-      </c>
-      <c r="F203" t="s">
-        <v>292</v>
-      </c>
-      <c r="H203" t="s">
-        <v>20</v>
-      </c>
-      <c r="I203" t="s">
-        <v>113</v>
-      </c>
-      <c r="M203" t="s">
-        <v>57</v>
-      </c>
-      <c r="P203" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+      <c r="E204" t="s">
+        <v>4</v>
+      </c>
+      <c r="F204" t="s">
+        <v>292</v>
+      </c>
+      <c r="H204" t="s">
+        <v>20</v>
+      </c>
+      <c r="I204" t="s">
+        <v>113</v>
+      </c>
+      <c r="M204" t="s">
+        <v>57</v>
+      </c>
+      <c r="P204" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>741</v>
+      </c>
+      <c r="S204" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>240</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>603</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
         <v>691</v>
       </c>
-      <c r="E204" t="s">
-        <v>4</v>
-      </c>
-      <c r="F204" t="s">
-        <v>292</v>
-      </c>
-      <c r="H204" t="s">
-        <v>20</v>
-      </c>
-      <c r="I204" t="s">
-        <v>113</v>
-      </c>
-      <c r="M204" t="s">
-        <v>57</v>
-      </c>
-      <c r="P204" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="E205" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" t="s">
+        <v>292</v>
+      </c>
+      <c r="H205" t="s">
+        <v>20</v>
+      </c>
+      <c r="I205" t="s">
+        <v>113</v>
+      </c>
+      <c r="M205" t="s">
+        <v>57</v>
+      </c>
+      <c r="P205" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>741</v>
+      </c>
+      <c r="S205" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>239</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>602</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C206" t="s">
         <v>692</v>
       </c>
-      <c r="E205" t="s">
-        <v>4</v>
-      </c>
-      <c r="F205" t="s">
-        <v>292</v>
-      </c>
-      <c r="H205" t="s">
-        <v>20</v>
-      </c>
-      <c r="I205" t="s">
-        <v>113</v>
-      </c>
-      <c r="M205" t="s">
-        <v>57</v>
-      </c>
-      <c r="P205" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="E206" t="s">
+        <v>4</v>
+      </c>
+      <c r="F206" t="s">
+        <v>292</v>
+      </c>
+      <c r="H206" t="s">
+        <v>20</v>
+      </c>
+      <c r="I206" t="s">
+        <v>113</v>
+      </c>
+      <c r="M206" t="s">
+        <v>57</v>
+      </c>
+      <c r="P206" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>741</v>
+      </c>
+      <c r="S206" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>179</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>542</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>693</v>
       </c>
-      <c r="E206" t="s">
-        <v>4</v>
-      </c>
-      <c r="F206" t="s">
-        <v>292</v>
-      </c>
-      <c r="H206" t="s">
-        <v>20</v>
-      </c>
-      <c r="I206" t="s">
-        <v>113</v>
-      </c>
-      <c r="M206" t="s">
-        <v>57</v>
-      </c>
-      <c r="P206" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="E207" t="s">
+        <v>4</v>
+      </c>
+      <c r="F207" t="s">
+        <v>292</v>
+      </c>
+      <c r="H207" t="s">
+        <v>20</v>
+      </c>
+      <c r="I207" t="s">
+        <v>113</v>
+      </c>
+      <c r="M207" t="s">
+        <v>57</v>
+      </c>
+      <c r="P207" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>741</v>
+      </c>
+      <c r="S207" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>274</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>694</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C208" t="s">
         <v>695</v>
       </c>
-      <c r="E207" t="s">
-        <v>4</v>
-      </c>
-      <c r="F207" t="s">
-        <v>292</v>
-      </c>
-      <c r="H207" t="s">
-        <v>20</v>
-      </c>
-      <c r="I207" t="s">
-        <v>113</v>
-      </c>
-      <c r="M207" t="s">
-        <v>57</v>
-      </c>
-      <c r="P207" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="E208" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" t="s">
+        <v>292</v>
+      </c>
+      <c r="H208" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208" t="s">
+        <v>113</v>
+      </c>
+      <c r="M208" t="s">
+        <v>57</v>
+      </c>
+      <c r="P208" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>741</v>
+      </c>
+      <c r="S208" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>259</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>621</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
         <v>696</v>
       </c>
-      <c r="E208" t="s">
-        <v>4</v>
-      </c>
-      <c r="F208" t="s">
-        <v>292</v>
-      </c>
-      <c r="H208" t="s">
-        <v>20</v>
-      </c>
-      <c r="I208" t="s">
-        <v>113</v>
-      </c>
-      <c r="M208" t="s">
-        <v>57</v>
-      </c>
-      <c r="P208" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+      <c r="E209" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" t="s">
+        <v>292</v>
+      </c>
+      <c r="H209" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209" t="s">
+        <v>113</v>
+      </c>
+      <c r="M209" t="s">
+        <v>57</v>
+      </c>
+      <c r="P209" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>741</v>
+      </c>
+      <c r="S209" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>282</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>642</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C210" t="s">
         <v>697</v>
       </c>
-      <c r="E209" t="s">
-        <v>4</v>
-      </c>
-      <c r="F209" t="s">
-        <v>292</v>
-      </c>
-      <c r="H209" t="s">
-        <v>20</v>
-      </c>
-      <c r="I209" t="s">
-        <v>113</v>
-      </c>
-      <c r="M209" t="s">
-        <v>57</v>
-      </c>
-      <c r="P209" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+      <c r="E210" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" t="s">
+        <v>292</v>
+      </c>
+      <c r="H210" t="s">
+        <v>20</v>
+      </c>
+      <c r="I210" t="s">
+        <v>113</v>
+      </c>
+      <c r="M210" t="s">
+        <v>57</v>
+      </c>
+      <c r="P210" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>741</v>
+      </c>
+      <c r="S210" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>236</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>599</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>698</v>
       </c>
-      <c r="E210" t="s">
-        <v>4</v>
-      </c>
-      <c r="F210" t="s">
-        <v>292</v>
-      </c>
-      <c r="H210" t="s">
-        <v>20</v>
-      </c>
-      <c r="I210" t="s">
-        <v>113</v>
-      </c>
-      <c r="M210" t="s">
-        <v>57</v>
-      </c>
-      <c r="P210" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="E211" t="s">
+        <v>4</v>
+      </c>
+      <c r="F211" t="s">
+        <v>292</v>
+      </c>
+      <c r="H211" t="s">
+        <v>20</v>
+      </c>
+      <c r="I211" t="s">
+        <v>113</v>
+      </c>
+      <c r="M211" t="s">
+        <v>57</v>
+      </c>
+      <c r="P211" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>741</v>
+      </c>
+      <c r="S211" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>255</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>618</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>699</v>
       </c>
-      <c r="E211" t="s">
-        <v>4</v>
-      </c>
-      <c r="F211" t="s">
-        <v>292</v>
-      </c>
-      <c r="H211" t="s">
-        <v>20</v>
-      </c>
-      <c r="I211" t="s">
-        <v>113</v>
-      </c>
-      <c r="M211" t="s">
-        <v>57</v>
-      </c>
-      <c r="P211" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="E212" t="s">
+        <v>4</v>
+      </c>
+      <c r="F212" t="s">
+        <v>292</v>
+      </c>
+      <c r="H212" t="s">
+        <v>20</v>
+      </c>
+      <c r="I212" t="s">
+        <v>113</v>
+      </c>
+      <c r="M212" t="s">
+        <v>57</v>
+      </c>
+      <c r="P212" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>741</v>
+      </c>
+      <c r="S212" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A213" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>553</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>700</v>
       </c>
-      <c r="E212" t="s">
-        <v>4</v>
-      </c>
-      <c r="F212" t="s">
-        <v>292</v>
-      </c>
-      <c r="H212" t="s">
-        <v>20</v>
-      </c>
-      <c r="I212" t="s">
-        <v>113</v>
-      </c>
-      <c r="M212" t="s">
-        <v>57</v>
-      </c>
-      <c r="P212" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+      <c r="E213" t="s">
+        <v>4</v>
+      </c>
+      <c r="F213" t="s">
+        <v>292</v>
+      </c>
+      <c r="H213" t="s">
+        <v>20</v>
+      </c>
+      <c r="I213" t="s">
+        <v>113</v>
+      </c>
+      <c r="M213" t="s">
+        <v>57</v>
+      </c>
+      <c r="P213" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>280</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>701</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C214" t="s">
         <v>702</v>
       </c>
-      <c r="E213" t="s">
-        <v>4</v>
-      </c>
-      <c r="F213" t="s">
-        <v>292</v>
-      </c>
-      <c r="H213" t="s">
-        <v>20</v>
-      </c>
-      <c r="I213" t="s">
-        <v>113</v>
-      </c>
-      <c r="M213" t="s">
-        <v>57</v>
-      </c>
-      <c r="P213" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="E214" t="s">
+        <v>4</v>
+      </c>
+      <c r="F214" t="s">
+        <v>292</v>
+      </c>
+      <c r="H214" t="s">
+        <v>20</v>
+      </c>
+      <c r="I214" t="s">
+        <v>113</v>
+      </c>
+      <c r="M214" t="s">
+        <v>57</v>
+      </c>
+      <c r="P214" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>741</v>
+      </c>
+      <c r="S214" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>284</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>704</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>703</v>
       </c>
-      <c r="E214" t="s">
-        <v>4</v>
-      </c>
-      <c r="F214" t="s">
-        <v>292</v>
-      </c>
-      <c r="H214" t="s">
-        <v>20</v>
-      </c>
-      <c r="I214" t="s">
-        <v>113</v>
-      </c>
-      <c r="M214" t="s">
-        <v>57</v>
-      </c>
-      <c r="P214" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="E215" t="s">
+        <v>4</v>
+      </c>
+      <c r="F215" t="s">
+        <v>292</v>
+      </c>
+      <c r="H215" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215" t="s">
+        <v>113</v>
+      </c>
+      <c r="M215" t="s">
+        <v>57</v>
+      </c>
+      <c r="P215" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>741</v>
+      </c>
+      <c r="S215" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>253</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>616</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C216" t="s">
         <v>705</v>
       </c>
-      <c r="E215" t="s">
-        <v>4</v>
-      </c>
-      <c r="F215" t="s">
-        <v>292</v>
-      </c>
-      <c r="H215" t="s">
-        <v>20</v>
-      </c>
-      <c r="I215" t="s">
-        <v>113</v>
-      </c>
-      <c r="M215" t="s">
-        <v>57</v>
-      </c>
-      <c r="P215" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="E216" t="s">
+        <v>4</v>
+      </c>
+      <c r="F216" t="s">
+        <v>292</v>
+      </c>
+      <c r="H216" t="s">
+        <v>20</v>
+      </c>
+      <c r="I216" t="s">
+        <v>113</v>
+      </c>
+      <c r="M216" t="s">
+        <v>57</v>
+      </c>
+      <c r="P216" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>741</v>
+      </c>
+      <c r="S216" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>167</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>530</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C217" t="s">
         <v>706</v>
       </c>
-      <c r="E216" t="s">
-        <v>4</v>
-      </c>
-      <c r="F216" t="s">
-        <v>292</v>
-      </c>
-      <c r="H216" t="s">
-        <v>20</v>
-      </c>
-      <c r="I216" t="s">
-        <v>113</v>
-      </c>
-      <c r="M216" t="s">
-        <v>57</v>
-      </c>
-      <c r="P216" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="E217" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" t="s">
+        <v>292</v>
+      </c>
+      <c r="H217" t="s">
+        <v>20</v>
+      </c>
+      <c r="I217" t="s">
+        <v>113</v>
+      </c>
+      <c r="M217" t="s">
+        <v>57</v>
+      </c>
+      <c r="P217" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>741</v>
+      </c>
+      <c r="S217" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>254</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" t="s">
         <v>617</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C218" t="s">
         <v>707</v>
       </c>
-      <c r="E217" t="s">
-        <v>4</v>
-      </c>
-      <c r="F217" t="s">
-        <v>292</v>
-      </c>
-      <c r="H217" t="s">
-        <v>20</v>
-      </c>
-      <c r="I217" t="s">
-        <v>113</v>
-      </c>
-      <c r="M217" t="s">
-        <v>57</v>
-      </c>
-      <c r="P217" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+      <c r="E218" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" t="s">
+        <v>292</v>
+      </c>
+      <c r="H218" t="s">
+        <v>20</v>
+      </c>
+      <c r="I218" t="s">
+        <v>113</v>
+      </c>
+      <c r="M218" t="s">
+        <v>57</v>
+      </c>
+      <c r="P218" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>741</v>
+      </c>
+      <c r="S218" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>196</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>559</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C219" t="s">
         <v>708</v>
       </c>
-      <c r="E218" t="s">
-        <v>4</v>
-      </c>
-      <c r="F218" t="s">
-        <v>292</v>
-      </c>
-      <c r="H218" t="s">
-        <v>20</v>
-      </c>
-      <c r="I218" t="s">
-        <v>113</v>
-      </c>
-      <c r="M218" t="s">
-        <v>57</v>
-      </c>
-      <c r="P218" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+      <c r="E219" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" t="s">
+        <v>292</v>
+      </c>
+      <c r="H219" t="s">
+        <v>20</v>
+      </c>
+      <c r="I219" t="s">
+        <v>113</v>
+      </c>
+      <c r="M219" t="s">
+        <v>57</v>
+      </c>
+      <c r="P219" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>741</v>
+      </c>
+      <c r="S219" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>273</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" t="s">
         <v>635</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C220" t="s">
         <v>709</v>
       </c>
-      <c r="E219" t="s">
-        <v>4</v>
-      </c>
-      <c r="F219" t="s">
-        <v>292</v>
-      </c>
-      <c r="H219" t="s">
-        <v>20</v>
-      </c>
-      <c r="I219" t="s">
-        <v>113</v>
-      </c>
-      <c r="M219" t="s">
-        <v>57</v>
-      </c>
-      <c r="P219" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="E220" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" t="s">
+        <v>292</v>
+      </c>
+      <c r="H220" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" t="s">
+        <v>113</v>
+      </c>
+      <c r="M220" t="s">
+        <v>57</v>
+      </c>
+      <c r="P220" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>741</v>
+      </c>
+      <c r="S220" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>188</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>551</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>710</v>
       </c>
-      <c r="E220" t="s">
-        <v>4</v>
-      </c>
-      <c r="F220" t="s">
-        <v>292</v>
-      </c>
-      <c r="H220" t="s">
-        <v>20</v>
-      </c>
-      <c r="I220" t="s">
-        <v>113</v>
-      </c>
-      <c r="M220" t="s">
-        <v>57</v>
-      </c>
-      <c r="P220" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="E221" t="s">
+        <v>4</v>
+      </c>
+      <c r="F221" t="s">
+        <v>292</v>
+      </c>
+      <c r="H221" t="s">
+        <v>20</v>
+      </c>
+      <c r="I221" t="s">
+        <v>113</v>
+      </c>
+      <c r="M221" t="s">
+        <v>57</v>
+      </c>
+      <c r="P221" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>741</v>
+      </c>
+      <c r="S221" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>168</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>531</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C222" t="s">
         <v>711</v>
       </c>
-      <c r="E221" t="s">
-        <v>4</v>
-      </c>
-      <c r="F221" t="s">
-        <v>292</v>
-      </c>
-      <c r="H221" t="s">
-        <v>20</v>
-      </c>
-      <c r="I221" t="s">
-        <v>113</v>
-      </c>
-      <c r="M221" t="s">
-        <v>57</v>
-      </c>
-      <c r="P221" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+      <c r="E222" t="s">
+        <v>4</v>
+      </c>
+      <c r="F222" t="s">
+        <v>292</v>
+      </c>
+      <c r="H222" t="s">
+        <v>20</v>
+      </c>
+      <c r="I222" t="s">
+        <v>113</v>
+      </c>
+      <c r="M222" t="s">
+        <v>57</v>
+      </c>
+      <c r="P222" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>741</v>
+      </c>
+      <c r="S222" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>171</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>534</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C223" t="s">
         <v>712</v>
       </c>
-      <c r="E222" t="s">
-        <v>4</v>
-      </c>
-      <c r="F222" t="s">
-        <v>292</v>
-      </c>
-      <c r="H222" t="s">
-        <v>20</v>
-      </c>
-      <c r="I222" t="s">
-        <v>113</v>
-      </c>
-      <c r="M222" t="s">
-        <v>57</v>
-      </c>
-      <c r="P222" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+      <c r="E223" t="s">
+        <v>4</v>
+      </c>
+      <c r="F223" t="s">
+        <v>292</v>
+      </c>
+      <c r="H223" t="s">
+        <v>20</v>
+      </c>
+      <c r="I223" t="s">
+        <v>113</v>
+      </c>
+      <c r="M223" t="s">
+        <v>57</v>
+      </c>
+      <c r="P223" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>741</v>
+      </c>
+      <c r="R223" t="s">
+        <v>747</v>
+      </c>
+      <c r="S223" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>185</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>548</v>
       </c>
-      <c r="E223" t="s">
-        <v>4</v>
-      </c>
-      <c r="F223" t="s">
-        <v>292</v>
-      </c>
-      <c r="H223" t="s">
-        <v>20</v>
-      </c>
-      <c r="I223" t="s">
-        <v>113</v>
-      </c>
-      <c r="M223" t="s">
-        <v>57</v>
-      </c>
-      <c r="P223" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="E224" t="s">
+        <v>4</v>
+      </c>
+      <c r="F224" t="s">
+        <v>292</v>
+      </c>
+      <c r="H224" t="s">
+        <v>20</v>
+      </c>
+      <c r="I224" t="s">
+        <v>113</v>
+      </c>
+      <c r="M224" t="s">
+        <v>57</v>
+      </c>
+      <c r="P224" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>741</v>
+      </c>
+      <c r="R224" t="s">
+        <v>747</v>
+      </c>
+      <c r="S224" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>182</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>545</v>
       </c>
-      <c r="E224" t="s">
-        <v>4</v>
-      </c>
-      <c r="F224" t="s">
-        <v>292</v>
-      </c>
-      <c r="H224" t="s">
-        <v>20</v>
-      </c>
-      <c r="I224" t="s">
-        <v>113</v>
-      </c>
-      <c r="M224" t="s">
-        <v>57</v>
-      </c>
-      <c r="P224" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="E225" t="s">
+        <v>4</v>
+      </c>
+      <c r="F225" t="s">
+        <v>292</v>
+      </c>
+      <c r="H225" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225" t="s">
+        <v>113</v>
+      </c>
+      <c r="M225" t="s">
+        <v>57</v>
+      </c>
+      <c r="P225" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>741</v>
+      </c>
+      <c r="R225" t="s">
+        <v>747</v>
+      </c>
+      <c r="S225" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>177</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>540</v>
       </c>
-      <c r="E225" t="s">
-        <v>4</v>
-      </c>
-      <c r="F225" t="s">
-        <v>292</v>
-      </c>
-      <c r="H225" t="s">
-        <v>20</v>
-      </c>
-      <c r="I225" t="s">
-        <v>113</v>
-      </c>
-      <c r="M225" t="s">
-        <v>57</v>
-      </c>
-      <c r="P225" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="E226" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" t="s">
+        <v>292</v>
+      </c>
+      <c r="H226" t="s">
+        <v>20</v>
+      </c>
+      <c r="I226" t="s">
+        <v>113</v>
+      </c>
+      <c r="M226" t="s">
+        <v>57</v>
+      </c>
+      <c r="P226" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>741</v>
+      </c>
+      <c r="R226" t="s">
+        <v>747</v>
+      </c>
+      <c r="S226" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>201</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>564</v>
       </c>
-      <c r="E226" t="s">
-        <v>4</v>
-      </c>
-      <c r="F226" t="s">
-        <v>292</v>
-      </c>
-      <c r="H226" t="s">
-        <v>20</v>
-      </c>
-      <c r="I226" t="s">
-        <v>113</v>
-      </c>
-      <c r="M226" t="s">
-        <v>57</v>
-      </c>
-      <c r="P226" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+      <c r="E227" t="s">
+        <v>4</v>
+      </c>
+      <c r="F227" t="s">
+        <v>292</v>
+      </c>
+      <c r="H227" t="s">
+        <v>20</v>
+      </c>
+      <c r="I227" t="s">
+        <v>113</v>
+      </c>
+      <c r="M227" t="s">
+        <v>57</v>
+      </c>
+      <c r="P227" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>741</v>
+      </c>
+      <c r="R227" t="s">
+        <v>747</v>
+      </c>
+      <c r="S227" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>205</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>568</v>
       </c>
-      <c r="E227" t="s">
-        <v>4</v>
-      </c>
-      <c r="F227" t="s">
-        <v>292</v>
-      </c>
-      <c r="H227" t="s">
-        <v>20</v>
-      </c>
-      <c r="I227" t="s">
-        <v>113</v>
-      </c>
-      <c r="M227" t="s">
-        <v>57</v>
-      </c>
-      <c r="P227" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+      <c r="E228" t="s">
+        <v>4</v>
+      </c>
+      <c r="F228" t="s">
+        <v>292</v>
+      </c>
+      <c r="H228" t="s">
+        <v>20</v>
+      </c>
+      <c r="I228" t="s">
+        <v>113</v>
+      </c>
+      <c r="M228" t="s">
+        <v>57</v>
+      </c>
+      <c r="P228" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>741</v>
+      </c>
+      <c r="R228" t="s">
+        <v>747</v>
+      </c>
+      <c r="S228" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>204</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>567</v>
       </c>
-      <c r="E228" t="s">
-        <v>4</v>
-      </c>
-      <c r="F228" t="s">
-        <v>292</v>
-      </c>
-      <c r="H228" t="s">
-        <v>20</v>
-      </c>
-      <c r="I228" t="s">
-        <v>113</v>
-      </c>
-      <c r="M228" t="s">
-        <v>57</v>
-      </c>
-      <c r="P228" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+      <c r="E229" t="s">
+        <v>4</v>
+      </c>
+      <c r="F229" t="s">
+        <v>292</v>
+      </c>
+      <c r="H229" t="s">
+        <v>20</v>
+      </c>
+      <c r="I229" t="s">
+        <v>113</v>
+      </c>
+      <c r="M229" t="s">
+        <v>57</v>
+      </c>
+      <c r="P229" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>741</v>
+      </c>
+      <c r="R229" t="s">
+        <v>747</v>
+      </c>
+      <c r="S229" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>208</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
         <v>571</v>
       </c>
-      <c r="E229" t="s">
-        <v>4</v>
-      </c>
-      <c r="F229" t="s">
-        <v>292</v>
-      </c>
-      <c r="H229" t="s">
-        <v>20</v>
-      </c>
-      <c r="I229" t="s">
-        <v>113</v>
-      </c>
-      <c r="M229" t="s">
-        <v>57</v>
-      </c>
-      <c r="P229" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+      <c r="E230" t="s">
+        <v>4</v>
+      </c>
+      <c r="F230" t="s">
+        <v>292</v>
+      </c>
+      <c r="H230" t="s">
+        <v>20</v>
+      </c>
+      <c r="I230" t="s">
+        <v>113</v>
+      </c>
+      <c r="M230" t="s">
+        <v>57</v>
+      </c>
+      <c r="P230" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>741</v>
+      </c>
+      <c r="R230" t="s">
+        <v>747</v>
+      </c>
+      <c r="S230" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>241</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>604</v>
       </c>
-      <c r="E230" t="s">
-        <v>4</v>
-      </c>
-      <c r="F230" t="s">
-        <v>292</v>
-      </c>
-      <c r="H230" t="s">
-        <v>20</v>
-      </c>
-      <c r="I230" t="s">
-        <v>113</v>
-      </c>
-      <c r="M230" t="s">
-        <v>57</v>
-      </c>
-      <c r="P230" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+      <c r="E231" t="s">
+        <v>4</v>
+      </c>
+      <c r="F231" t="s">
+        <v>292</v>
+      </c>
+      <c r="H231" t="s">
+        <v>20</v>
+      </c>
+      <c r="I231" t="s">
+        <v>113</v>
+      </c>
+      <c r="M231" t="s">
+        <v>57</v>
+      </c>
+      <c r="P231" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>741</v>
+      </c>
+      <c r="R231" t="s">
+        <v>747</v>
+      </c>
+      <c r="S231" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>228</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>591</v>
       </c>
-      <c r="E231" t="s">
-        <v>4</v>
-      </c>
-      <c r="F231" t="s">
-        <v>292</v>
-      </c>
-      <c r="H231" t="s">
-        <v>20</v>
-      </c>
-      <c r="I231" t="s">
-        <v>113</v>
-      </c>
-      <c r="M231" t="s">
-        <v>57</v>
-      </c>
-      <c r="P231" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="E232" t="s">
+        <v>4</v>
+      </c>
+      <c r="F232" t="s">
+        <v>292</v>
+      </c>
+      <c r="H232" t="s">
+        <v>20</v>
+      </c>
+      <c r="I232" t="s">
+        <v>113</v>
+      </c>
+      <c r="M232" t="s">
+        <v>57</v>
+      </c>
+      <c r="P232" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>741</v>
+      </c>
+      <c r="R232" t="s">
+        <v>747</v>
+      </c>
+      <c r="S232" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>227</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>590</v>
       </c>
-      <c r="E232" t="s">
-        <v>4</v>
-      </c>
-      <c r="F232" t="s">
-        <v>292</v>
-      </c>
-      <c r="H232" t="s">
-        <v>20</v>
-      </c>
-      <c r="I232" t="s">
-        <v>113</v>
-      </c>
-      <c r="M232" t="s">
-        <v>57</v>
-      </c>
-      <c r="P232" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+      <c r="E233" t="s">
+        <v>4</v>
+      </c>
+      <c r="F233" t="s">
+        <v>292</v>
+      </c>
+      <c r="H233" t="s">
+        <v>20</v>
+      </c>
+      <c r="I233" t="s">
+        <v>113</v>
+      </c>
+      <c r="M233" t="s">
+        <v>57</v>
+      </c>
+      <c r="P233" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>741</v>
+      </c>
+      <c r="R233" t="s">
+        <v>747</v>
+      </c>
+      <c r="S233" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>230</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>593</v>
       </c>
-      <c r="E233" t="s">
-        <v>4</v>
-      </c>
-      <c r="F233" t="s">
-        <v>292</v>
-      </c>
-      <c r="H233" t="s">
-        <v>20</v>
-      </c>
-      <c r="I233" t="s">
-        <v>113</v>
-      </c>
-      <c r="M233" t="s">
-        <v>57</v>
-      </c>
-      <c r="P233" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="E234" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" t="s">
+        <v>292</v>
+      </c>
+      <c r="H234" t="s">
+        <v>20</v>
+      </c>
+      <c r="I234" t="s">
+        <v>113</v>
+      </c>
+      <c r="M234" t="s">
+        <v>57</v>
+      </c>
+      <c r="P234" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>741</v>
+      </c>
+      <c r="R234" t="s">
+        <v>747</v>
+      </c>
+      <c r="S234" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>229</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>592</v>
       </c>
-      <c r="E234" t="s">
-        <v>4</v>
-      </c>
-      <c r="F234" t="s">
-        <v>292</v>
-      </c>
-      <c r="H234" t="s">
-        <v>20</v>
-      </c>
-      <c r="I234" t="s">
-        <v>113</v>
-      </c>
-      <c r="M234" t="s">
-        <v>57</v>
-      </c>
-      <c r="P234" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+      <c r="E235" t="s">
+        <v>4</v>
+      </c>
+      <c r="F235" t="s">
+        <v>292</v>
+      </c>
+      <c r="H235" t="s">
+        <v>20</v>
+      </c>
+      <c r="I235" t="s">
+        <v>113</v>
+      </c>
+      <c r="M235" t="s">
+        <v>57</v>
+      </c>
+      <c r="P235" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>741</v>
+      </c>
+      <c r="R235" t="s">
+        <v>747</v>
+      </c>
+      <c r="S235" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>247</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>610</v>
       </c>
-      <c r="E235" t="s">
-        <v>4</v>
-      </c>
-      <c r="F235" t="s">
-        <v>292</v>
-      </c>
-      <c r="H235" t="s">
-        <v>20</v>
-      </c>
-      <c r="I235" t="s">
-        <v>113</v>
-      </c>
-      <c r="M235" t="s">
-        <v>57</v>
-      </c>
-      <c r="P235" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+      <c r="E236" t="s">
+        <v>4</v>
+      </c>
+      <c r="F236" t="s">
+        <v>292</v>
+      </c>
+      <c r="H236" t="s">
+        <v>20</v>
+      </c>
+      <c r="I236" t="s">
+        <v>113</v>
+      </c>
+      <c r="M236" t="s">
+        <v>57</v>
+      </c>
+      <c r="P236" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>741</v>
+      </c>
+      <c r="R236" t="s">
+        <v>747</v>
+      </c>
+      <c r="S236" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>276</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>637</v>
       </c>
-      <c r="E236" t="s">
-        <v>4</v>
-      </c>
-      <c r="F236" t="s">
-        <v>292</v>
-      </c>
-      <c r="H236" t="s">
-        <v>20</v>
-      </c>
-      <c r="I236" t="s">
-        <v>113</v>
-      </c>
-      <c r="M236" t="s">
-        <v>57</v>
-      </c>
-      <c r="P236" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+      <c r="E237" t="s">
+        <v>4</v>
+      </c>
+      <c r="F237" t="s">
+        <v>292</v>
+      </c>
+      <c r="H237" t="s">
+        <v>20</v>
+      </c>
+      <c r="I237" t="s">
+        <v>113</v>
+      </c>
+      <c r="M237" t="s">
+        <v>57</v>
+      </c>
+      <c r="P237" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>741</v>
+      </c>
+      <c r="R237" t="s">
+        <v>747</v>
+      </c>
+      <c r="S237" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>238</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>601</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>713</v>
       </c>
-      <c r="E237" t="s">
-        <v>4</v>
-      </c>
-      <c r="F237" t="s">
-        <v>292</v>
-      </c>
-      <c r="H237" t="s">
-        <v>20</v>
-      </c>
-      <c r="I237" t="s">
-        <v>113</v>
-      </c>
-      <c r="M237" t="s">
-        <v>57</v>
-      </c>
-      <c r="P237" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A238" s="25" t="s">
+      <c r="E238" t="s">
+        <v>4</v>
+      </c>
+      <c r="F238" t="s">
+        <v>292</v>
+      </c>
+      <c r="H238" t="s">
+        <v>20</v>
+      </c>
+      <c r="I238" t="s">
+        <v>113</v>
+      </c>
+      <c r="M238" t="s">
+        <v>57</v>
+      </c>
+      <c r="P238" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>741</v>
+      </c>
+      <c r="S238" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A239" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B238" s="25" t="s">
+      <c r="B239" s="25" t="s">
         <v>565</v>
       </c>
-      <c r="C238" s="25" t="s">
+      <c r="C239" s="25" t="s">
         <v>715</v>
       </c>
-      <c r="E238" t="s">
-        <v>4</v>
-      </c>
-      <c r="F238" t="s">
-        <v>292</v>
-      </c>
-      <c r="H238" t="s">
-        <v>20</v>
-      </c>
-      <c r="I238" t="s">
-        <v>113</v>
-      </c>
-      <c r="M238" t="s">
-        <v>57</v>
-      </c>
-      <c r="P238" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+      <c r="E239" t="s">
+        <v>4</v>
+      </c>
+      <c r="F239" t="s">
+        <v>292</v>
+      </c>
+      <c r="H239" t="s">
+        <v>20</v>
+      </c>
+      <c r="I239" t="s">
+        <v>113</v>
+      </c>
+      <c r="M239" t="s">
+        <v>57</v>
+      </c>
+      <c r="P239" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>283</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>643</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C240" t="s">
         <v>714</v>
       </c>
-      <c r="E239" t="s">
-        <v>4</v>
-      </c>
-      <c r="F239" t="s">
-        <v>292</v>
-      </c>
-      <c r="H239" t="s">
-        <v>20</v>
-      </c>
-      <c r="I239" t="s">
-        <v>113</v>
-      </c>
-      <c r="M239" t="s">
-        <v>57</v>
-      </c>
-      <c r="P239" t="s">
-        <v>295</v>
+      <c r="E240" t="s">
+        <v>4</v>
+      </c>
+      <c r="F240" t="s">
+        <v>292</v>
+      </c>
+      <c r="H240" t="s">
+        <v>20</v>
+      </c>
+      <c r="I240" t="s">
+        <v>113</v>
+      </c>
+      <c r="M240" t="s">
+        <v>57</v>
+      </c>
+      <c r="P240" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>741</v>
+      </c>
+      <c r="S240" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -10078,55 +11782,55 @@
           <x14:formula1>
             <xm:f>'List options'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E239</xm:sqref>
+          <xm:sqref>E2:E240</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E460DE7-8F87-F04F-8BB0-4F39179473AB}">
           <x14:formula1>
             <xm:f>'List options'!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K239</xm:sqref>
+          <xm:sqref>K2:K240</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDAA4A43-7BE0-7D40-90B6-8FB9D9E58678}">
           <x14:formula1>
             <xm:f>'List options'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L239</xm:sqref>
+          <xm:sqref>L2:L240</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B119D1AD-A38F-E34A-9449-C43077A98CB0}">
           <x14:formula1>
             <xm:f>'List options'!$E$2:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I239</xm:sqref>
+          <xm:sqref>I2:I240</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E8F9807-5020-344C-AC6C-6F55F671046A}">
           <x14:formula1>
             <xm:f>'List options'!$D$2:$D$13</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H239</xm:sqref>
+          <xm:sqref>H2:H240</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C907890-5F6A-E34E-949F-B812B3AB0E61}">
           <x14:formula1>
             <xm:f>'List options'!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N239</xm:sqref>
+          <xm:sqref>N2:N240</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C3532CD-AD48-9F4F-9DAF-F8629289A3AE}">
           <x14:formula1>
             <xm:f>'List options'!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O239</xm:sqref>
+          <xm:sqref>O2:O240</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D530E642-5308-A74E-890E-60D3DA09A154}">
           <x14:formula1>
             <xm:f>'List options'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G239</xm:sqref>
+          <xm:sqref>G2:G240</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F5D4F3BB-E89F-2C45-9E14-5D1A5BEC0ED8}">
           <x14:formula1>
             <xm:f>'List options'!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F239</xm:sqref>
+          <xm:sqref>F2:F240</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
